--- a/ideas/ORCS Project Tags.xlsx
+++ b/ideas/ORCS Project Tags.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39AD0E8-AEDD-4657-BD23-1B936773A224}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TAG List" sheetId="7" r:id="rId3"/>
+    <sheet name="Project ressources" sheetId="4" r:id="rId4"/>
+    <sheet name="Descriptions" sheetId="5" r:id="rId5"/>
+    <sheet name="Change Log" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="378">
   <si>
     <t>ABBR</t>
   </si>
@@ -59,9 +62,6 @@
     <t>Social Media</t>
   </si>
   <si>
-    <t>Transportation</t>
-  </si>
-  <si>
     <t>Networking</t>
   </si>
   <si>
@@ -129,13 +129,1042 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Entities</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Technisette</t>
+  </si>
+  <si>
+    <t>https://start.me/p/ELXoK8/bellingcat-osint-landscape</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>CAT1</t>
+  </si>
+  <si>
+    <t>CAT2</t>
+  </si>
+  <si>
+    <t>CAT3</t>
+  </si>
+  <si>
+    <t>CAT4</t>
+  </si>
+  <si>
+    <t>CAT5</t>
+  </si>
+  <si>
+    <t>CAT6</t>
+  </si>
+  <si>
+    <t>CAT7</t>
+  </si>
+  <si>
+    <t>CAT8</t>
+  </si>
+  <si>
+    <t>CAT9</t>
+  </si>
+  <si>
+    <t>CAT10</t>
+  </si>
+  <si>
+    <t>CAT11</t>
+  </si>
+  <si>
+    <t>CAT12</t>
+  </si>
+  <si>
+    <t>CAT13</t>
+  </si>
+  <si>
+    <t>CAT14</t>
+  </si>
+  <si>
+    <t>Social Media Platform</t>
+  </si>
+  <si>
+    <t>Maritime Movement</t>
+  </si>
+  <si>
+    <t>Aviation Movement</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Webcam</t>
+  </si>
+  <si>
+    <t>Image / Vid / Doc Forensics</t>
+  </si>
+  <si>
+    <t>Commercial Registries</t>
+  </si>
+  <si>
+    <t>Sharing and Publishing</t>
+  </si>
+  <si>
+    <t>Blogging Forum and Other Communities</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Webbo</t>
+  </si>
+  <si>
+    <t>Qzone</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>Odnoklassniki</t>
+  </si>
+  <si>
+    <t>VK</t>
+  </si>
+  <si>
+    <t>Snapchat</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Periscope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation </t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Devices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refers to social media platforms and the ressources to scrap information out of the services. </t>
+  </si>
+  <si>
+    <t>Refers to geographical location of the ressource.</t>
+  </si>
+  <si>
+    <t>Refers to network recognition tools and their ressources.</t>
+  </si>
+  <si>
+    <t>Catalog the search engines, their tools and ressources.</t>
+  </si>
+  <si>
+    <t>DVICE</t>
+  </si>
+  <si>
+    <t>Webcams</t>
+  </si>
+  <si>
+    <t>Public IoT</t>
+  </si>
+  <si>
+    <t>Domestic IoT</t>
+  </si>
+  <si>
+    <t>Corporate IoT</t>
+  </si>
+  <si>
+    <t>Imagery</t>
+  </si>
+  <si>
+    <t>IMGY</t>
+  </si>
+  <si>
+    <t>Publishing</t>
+  </si>
+  <si>
+    <t>Flicker</t>
+  </si>
+  <si>
+    <t>Wordpress</t>
+  </si>
+  <si>
+    <t>Pinterest</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>DOCS</t>
+  </si>
+  <si>
+    <t>Docs Forensics</t>
+  </si>
+  <si>
+    <t>Docs Scrapping</t>
+  </si>
+  <si>
+    <t>Docs Analysis</t>
+  </si>
+  <si>
+    <t>Dronestagram</t>
+  </si>
+  <si>
+    <t>Communities</t>
+  </si>
+  <si>
+    <t>COMU</t>
+  </si>
+  <si>
+    <t>Tumblr</t>
+  </si>
+  <si>
+    <t>LiveJournal</t>
+  </si>
+  <si>
+    <t>MyFitnessPal</t>
+  </si>
+  <si>
+    <t>Strava</t>
+  </si>
+  <si>
+    <t>Blogger</t>
+  </si>
+  <si>
+    <t>Wix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium </t>
+  </si>
+  <si>
+    <t>ProBoard</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Middle Orient</t>
+  </si>
+  <si>
+    <t>North Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Social Media - Platforms</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio </t>
+  </si>
+  <si>
+    <t>Social Platforms</t>
+  </si>
+  <si>
+    <t>Video Platforms</t>
+  </si>
+  <si>
+    <t>Pictures Platfroms</t>
+  </si>
+  <si>
+    <t>Blogging</t>
+  </si>
+  <si>
+    <t>Video Feeds</t>
+  </si>
+  <si>
+    <t>Image Feeds</t>
+  </si>
+  <si>
+    <t>Audio Feeds</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>TOOL</t>
+  </si>
+  <si>
+    <t>Forensics</t>
+  </si>
+  <si>
+    <t>Health &amp; Sports</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Medias</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>Devellopement</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Scraping</t>
+  </si>
+  <si>
+    <t>Investigation</t>
+  </si>
+  <si>
+    <t>Gaming</t>
+  </si>
+  <si>
+    <t>Social Media - Publ&amp;Blog</t>
+  </si>
+  <si>
+    <t>Communities - Hea&amp;Spo</t>
+  </si>
+  <si>
+    <t>Endomodo</t>
+  </si>
+  <si>
+    <t>Fitbit</t>
+  </si>
+  <si>
+    <t>Google+</t>
+  </si>
+  <si>
+    <t>GeoSpatial</t>
+  </si>
+  <si>
+    <t>GEOS</t>
+  </si>
+  <si>
+    <t>Refers to devices such as Webcams, IoT and other ressources available on the public domain.</t>
+  </si>
+  <si>
+    <t>Refers to transportation of people, assets, logistics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refers to geospatial and Sattelite ressources. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refers to the various communities where information can be gathered. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refers to the tools, offline and online, that serves an OSINT purpose. </t>
+  </si>
+  <si>
+    <t>Refers to the gathering, analysis and forensics ressources regarding documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refers to the tools and ressources to find, process and analyse feed coming from Video, Image or Audio sources. </t>
+  </si>
+  <si>
+    <t>Tools - Add-ons</t>
+  </si>
+  <si>
+    <t>TOAD</t>
+  </si>
+  <si>
+    <t>Firefox Addons</t>
+  </si>
+  <si>
+    <t>Chrome Addons</t>
+  </si>
+  <si>
+    <t>https://start.me/p/nRQNRb/addons</t>
+  </si>
+  <si>
+    <t>Internet Search</t>
+  </si>
+  <si>
+    <t>Geospatial data</t>
+  </si>
+  <si>
+    <t>Archives</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>PGP</t>
+  </si>
+  <si>
+    <t>Image Video</t>
+  </si>
+  <si>
+    <t>OSINT</t>
+  </si>
+  <si>
+    <t>Phone Numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy </t>
+  </si>
+  <si>
+    <t>Spoofing</t>
+  </si>
+  <si>
+    <t>Whois</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Animal</t>
+  </si>
+  <si>
+    <t>Buildings</t>
+  </si>
+  <si>
+    <t>Drone</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Financial Business</t>
+  </si>
+  <si>
+    <t>Governement</t>
+  </si>
+  <si>
+    <t>Leaks</t>
+  </si>
+  <si>
+    <t>Leaks &amp; Hacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media </t>
+  </si>
+  <si>
+    <t>People Phone Number</t>
+  </si>
+  <si>
+    <t>CAT15</t>
+  </si>
+  <si>
+    <t>CAT16</t>
+  </si>
+  <si>
+    <t>CAT17</t>
+  </si>
+  <si>
+    <t>CAT18</t>
+  </si>
+  <si>
+    <t>CAT19</t>
+  </si>
+  <si>
+    <t>CAT20</t>
+  </si>
+  <si>
+    <t>CAT21</t>
+  </si>
+  <si>
+    <t>CAT22</t>
+  </si>
+  <si>
+    <t>CAT23</t>
+  </si>
+  <si>
+    <t>CAT24</t>
+  </si>
+  <si>
+    <t>CAT25</t>
+  </si>
+  <si>
+    <t>CAT26</t>
+  </si>
+  <si>
+    <t>CAT27</t>
+  </si>
+  <si>
+    <t>CAT28</t>
+  </si>
+  <si>
+    <t>CAT29</t>
+  </si>
+  <si>
+    <t>CAT30</t>
+  </si>
+  <si>
+    <t>CAT31</t>
+  </si>
+  <si>
+    <t>CAT32</t>
+  </si>
+  <si>
+    <t>CAT33</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Religion Movements</t>
+  </si>
+  <si>
+    <t>Stolen Goods</t>
+  </si>
+  <si>
+    <t>Photos Sources</t>
+  </si>
+  <si>
+    <t>Threat Intel</t>
+  </si>
+  <si>
+    <t>Traffic and Travel</t>
+  </si>
+  <si>
+    <t>Weather Time</t>
+  </si>
+  <si>
+    <t>Whois / Domain / IP</t>
+  </si>
+  <si>
+    <t>https://start.me/p/b56G5Q/search-engines</t>
+  </si>
+  <si>
+    <t>Archived Page</t>
+  </si>
+  <si>
+    <t>Blogs</t>
+  </si>
+  <si>
+    <t>Cryptocurrencies</t>
+  </si>
+  <si>
+    <t>DarkWeb</t>
+  </si>
+  <si>
+    <t>Docs</t>
+  </si>
+  <si>
+    <t>Google Custom</t>
+  </si>
+  <si>
+    <t>Image Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IoT / Camera </t>
+  </si>
+  <si>
+    <t>IRC</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <t>Online Market</t>
+  </si>
+  <si>
+    <t>Pastebin</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>Real Estate</t>
+  </si>
+  <si>
+    <t>Similar Sites</t>
+  </si>
+  <si>
+    <t>Source Code</t>
+  </si>
+  <si>
+    <t>Jobs</t>
+  </si>
+  <si>
+    <t>Wifi</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>https://start.me/p/wMdQMQ/tools</t>
+  </si>
+  <si>
+    <t>Abuse</t>
+  </si>
+  <si>
+    <t>Android Emulator</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Hash</t>
+  </si>
+  <si>
+    <t>Images and Docs</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>URL Shortener</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Virtual Machine</t>
+  </si>
+  <si>
+    <t>https://start.me/p/z4MvlM/osint-international</t>
+  </si>
+  <si>
+    <t>Tschechien Czech Republic</t>
+  </si>
+  <si>
+    <t>Indonesien | Indonesia</t>
+  </si>
+  <si>
+    <t>Brasilien | Brasil</t>
+  </si>
+  <si>
+    <t>Iran | Islamic Republic of Iran</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UAE VAE  United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>SA South Africa | Süd Afrika</t>
+  </si>
+  <si>
+    <t>Schweiz</t>
+  </si>
+  <si>
+    <t>BELUX</t>
+  </si>
+  <si>
+    <t>IP Law | Recht</t>
+  </si>
+  <si>
+    <t>Indien | India</t>
+  </si>
+  <si>
+    <t>Niederlände | Holland</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>AUS Austrailia</t>
+  </si>
+  <si>
+    <t>AT Östereich</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Polizei Behörden Wirtschaftschutz Verfassungsschutz</t>
+  </si>
+  <si>
+    <t>ESP Spain</t>
+  </si>
+  <si>
+    <t>IT Italien</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Russische Föderation Russian Federation (RF)</t>
+  </si>
+  <si>
+    <t>Argentinien</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Kazachstan | Kazakhstan</t>
+  </si>
+  <si>
+    <t>Dänemark</t>
+  </si>
+  <si>
+    <t>Bosnien</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>CAT34</t>
+  </si>
+  <si>
+    <t>CAT35</t>
+  </si>
+  <si>
+    <t>CAT36</t>
+  </si>
+  <si>
+    <t>CAT37</t>
+  </si>
+  <si>
+    <t>CAT38</t>
+  </si>
+  <si>
+    <t>CAT39</t>
+  </si>
+  <si>
+    <t>CAT40</t>
+  </si>
+  <si>
+    <t>Polen Poland</t>
+  </si>
+  <si>
+    <t>Rumenien</t>
+  </si>
+  <si>
+    <t>Dominica (Antillen)</t>
+  </si>
+  <si>
+    <t>Tunesien | Tunesia</t>
+  </si>
+  <si>
+    <t>Naming Guide</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Serbien Serbia Srpske</t>
+  </si>
+  <si>
+    <t>Kroatien</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>CAT41</t>
+  </si>
+  <si>
+    <t>CAT42</t>
+  </si>
+  <si>
+    <t>CAT43</t>
+  </si>
+  <si>
+    <t>CAT44</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Slowakei</t>
+  </si>
+  <si>
+    <t>Slowenien</t>
+  </si>
+  <si>
+    <t>Turks and Caicos</t>
+  </si>
+  <si>
+    <t>CAT45</t>
+  </si>
+  <si>
+    <t>CAT46</t>
+  </si>
+  <si>
+    <t>Zypren Cyprus</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>OSINT INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>https://start.me/p/aLBELX/tutorials</t>
+  </si>
+  <si>
+    <t>Jk Priv - ASINT Collection</t>
+  </si>
+  <si>
+    <t>https://start.me/p/b5Aow7/asint_collection</t>
+  </si>
+  <si>
+    <t>Emmanuel Welsch</t>
+  </si>
+  <si>
+    <t>https://start.me/p/VRxaj5/dating-apps-and-hook-up-sites-for-investigators</t>
+  </si>
+  <si>
+    <t>Julia Bayer - Verification Toolset</t>
+  </si>
+  <si>
+    <t>https://start.me/p/ZGAzN7/verification-toolset</t>
+  </si>
+  <si>
+    <t>Emmanuel Welsch - Dating Apps</t>
+  </si>
+  <si>
+    <t>Bruno Mortier OSINT</t>
+  </si>
+  <si>
+    <t>https://start.me/p/ZME8nR/osint?locale=es</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Seach Engine</t>
+  </si>
+  <si>
+    <t>https://start.me/p/ekl8eK/search-engines</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - SOCMINT</t>
+  </si>
+  <si>
+    <t>https://start.me/p/Wp1kpe/socmint</t>
+  </si>
+  <si>
+    <t>Bruno Mortier</t>
+  </si>
+  <si>
+    <t>Julia Bayer</t>
+  </si>
+  <si>
+    <t>CAT47</t>
+  </si>
+  <si>
+    <t>https://github.com/lockfale/osint-framework</t>
+  </si>
+  <si>
+    <t>OSINT Framework</t>
+  </si>
+  <si>
+    <t>Author / Credits</t>
+  </si>
+  <si>
+    <t>Ressource</t>
+  </si>
+  <si>
+    <t>JkPriv</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>LockFale</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Keywords</t>
+  </si>
+  <si>
+    <t>https://start.me/p/VvGz56/keywords</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Sources</t>
+  </si>
+  <si>
+    <t>https://start.me/p/3g0aKK/sources</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - GeoInt</t>
+  </si>
+  <si>
+    <t>https://start.me/p/W1kDAj/geoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno Mortier </t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Monitoring</t>
+  </si>
+  <si>
+    <t>https://start.me/p/3xMXnP/monitoring</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Infrastructure</t>
+  </si>
+  <si>
+    <t>https://start.me/p/V0PXgr/infrastructure</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - IMINT</t>
+  </si>
+  <si>
+    <t>https://start.me/p/ZMXLlA/imint-vi</t>
+  </si>
+  <si>
+    <t>https://start.me/p/W1AXYo/toolkit</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Toolkit</t>
+  </si>
+  <si>
+    <t>Technisette - Tutorials</t>
+  </si>
+  <si>
+    <t>Technisette - Tools</t>
+  </si>
+  <si>
+    <t>Technisette - Search Engine</t>
+  </si>
+  <si>
+    <t>Technisette - Databas</t>
+  </si>
+  <si>
+    <t>Tehcnisette - Addons</t>
+  </si>
+  <si>
+    <t>Technisette - Bellingat OSINT</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Ressources</t>
+  </si>
+  <si>
+    <t>https://start.me/p/WELz48/resources</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Security</t>
+  </si>
+  <si>
+    <t>https://start.me/p/Zz4gyM/security</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Opsec</t>
+  </si>
+  <si>
+    <t>https://start.me/p/ZkMLp5/opsec</t>
+  </si>
+  <si>
+    <t>MEDI</t>
+  </si>
+  <si>
+    <t>Referes to browser's addons and their ressources.</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Creation Trag list, project ressources, descriptions</t>
+  </si>
+  <si>
+    <t>Add contents in project ressources, categories, description</t>
+  </si>
+  <si>
+    <t>SchenLong</t>
+  </si>
+  <si>
+    <t>Finished to CAT a few start.me categories.</t>
+  </si>
+  <si>
+    <t>QUESTION</t>
+  </si>
+  <si>
+    <t>ANSWER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +1172,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,8 +1202,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -177,16 +1228,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -203,9 +1277,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -217,6 +1291,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -337,7 +1412,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-36B9-42BA-91D9-1AEF2B9FA319}"/>
             </c:ext>
@@ -351,11 +1426,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245945744"/>
-        <c:axId val="252928240"/>
+        <c:axId val="170274176"/>
+        <c:axId val="172876928"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="245945744"/>
+        <c:axId val="170274176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -398,7 +1473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="252928240"/>
+        <c:crossAx val="172876928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -406,7 +1481,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="252928240"/>
+        <c:axId val="172876928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +1532,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245945744"/>
+        <c:crossAx val="170274176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -471,14 +1546,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -513,551 +1588,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1078,7 +1608,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8308EAF0-A26D-4491-945E-95C3787DB9A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8308EAF0-A26D-4491-945E-95C3787DB9A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,18 +1630,122 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF45BE3F-0CE6-4C10-AA1F-2EF8086A75EB}" name="Table1" displayName="Table1" ref="A1:I6" totalsRowShown="0">
-  <autoFilter ref="A1:I6" xr:uid="{D1144DB9-2290-4260-A0DA-4CBAA051FA9F}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{1FEBBCD9-5594-44F4-B8BC-CC0E11AC0AB0}" name="Category"/>
-    <tableColumn id="2" xr3:uid="{A5E219A9-D9C7-46AC-B02D-561A64D0C3BE}" name="ABBR"/>
-    <tableColumn id="3" xr3:uid="{06A4470B-E7ED-42EA-8CCC-7974448AE04D}" name="Value1"/>
-    <tableColumn id="4" xr3:uid="{2B5D4FCD-D1B5-40DB-9F0E-36E935AFEDCB}" name="Value2"/>
-    <tableColumn id="5" xr3:uid="{7AAB56A2-C172-4446-889F-87609FBAFA1F}" name="Value3"/>
-    <tableColumn id="6" xr3:uid="{0D895C17-0D43-4584-A7DC-576CAAC58757}" name="Value4"/>
-    <tableColumn id="7" xr3:uid="{40FEE514-FDB5-4FA8-839B-1827EC5EC945}" name="Value5"/>
-    <tableColumn id="8" xr3:uid="{744D5812-ED31-4CEB-900A-6B2CD59C2E8C}" name="Value6"/>
-    <tableColumn id="9" xr3:uid="{0CDDDF4C-063C-4B09-9429-C3594E3D2F72}" name="Column1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M21" totalsRowShown="0">
+  <autoFilter ref="A1:M21"/>
+  <tableColumns count="13">
+    <tableColumn id="1" name="Category"/>
+    <tableColumn id="2" name="ABBR"/>
+    <tableColumn id="3" name="Value1"/>
+    <tableColumn id="4" name="Value2"/>
+    <tableColumn id="5" name="Value3"/>
+    <tableColumn id="6" name="Value4"/>
+    <tableColumn id="7" name="Value5"/>
+    <tableColumn id="8" name="Value6"/>
+    <tableColumn id="9" name="Column1"/>
+    <tableColumn id="10" name="Column2"/>
+    <tableColumn id="11" name="Column3"/>
+    <tableColumn id="12" name="Column4"/>
+    <tableColumn id="17" name="Column5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:P21" totalsRowShown="0">
+  <autoFilter ref="A1:P21"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Category"/>
+    <tableColumn id="2" name="ABBR"/>
+    <tableColumn id="3" name="Value1"/>
+    <tableColumn id="4" name="Value2"/>
+    <tableColumn id="5" name="Value3"/>
+    <tableColumn id="6" name="Value4"/>
+    <tableColumn id="7" name="Value5"/>
+    <tableColumn id="8" name="Value6"/>
+    <tableColumn id="9" name="Column1"/>
+    <tableColumn id="10" name="Column2"/>
+    <tableColumn id="11" name="Column3"/>
+    <tableColumn id="12" name="Column4"/>
+    <tableColumn id="17" name="Column5"/>
+    <tableColumn id="18" name="Column6"/>
+    <tableColumn id="19" name="Column7"/>
+    <tableColumn id="20" name="Column8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:AX26" totalsRowShown="0">
+  <autoFilter ref="A1:AX26"/>
+  <sortState ref="A2:AX26">
+    <sortCondition ref="A1:A26"/>
+  </sortState>
+  <tableColumns count="50">
+    <tableColumn id="79" name="Author / Credits"/>
+    <tableColumn id="1" name="Ressource"/>
+    <tableColumn id="2" name="Link"/>
+    <tableColumn id="4" name="CAT1"/>
+    <tableColumn id="18" name="CAT2"/>
+    <tableColumn id="19" name="CAT3"/>
+    <tableColumn id="20" name="CAT4"/>
+    <tableColumn id="21" name="CAT5"/>
+    <tableColumn id="22" name="CAT6"/>
+    <tableColumn id="23" name="CAT7"/>
+    <tableColumn id="24" name="CAT8"/>
+    <tableColumn id="25" name="CAT9"/>
+    <tableColumn id="26" name="CAT10"/>
+    <tableColumn id="27" name="CAT11"/>
+    <tableColumn id="28" name="CAT12"/>
+    <tableColumn id="29" name="CAT13"/>
+    <tableColumn id="30" name="CAT14"/>
+    <tableColumn id="31" name="CAT15"/>
+    <tableColumn id="32" name="CAT16"/>
+    <tableColumn id="33" name="CAT17"/>
+    <tableColumn id="34" name="CAT18"/>
+    <tableColumn id="35" name="CAT19"/>
+    <tableColumn id="50" name="CAT20"/>
+    <tableColumn id="51" name="CAT21"/>
+    <tableColumn id="53" name="CAT22"/>
+    <tableColumn id="54" name="CAT23"/>
+    <tableColumn id="55" name="CAT24"/>
+    <tableColumn id="56" name="CAT25"/>
+    <tableColumn id="57" name="CAT26"/>
+    <tableColumn id="58" name="CAT27"/>
+    <tableColumn id="59" name="CAT28"/>
+    <tableColumn id="60" name="CAT29"/>
+    <tableColumn id="61" name="CAT30"/>
+    <tableColumn id="62" name="CAT31"/>
+    <tableColumn id="63" name="CAT32"/>
+    <tableColumn id="64" name="CAT33"/>
+    <tableColumn id="65" name="CAT34"/>
+    <tableColumn id="66" name="CAT35"/>
+    <tableColumn id="67" name="CAT36"/>
+    <tableColumn id="68" name="CAT37"/>
+    <tableColumn id="69" name="CAT38"/>
+    <tableColumn id="70" name="CAT39"/>
+    <tableColumn id="71" name="CAT40"/>
+    <tableColumn id="72" name="CAT41"/>
+    <tableColumn id="73" name="CAT42"/>
+    <tableColumn id="74" name="CAT43"/>
+    <tableColumn id="75" name="CAT44"/>
+    <tableColumn id="76" name="CAT45"/>
+    <tableColumn id="77" name="CAT46"/>
+    <tableColumn id="78" name="CAT47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A1:D26" totalsRowShown="0">
+  <autoFilter ref="A1:D26"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name"/>
+    <tableColumn id="2" name="Short Description"/>
+    <tableColumn id="3" name="URL"/>
+    <tableColumn id="18" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1160,7 +1794,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1195,7 +1829,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1372,30 +2006,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D6"/>
+      <selection activeCell="E15" sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="3" max="8" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1416,18 +2056,30 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -1442,75 +2094,236 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
       <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
-        <v>32</v>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1523,26 +2336,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4643FFEE-41E9-4DA3-B991-C3B79ECCEC2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -1551,7 +2364,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1560,7 +2373,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -1569,7 +2382,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -1578,7 +2391,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1589,4 +2402,1496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>74</v>
+      </c>
+      <c r="R4" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="66" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.88671875" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V1" t="s">
+        <v>198</v>
+      </c>
+      <c r="W1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I2" t="s">
+        <v>260</v>
+      </c>
+      <c r="J2" t="s">
+        <v>261</v>
+      </c>
+      <c r="K2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M2" t="s">
+        <v>264</v>
+      </c>
+      <c r="N2" t="s">
+        <v>265</v>
+      </c>
+      <c r="O2" t="s">
+        <v>266</v>
+      </c>
+      <c r="P2" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>268</v>
+      </c>
+      <c r="R2" t="s">
+        <v>269</v>
+      </c>
+      <c r="S2" t="s">
+        <v>270</v>
+      </c>
+      <c r="T2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U2" t="s">
+        <v>272</v>
+      </c>
+      <c r="V2" t="s">
+        <v>273</v>
+      </c>
+      <c r="W2" t="s">
+        <v>274</v>
+      </c>
+      <c r="X2" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10" t="s">
+        <v>171</v>
+      </c>
+      <c r="N10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>173</v>
+      </c>
+      <c r="E11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G11" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" t="s">
+        <v>179</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>180</v>
+      </c>
+      <c r="M11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>357</v>
+      </c>
+      <c r="C12" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" t="s">
+        <v>183</v>
+      </c>
+      <c r="F12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I12" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" t="s">
+        <v>188</v>
+      </c>
+      <c r="K12" t="s">
+        <v>189</v>
+      </c>
+      <c r="L12" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" t="s">
+        <v>193</v>
+      </c>
+      <c r="O12" t="s">
+        <v>213</v>
+      </c>
+      <c r="P12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>215</v>
+      </c>
+      <c r="R12" t="s">
+        <v>216</v>
+      </c>
+      <c r="S12" t="s">
+        <v>217</v>
+      </c>
+      <c r="T12" t="s">
+        <v>218</v>
+      </c>
+      <c r="U12" t="s">
+        <v>219</v>
+      </c>
+      <c r="V12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" t="s">
+        <v>229</v>
+      </c>
+      <c r="M13" t="s">
+        <v>230</v>
+      </c>
+      <c r="N13" t="s">
+        <v>231</v>
+      </c>
+      <c r="O13" t="s">
+        <v>232</v>
+      </c>
+      <c r="P13" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>234</v>
+      </c>
+      <c r="R13" t="s">
+        <v>235</v>
+      </c>
+      <c r="S13" t="s">
+        <v>236</v>
+      </c>
+      <c r="T13" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" t="s">
+        <v>237</v>
+      </c>
+      <c r="V13" t="s">
+        <v>238</v>
+      </c>
+      <c r="W13" t="s">
+        <v>239</v>
+      </c>
+      <c r="X13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" t="s">
+        <v>242</v>
+      </c>
+      <c r="E14" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" t="s">
+        <v>245</v>
+      </c>
+      <c r="I14" t="s">
+        <v>246</v>
+      </c>
+      <c r="J14" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" t="s">
+        <v>247</v>
+      </c>
+      <c r="L14" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" t="s">
+        <v>178</v>
+      </c>
+      <c r="N14" t="s">
+        <v>248</v>
+      </c>
+      <c r="O14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>250</v>
+      </c>
+      <c r="R14" t="s">
+        <v>251</v>
+      </c>
+      <c r="S14" t="s">
+        <v>252</v>
+      </c>
+      <c r="T14" t="s">
+        <v>253</v>
+      </c>
+      <c r="U14" t="s">
+        <v>181</v>
+      </c>
+      <c r="V14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" t="s">
+        <v>343</v>
+      </c>
+      <c r="C18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>345</v>
+      </c>
+      <c r="B20" t="s">
+        <v>348</v>
+      </c>
+      <c r="C20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>329</v>
+      </c>
+      <c r="B21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>329</v>
+      </c>
+      <c r="B25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="105.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>43336</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>43337</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ideas/ORCS Project Tags.xlsx
+++ b/ideas/ORCS Project Tags.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="TAG List" sheetId="7" r:id="rId3"/>
+    <sheet name="TAG List x CAT" sheetId="7" r:id="rId3"/>
     <sheet name="Project ressources" sheetId="4" r:id="rId4"/>
     <sheet name="Descriptions" sheetId="5" r:id="rId5"/>
     <sheet name="Change Log" sheetId="6" r:id="rId6"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="880">
   <si>
     <t>ABBR</t>
   </si>
@@ -62,6 +62,9 @@
     <t>Social Media</t>
   </si>
   <si>
+    <t>Transportation</t>
+  </si>
+  <si>
     <t>Networking</t>
   </si>
   <si>
@@ -158,9 +161,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
     <t>Technisette</t>
   </si>
   <si>
@@ -257,6 +257,12 @@
     <t>Linkedin</t>
   </si>
   <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
     <t>Odnoklassniki</t>
   </si>
   <si>
@@ -524,18 +530,6 @@
     <t xml:space="preserve">Refers to the tools and ressources to find, process and analyse feed coming from Video, Image or Audio sources. </t>
   </si>
   <si>
-    <t>Tools - Add-ons</t>
-  </si>
-  <si>
-    <t>TOAD</t>
-  </si>
-  <si>
-    <t>Firefox Addons</t>
-  </si>
-  <si>
-    <t>Chrome Addons</t>
-  </si>
-  <si>
     <t>https://start.me/p/nRQNRb/addons</t>
   </si>
   <si>
@@ -1001,9 +995,6 @@
     <t>https://start.me/p/ZME8nR/osint?locale=es</t>
   </si>
   <si>
-    <t>Bruno Mortier - Seach Engine</t>
-  </si>
-  <si>
     <t>https://start.me/p/ekl8eK/search-engines</t>
   </si>
   <si>
@@ -1097,9 +1088,6 @@
     <t>Technisette - Search Engine</t>
   </si>
   <si>
-    <t>Technisette - Databas</t>
-  </si>
-  <si>
     <t>Tehcnisette - Addons</t>
   </si>
   <si>
@@ -1127,9 +1115,6 @@
     <t>MEDI</t>
   </si>
   <si>
-    <t>Referes to browser's addons and their ressources.</t>
-  </si>
-  <si>
     <t>DATE</t>
   </si>
   <si>
@@ -1142,9 +1127,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>Creation Trag list, project ressources, descriptions</t>
-  </si>
-  <si>
     <t>Add contents in project ressources, categories, description</t>
   </si>
   <si>
@@ -1158,6 +1140,1530 @@
   </si>
   <si>
     <t>ANSWER</t>
+  </si>
+  <si>
+    <t>Jivoi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome OSINT </t>
+  </si>
+  <si>
+    <t>https://github.com/jivoi/awesome-osint</t>
+  </si>
+  <si>
+    <t>Ph055a</t>
+  </si>
+  <si>
+    <t>Awesome OSINT 2</t>
+  </si>
+  <si>
+    <t>https://github.com/Ph055a/awesome_osint</t>
+  </si>
+  <si>
+    <t>http://rr.reuser.biz</t>
+  </si>
+  <si>
+    <t>Reuser's Repertorium</t>
+  </si>
+  <si>
+    <t>Arno HP Reuser</t>
+  </si>
+  <si>
+    <t>https://netbootcamp.org/osinttools/</t>
+  </si>
+  <si>
+    <t>NetBootCamp</t>
+  </si>
+  <si>
+    <t>https://github.com/IVMachiavelli/OSINT_Team_Links</t>
+  </si>
+  <si>
+    <t>IVMachiavelli Links</t>
+  </si>
+  <si>
+    <t>Stefani Proto</t>
+  </si>
+  <si>
+    <t>SPPR Gdrive</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/0BwyWDQ59jRVGMFp3UnBfeUEzanM</t>
+  </si>
+  <si>
+    <t>Research Clinic List</t>
+  </si>
+  <si>
+    <t>http://researchclinic.net/links.html</t>
+  </si>
+  <si>
+    <t>Research Clinic</t>
+  </si>
+  <si>
+    <t>Phil Bradley</t>
+  </si>
+  <si>
+    <t>Phil Bradley's links</t>
+  </si>
+  <si>
+    <t>http://www.philb.com</t>
+  </si>
+  <si>
+    <t>https://booleanstrings.com/tools/</t>
+  </si>
+  <si>
+    <t>Booleanstring's tools</t>
+  </si>
+  <si>
+    <t>BooleanString</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I-Intelligence </t>
+  </si>
+  <si>
+    <t>https://www.i-intelligence.eu/de/quellen/links-de/</t>
+  </si>
+  <si>
+    <t>I-Intelligence links</t>
+  </si>
+  <si>
+    <t>Qwarie</t>
+  </si>
+  <si>
+    <t>UK OSINT Tools</t>
+  </si>
+  <si>
+    <t>https://www.uk-osint.net/favorites.html</t>
+  </si>
+  <si>
+    <t>Toddington</t>
+  </si>
+  <si>
+    <t>Toddington Ressources</t>
+  </si>
+  <si>
+    <t>https://www.toddington.com/resources/</t>
+  </si>
+  <si>
+    <t>DIRT</t>
+  </si>
+  <si>
+    <t>https://dirtdirectory.org</t>
+  </si>
+  <si>
+    <t>Midasearch</t>
+  </si>
+  <si>
+    <t>Midasearch ressources</t>
+  </si>
+  <si>
+    <t>https://midasearch.org</t>
+  </si>
+  <si>
+    <t>Margot Williams</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pLjKuNjFyHGDiOAW7sLmX7L9o2j5kdbF/view</t>
+  </si>
+  <si>
+    <t>GIJC2017 doc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category </t>
+  </si>
+  <si>
+    <t>Dating</t>
+  </si>
+  <si>
+    <t>Hobbies</t>
+  </si>
+  <si>
+    <t>Commercial</t>
+  </si>
+  <si>
+    <t>Military</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to Check Personal Fav for sources. </t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Make list of tools used in the OSINT VM / Schen</t>
+  </si>
+  <si>
+    <t>Take the opportunity to remove dead links of sources / Schen</t>
+  </si>
+  <si>
+    <t>Creation Trag list, project ressources, descriptions, change log</t>
+  </si>
+  <si>
+    <t>Google Custom Search Engine</t>
+  </si>
+  <si>
+    <t>IntelTechniques FlowCharts by Michael Bazzell</t>
+  </si>
+  <si>
+    <t>Michael Bazell</t>
+  </si>
+  <si>
+    <t>Crowd Source Investigation</t>
+  </si>
+  <si>
+    <t>Shortcuts</t>
+  </si>
+  <si>
+    <t>Dorks</t>
+  </si>
+  <si>
+    <t>Custom Search Engines</t>
+  </si>
+  <si>
+    <t>Flowchart</t>
+  </si>
+  <si>
+    <t>INVE</t>
+  </si>
+  <si>
+    <t>Crowd Sourced Investigation</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Bing | Yahoo</t>
+  </si>
+  <si>
+    <t>Historical Data &amp;  Cache | Historische Internet Daten</t>
+  </si>
+  <si>
+    <t>Document Search</t>
+  </si>
+  <si>
+    <t>Historial &amp; Archive</t>
+  </si>
+  <si>
+    <t>Search Engine</t>
+  </si>
+  <si>
+    <t>Google | Bing</t>
+  </si>
+  <si>
+    <t>Yandex | Cyrillic</t>
+  </si>
+  <si>
+    <t>FTP Filesearch | Dateisuche FTP</t>
+  </si>
+  <si>
+    <t>DuckDuckGo</t>
+  </si>
+  <si>
+    <t>Google Help &amp; Operators | Referenz und Hilfe zu Operatoren</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>Paste Site Search</t>
+  </si>
+  <si>
+    <t>Blog Search | Suche in Blogs</t>
+  </si>
+  <si>
+    <t>PasteSearch</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
+  </si>
+  <si>
+    <t>Column15</t>
+  </si>
+  <si>
+    <t>Column16</t>
+  </si>
+  <si>
+    <t>Blog Search</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>TOR Search via Clearnet</t>
+  </si>
+  <si>
+    <t>TOR Search</t>
+  </si>
+  <si>
+    <t>CHINESE</t>
+  </si>
+  <si>
+    <t>Google Global Search | Google Standortunabhängig | ==&gt; no VPN</t>
+  </si>
+  <si>
+    <t>Academic Search | Akademische Suchmachinen</t>
+  </si>
+  <si>
+    <t>Academic Search</t>
+  </si>
+  <si>
+    <t>PERSIAN</t>
+  </si>
+  <si>
+    <t>International Search Engine Directory | Suchmaschinen Verzeichnis</t>
+  </si>
+  <si>
+    <t>Meta Search Engines | Meta Suchmaschinen</t>
+  </si>
+  <si>
+    <t>Privacy Conscious Meta Search Engines</t>
+  </si>
+  <si>
+    <t>Meta Search</t>
+  </si>
+  <si>
+    <t>Privacy Conscious Search Engines</t>
+  </si>
+  <si>
+    <t>Specialised Search Engines</t>
+  </si>
+  <si>
+    <t>SOCIAL MEDIA LANDSCAPE</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>Group | Forum | Communities | Message Boards</t>
+  </si>
+  <si>
+    <t>Twitter Mapping Geolocation</t>
+  </si>
+  <si>
+    <t>Google+ | YouTube</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Forum Directory | Forenverzeichnis |</t>
+  </si>
+  <si>
+    <t>Delete Tweets</t>
+  </si>
+  <si>
+    <t>LinkedIn |  Xing</t>
+  </si>
+  <si>
+    <t>Q&amp;A FAQ Pages | Wer weiß was Seiten |</t>
+  </si>
+  <si>
+    <t>Job Portal</t>
+  </si>
+  <si>
+    <t>Other social networks | Weitere Soziale Netzwerke</t>
+  </si>
+  <si>
+    <t>Dating sites studies and coverage</t>
+  </si>
+  <si>
+    <t>OK Cupid</t>
+  </si>
+  <si>
+    <t>Quick links to dating sites and apps</t>
+  </si>
+  <si>
+    <t>POF (Plenty Of FIsh)</t>
+  </si>
+  <si>
+    <t>Tinder</t>
+  </si>
+  <si>
+    <t>Grindr</t>
+  </si>
+  <si>
+    <t>Quick links to LGBT sites and apps</t>
+  </si>
+  <si>
+    <t>Poly / Swolly / Swingers</t>
+  </si>
+  <si>
+    <t>Happen</t>
+  </si>
+  <si>
+    <t>BDSM / Fetish / Kinky</t>
+  </si>
+  <si>
+    <t>Hinge (now without Facebook login requirement)</t>
+  </si>
+  <si>
+    <t>Extra-marital</t>
+  </si>
+  <si>
+    <t>Companion apps to dating apps ANDROID</t>
+  </si>
+  <si>
+    <t>Search tools and techniques</t>
+  </si>
+  <si>
+    <t>Arrangement dating / Sugar Daddy search</t>
+  </si>
+  <si>
+    <t>People Aggregagtor</t>
+  </si>
+  <si>
+    <t>Social Media - Sites Misc</t>
+  </si>
+  <si>
+    <t>Dating Sites</t>
+  </si>
+  <si>
+    <t>Aviation</t>
+  </si>
+  <si>
+    <t>Boat - Vessel</t>
+  </si>
+  <si>
+    <t>Tools - How To</t>
+  </si>
+  <si>
+    <t>CSE's</t>
+  </si>
+  <si>
+    <t>Ecommerce</t>
+  </si>
+  <si>
+    <t>Social Network Search / Analysis</t>
+  </si>
+  <si>
+    <t>Motorcycle</t>
+  </si>
+  <si>
+    <t>News Archives - Research Sites</t>
+  </si>
+  <si>
+    <t>Communities (Blogs, Forums, Boards)</t>
+  </si>
+  <si>
+    <t>Maps - Ariel Images</t>
+  </si>
+  <si>
+    <t>ExifTool</t>
+  </si>
+  <si>
+    <t>Image, Audio, Video</t>
+  </si>
+  <si>
+    <t>Criminal Search</t>
+  </si>
+  <si>
+    <t>Email Searches</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Flickr</t>
+  </si>
+  <si>
+    <t>Domain Servers</t>
+  </si>
+  <si>
+    <t>Foursquare</t>
+  </si>
+  <si>
+    <t>Google Plus</t>
+  </si>
+  <si>
+    <t>Email Tracking</t>
+  </si>
+  <si>
+    <t>Computer Crime</t>
+  </si>
+  <si>
+    <t>Government Records</t>
+  </si>
+  <si>
+    <t>Businesses</t>
+  </si>
+  <si>
+    <t>Genealogy Search</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Web Archives</t>
+  </si>
+  <si>
+    <t>SnapChat</t>
+  </si>
+  <si>
+    <t>IP Addresses</t>
+  </si>
+  <si>
+    <t>Caller ID Services - Paid Sites</t>
+  </si>
+  <si>
+    <t>Property Search</t>
+  </si>
+  <si>
+    <t>CAT48</t>
+  </si>
+  <si>
+    <t>You Tube</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Location - Maps</t>
+  </si>
+  <si>
+    <t>Original / Context</t>
+  </si>
+  <si>
+    <t>Date&amp;Time</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Metadata</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>General Tools</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Chrome extensions</t>
+  </si>
+  <si>
+    <t>Rumours</t>
+  </si>
+  <si>
+    <t>Tutorials / Toollists</t>
+  </si>
+  <si>
+    <t>Instagram / Tumblr / Reddit</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Email Adress</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <t>IP Adress</t>
+  </si>
+  <si>
+    <t>Images Videos Docs</t>
+  </si>
+  <si>
+    <t>Social Networks</t>
+  </si>
+  <si>
+    <t>Instant Messaging</t>
+  </si>
+  <si>
+    <t>People Search Engine</t>
+  </si>
+  <si>
+    <t>Telephones Numbers</t>
+  </si>
+  <si>
+    <t>Public Records</t>
+  </si>
+  <si>
+    <t>Business Record</t>
+  </si>
+  <si>
+    <t>Forums Blog IRC</t>
+  </si>
+  <si>
+    <t>Language Translation</t>
+  </si>
+  <si>
+    <t>Mobile Emulation</t>
+  </si>
+  <si>
+    <t>Terrorism</t>
+  </si>
+  <si>
+    <t>Dark Web</t>
+  </si>
+  <si>
+    <t>Digital Currency</t>
+  </si>
+  <si>
+    <t>Classified</t>
+  </si>
+  <si>
+    <t>Encoding Decoding</t>
+  </si>
+  <si>
+    <t>Malicious File Analisys</t>
+  </si>
+  <si>
+    <t>Exploit &amp; Advisories</t>
+  </si>
+  <si>
+    <t>Threat Intelligence</t>
+  </si>
+  <si>
+    <t>Opsec</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>VM OSINT TOOLS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be listed. </t>
+  </si>
+  <si>
+    <t>PEOP</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>BOUNCE TO CATEGORY</t>
+  </si>
+  <si>
+    <t>FORE</t>
+  </si>
+  <si>
+    <t>MONI</t>
+  </si>
+  <si>
+    <t>ENTI</t>
+  </si>
+  <si>
+    <t>Learning</t>
+  </si>
+  <si>
+    <t>LEAR</t>
+  </si>
+  <si>
+    <t>Business Records</t>
+  </si>
+  <si>
+    <t>Tutorials - Darkweb</t>
+  </si>
+  <si>
+    <t>Technisette - Database</t>
+  </si>
+  <si>
+    <t>Cryptocurrency</t>
+  </si>
+  <si>
+    <t>Bruno Mortier - Search Engine</t>
+  </si>
+  <si>
+    <t>Similar Site</t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>Tutorials - OSINT</t>
+  </si>
+  <si>
+    <t>Tutorials - Search engines</t>
+  </si>
+  <si>
+    <t>Tutorials - Coding/technical knowledge</t>
+  </si>
+  <si>
+    <t>Tutorials - Dating</t>
+  </si>
+  <si>
+    <t>Tutorials - Cryptocurrencies</t>
+  </si>
+  <si>
+    <t>Tutorials - Financial/Businesses</t>
+  </si>
+  <si>
+    <t>Tutorials - Social media</t>
+  </si>
+  <si>
+    <t>Tutorials - Cybercrime</t>
+  </si>
+  <si>
+    <t>Tutorials - Image search/verification</t>
+  </si>
+  <si>
+    <t>Tutorials - OSINT libraries</t>
+  </si>
+  <si>
+    <t>Tutorials - Privacy and Security</t>
+  </si>
+  <si>
+    <t>Tutorials - Law/abuse</t>
+  </si>
+  <si>
+    <t>Tutorials - Maps</t>
+  </si>
+  <si>
+    <t>Tutorials - Who.is/website information</t>
+  </si>
+  <si>
+    <t>Darkweb</t>
+  </si>
+  <si>
+    <t>Technical Knowledge</t>
+  </si>
+  <si>
+    <t>Cybercrime</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Osint Projects</t>
+  </si>
+  <si>
+    <t>Keywords | Schlüsselwörter</t>
+  </si>
+  <si>
+    <t>CALENDAR | TIMEZONE | CALC</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>Translation Transliteration | Übersetzung |</t>
+  </si>
+  <si>
+    <t>Mini Tools</t>
+  </si>
+  <si>
+    <t>Naming Guide Naming Conventions</t>
+  </si>
+  <si>
+    <t>Currency Converter</t>
+  </si>
+  <si>
+    <t>Translating Management Titles - Companies</t>
+  </si>
+  <si>
+    <t>PERSIAN FARSI</t>
+  </si>
+  <si>
+    <t>Plagiate &amp; Stylometrie | Plagiarism &amp; Stylometry</t>
+  </si>
+  <si>
+    <t>IBAN &amp; BIC</t>
+  </si>
+  <si>
+    <t>Bitcoin</t>
+  </si>
+  <si>
+    <t>CYRILLIC</t>
+  </si>
+  <si>
+    <t>Language Courses</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>LANG</t>
+  </si>
+  <si>
+    <t>Cyrillic</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Language &amp; Translation</t>
+  </si>
+  <si>
+    <t>Date, Time, Currencies</t>
+  </si>
+  <si>
+    <t>Keywords &amp; Dictionaries</t>
+  </si>
+  <si>
+    <t>Adding more ressources, Adding credits column</t>
+  </si>
+  <si>
+    <t>Defining Categories of ressources listed, adding relevant to Sheet1 and Tag List</t>
+  </si>
+  <si>
+    <t>That's a long way ………..</t>
+  </si>
+  <si>
+    <t>Got into python to automate this kind of sh****.</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Free Sources  | German Centric - Deutschland |</t>
+  </si>
+  <si>
+    <t>Fee based Sources [€] Kostenpflichtige Datenbanken</t>
+  </si>
+  <si>
+    <t>Registry in the target country + Databases</t>
+  </si>
+  <si>
+    <t>Leak Database | Leak Datenbanken</t>
+  </si>
+  <si>
+    <t>People Search Engines</t>
+  </si>
+  <si>
+    <t>KYC AML / CFT / UBO / Asset Recovery Transparency</t>
+  </si>
+  <si>
+    <t>News Aggregator | Nachrichten Verzeichnis | Nachrichtenagentur</t>
+  </si>
+  <si>
+    <t>Import / Export Trade Data</t>
+  </si>
+  <si>
+    <t>Annual Reports | Jahresbericht</t>
+  </si>
+  <si>
+    <t>Credit rating &amp; Insolvency Info | Bonitäts Informationen</t>
+  </si>
+  <si>
+    <t>Telephone Directories</t>
+  </si>
+  <si>
+    <t>Court Judgements Law | Gerichtsurteile |Recht</t>
+  </si>
+  <si>
+    <t>Web Directory | Web Internet Verzeichnisse</t>
+  </si>
+  <si>
+    <t>Ausschreibungen | Tender (GER)</t>
+  </si>
+  <si>
+    <t>Open Data | FOAI | Wobbing |Freedom of Information</t>
+  </si>
+  <si>
+    <t>Dialling and ZIP Code | Info zu Vorwahlen und PLZ |</t>
+  </si>
+  <si>
+    <t>Patent Search</t>
+  </si>
+  <si>
+    <t>Stolen Goods Database</t>
+  </si>
+  <si>
+    <t>Yellow Pages | Gelbe Seiten | Firmensuche | Wer Liefert Was</t>
+  </si>
+  <si>
+    <t>Stock Market</t>
+  </si>
+  <si>
+    <t>Employer Reviews | Arbeitgeber Bewertungsplattformen</t>
+  </si>
+  <si>
+    <t>PEP Sanctionslist Watchlist</t>
+  </si>
+  <si>
+    <t>Inverse Phone Search | Telefonnummer Rückwärtssuche |</t>
+  </si>
+  <si>
+    <t>Professional  Associations (GER) | Kammern und Verbände</t>
+  </si>
+  <si>
+    <t>Starting an Off Shore Company | Firmengründung Off-Shore |</t>
+  </si>
+  <si>
+    <t>Presentations</t>
+  </si>
+  <si>
+    <t>Classified Ads | Anzeigen |</t>
+  </si>
+  <si>
+    <t>Marketplace Classifieds | Marktplätze</t>
+  </si>
+  <si>
+    <t>Grey Literature</t>
+  </si>
+  <si>
+    <t>Trade Data</t>
+  </si>
+  <si>
+    <t>Annual Report</t>
+  </si>
+  <si>
+    <t>Credit Rating &amp; Insolvency</t>
+  </si>
+  <si>
+    <t>Open Data</t>
+  </si>
+  <si>
+    <t>Patents Search</t>
+  </si>
+  <si>
+    <t>Employer Review</t>
+  </si>
+  <si>
+    <t>Sanction List</t>
+  </si>
+  <si>
+    <t>GPS Coordinates GEO Locate</t>
+  </si>
+  <si>
+    <t>Marine Tracking</t>
+  </si>
+  <si>
+    <t>COUNTRY CODES</t>
+  </si>
+  <si>
+    <t>Crisis Alerts &amp; Travel Security | Krisen  Incident Disaster</t>
+  </si>
+  <si>
+    <t>Travel Advisory | Reisewarnungen | Sicherheit | Kriminalität</t>
+  </si>
+  <si>
+    <t>Aviation Tracking</t>
+  </si>
+  <si>
+    <t>Google &amp; Bing AddOn</t>
+  </si>
+  <si>
+    <t>Railway Tracking</t>
+  </si>
+  <si>
+    <t>Country Infrastructure | Expat Guide</t>
+  </si>
+  <si>
+    <t>Culture &amp; Customs | Kultur</t>
+  </si>
+  <si>
+    <t>Medical Health Pandemic | Medizinische Informationen</t>
+  </si>
+  <si>
+    <t>Airwave Tracking | SIGINT TSCM</t>
+  </si>
+  <si>
+    <t>Sattelite Data</t>
+  </si>
+  <si>
+    <t>Behörden und Regierungen</t>
+  </si>
+  <si>
+    <t>Consulate Embassies | Konsulats Informationen</t>
+  </si>
+  <si>
+    <t>Geopolitcs</t>
+  </si>
+  <si>
+    <t>Press Freedom</t>
+  </si>
+  <si>
+    <t>GEO Located News</t>
+  </si>
+  <si>
+    <t>GEO Located Imagery</t>
+  </si>
+  <si>
+    <t>Map Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crisis Alerts &amp; Travel Security </t>
+  </si>
+  <si>
+    <t>Culture &amp; Customs</t>
+  </si>
+  <si>
+    <t>Medical Health Pandemic</t>
+  </si>
+  <si>
+    <t>Airwave Tracking</t>
+  </si>
+  <si>
+    <t>Governments</t>
+  </si>
+  <si>
+    <t>GOVN</t>
+  </si>
+  <si>
+    <t>Consulate &amp; Ambassies</t>
+  </si>
+  <si>
+    <t>DEVI</t>
+  </si>
+  <si>
+    <t>Add-ons</t>
+  </si>
+  <si>
+    <t>Twitter RSS</t>
+  </si>
+  <si>
+    <t>Monitoring Website Changes</t>
+  </si>
+  <si>
+    <t>News Monitoring</t>
+  </si>
+  <si>
+    <t>Monitoring Pastebin</t>
+  </si>
+  <si>
+    <t>Google Plus RSS</t>
+  </si>
+  <si>
+    <t>Google Chrome AddOn | Monitoring RSS</t>
+  </si>
+  <si>
+    <t>Firefox AddOn | Monitoring RSS</t>
+  </si>
+  <si>
+    <t>YouTube RSS</t>
+  </si>
+  <si>
+    <t>Monitoring Wikipedia</t>
+  </si>
+  <si>
+    <t>Competitive Intelligence</t>
+  </si>
+  <si>
+    <t>Facebook RSS</t>
+  </si>
+  <si>
+    <t>RSS Reader</t>
+  </si>
+  <si>
+    <t>Website Monitoring RSS</t>
+  </si>
+  <si>
+    <t>RSS Resources</t>
+  </si>
+  <si>
+    <t>Alerts / Benachrichtigungen</t>
+  </si>
+  <si>
+    <t>Full Text RSS Feed</t>
+  </si>
+  <si>
+    <t>Social Media Management</t>
+  </si>
+  <si>
+    <t>Customise Feeds and filter keywords</t>
+  </si>
+  <si>
+    <t>Google News RSS Feed + [keyword],[keyword]</t>
+  </si>
+  <si>
+    <t>RSS Feed Kanäle durchsuchen</t>
+  </si>
+  <si>
+    <t>IFTTT und Zapier Recipes - Monitoring</t>
+  </si>
+  <si>
+    <t>E-Mail ==&gt; RSS</t>
+  </si>
+  <si>
+    <t>Bing Search  RSS Feeds</t>
+  </si>
+  <si>
+    <t>Combine RSS Feeds</t>
+  </si>
+  <si>
+    <t>Social Media Monitoring</t>
+  </si>
+  <si>
+    <t>New Monitoring</t>
+  </si>
+  <si>
+    <t>Website Monitoring</t>
+  </si>
+  <si>
+    <t>RSS Monitoring</t>
+  </si>
+  <si>
+    <t>Wikipedia Monitoring</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>Monitoring Tools</t>
+  </si>
+  <si>
+    <t>Find WIFI Network</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>WHOIS info</t>
+  </si>
+  <si>
+    <t>Check Username</t>
+  </si>
+  <si>
+    <t>Email assumptions | Annahme / Vermutung COMPANY</t>
+  </si>
+  <si>
+    <t>Domain IP Search</t>
+  </si>
+  <si>
+    <t>Email assumptions | Annahme / Vermutung PERSONAL</t>
+  </si>
+  <si>
+    <t>E-Mail Vermutung | Listen mit Domains und Freemail Domains</t>
+  </si>
+  <si>
+    <t>IANA ICAN</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Visualise  Domains</t>
+  </si>
+  <si>
+    <t>Verify E-Mail</t>
+  </si>
+  <si>
+    <t>Revers analytics / Search Sourcecode</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Reset Password | Verify Email</t>
+  </si>
+  <si>
+    <t>Search Backlinks</t>
+  </si>
+  <si>
+    <t>Search Subdomain</t>
+  </si>
+  <si>
+    <t>E-Mail to Profile + Maltego Social Link</t>
+  </si>
+  <si>
+    <t>Domain Health</t>
+  </si>
+  <si>
+    <t>Direct to Voice Messaging</t>
+  </si>
+  <si>
+    <t>E-Mail breached check</t>
+  </si>
+  <si>
+    <t>Email Search / Trace / Header</t>
+  </si>
+  <si>
+    <t>IP Logger Tools | Identify Target IP | Canary Token</t>
+  </si>
+  <si>
+    <t>IANA</t>
+  </si>
+  <si>
+    <t>Backlink</t>
+  </si>
+  <si>
+    <t>Video Search</t>
+  </si>
+  <si>
+    <t>Analyse and Delete Metadata | Metadaten Löschen |</t>
+  </si>
+  <si>
+    <t>Street View Player FMPS 2,  1024 width  576 height</t>
+  </si>
+  <si>
+    <t>Download &amp; Convert Video</t>
+  </si>
+  <si>
+    <t>Picture Search | Bilder Suche |</t>
+  </si>
+  <si>
+    <t>Reverse Image Search | Bilder Rückwärts Suchen</t>
+  </si>
+  <si>
+    <t>Video Stream</t>
+  </si>
+  <si>
+    <t>Face recognition</t>
+  </si>
+  <si>
+    <t>Camera trace | Kamera Seriennummer |</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Photo Library</t>
+  </si>
+  <si>
+    <t>Photo forensics</t>
+  </si>
+  <si>
+    <t>Archive Webpages | Webseiten Archivieren |</t>
+  </si>
+  <si>
+    <t>Google Chrome AddOn| Foto Video</t>
+  </si>
+  <si>
+    <t>Identify Pictures</t>
+  </si>
+  <si>
+    <t>Metadata Analysis</t>
+  </si>
+  <si>
+    <t>Download &amp; Convert</t>
+  </si>
+  <si>
+    <t>Reverse Search</t>
+  </si>
+  <si>
+    <t>Face Recognition</t>
+  </si>
+  <si>
+    <t>Camera Trace</t>
+  </si>
+  <si>
+    <t>Chrome Extensions: Productivity</t>
+  </si>
+  <si>
+    <t>Data Visualisation / Mapping</t>
+  </si>
+  <si>
+    <t>MALTEGO and Transforms</t>
+  </si>
+  <si>
+    <t>IBM i2 iBase &amp; Analyst Notebook</t>
+  </si>
+  <si>
+    <t>OSINT Toolkit</t>
+  </si>
+  <si>
+    <t>Visualisation</t>
+  </si>
+  <si>
+    <t>Pentesting</t>
+  </si>
+  <si>
+    <t>Hunchly</t>
+  </si>
+  <si>
+    <t>Web Scraping Crawling</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>MindMup Mindmap Tool</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Send Data</t>
+  </si>
+  <si>
+    <t>Web Archiving</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Crawl Links</t>
+  </si>
+  <si>
+    <t>Data Visualization &amp; Mapping</t>
+  </si>
+  <si>
+    <t>Maltego &amp; Transforms</t>
+  </si>
+  <si>
+    <t>Evidence Management &amp; Collection</t>
+  </si>
+  <si>
+    <t>Archving</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Conferences</t>
+  </si>
+  <si>
+    <t>Journalism and Verification</t>
+  </si>
+  <si>
+    <t>FORUM</t>
+  </si>
+  <si>
+    <t>Kriminalistik</t>
+  </si>
+  <si>
+    <t>Podcast</t>
+  </si>
+  <si>
+    <t>eBook</t>
+  </si>
+  <si>
+    <t>Activism</t>
+  </si>
+  <si>
+    <t>Digital Forensics Tools</t>
+  </si>
+  <si>
+    <t>Internet Infrastructure</t>
+  </si>
+  <si>
+    <t>Account Deletions</t>
+  </si>
+  <si>
+    <t>Chrome Extensions: Security Standard Config</t>
+  </si>
+  <si>
+    <t>Self Assessment: Adobe Flash and Java Script Version</t>
+  </si>
+  <si>
+    <t>Self Assessment: Port | Browser Privacy test</t>
+  </si>
+  <si>
+    <t>Chrome Extensions: Security</t>
+  </si>
+  <si>
+    <t>Windows Tools</t>
+  </si>
+  <si>
+    <t>Self Assessment : JavaScript test</t>
+  </si>
+  <si>
+    <t>Chrome FAQ</t>
+  </si>
+  <si>
+    <t>MAC Tools</t>
+  </si>
+  <si>
+    <t>Firefox: Security</t>
+  </si>
+  <si>
+    <t>Self Assessment: E-Mail Privacy test</t>
+  </si>
+  <si>
+    <t>Make a Bootable USB</t>
+  </si>
+  <si>
+    <t>Self Assessment: E-Mail breached test</t>
+  </si>
+  <si>
+    <t>Unshorten Redirect</t>
+  </si>
+  <si>
+    <t>Alternative Operating Systems - Linux OS Stateless or VM</t>
+  </si>
+  <si>
+    <t>Self Assessment: Geo Location Check</t>
+  </si>
+  <si>
+    <t>Virtual Machines VM | Virtuelle Maschinen</t>
+  </si>
+  <si>
+    <t>Download known programs from known sources - Alternative</t>
+  </si>
+  <si>
+    <t>Self Assessment: VPN &amp; Router Leak test</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Router Security Tools and Resources</t>
+  </si>
+  <si>
+    <t>Enable 2FA two factor identification on all services</t>
+  </si>
+  <si>
+    <t>Firewall Appliance &amp; Online Virus Check</t>
+  </si>
+  <si>
+    <t>Backup utilities</t>
+  </si>
+  <si>
+    <t>Passwort Manager and Offline Password generator</t>
+  </si>
+  <si>
+    <t>Online Backup Services</t>
+  </si>
+  <si>
+    <t>Alternative Search Engines to avoid Data Collection</t>
+  </si>
+  <si>
+    <t>Online Password Generators &amp; Checkers</t>
+  </si>
+  <si>
+    <t>Removing Personal Data</t>
+  </si>
+  <si>
+    <t>Deleting Accounts</t>
+  </si>
+  <si>
+    <t>Credit Companies (GER)</t>
+  </si>
+  <si>
+    <t>Messaging and Communication</t>
+  </si>
+  <si>
+    <t>Encrypted Chat</t>
+  </si>
+  <si>
+    <t>E-Mail provider - End to End Encryption</t>
+  </si>
+  <si>
+    <t>Cloud Storage Encryption</t>
+  </si>
+  <si>
+    <t>Secure Eraser / Encryption as Erasure</t>
+  </si>
+  <si>
+    <t>PGP Manual End to End E-Mail Encryption</t>
+  </si>
+  <si>
+    <t>Data at Rest - Full Disk Encryption + Keyfile 2FA</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Virtual Machines</t>
+  </si>
+  <si>
+    <t>Alternative Oses</t>
+  </si>
+  <si>
+    <t>Self Security Assesment</t>
+  </si>
+  <si>
+    <t>VPNs</t>
+  </si>
+  <si>
+    <t>Secure Erasing</t>
+  </si>
+  <si>
+    <t>PGP &amp; Encryption</t>
+  </si>
+  <si>
+    <t>Technical Documentation</t>
+  </si>
+  <si>
+    <t>TECD</t>
+  </si>
+  <si>
+    <t>Investigative Identity creation</t>
+  </si>
+  <si>
+    <t>Webmail for Investigative Accounts</t>
+  </si>
+  <si>
+    <t>Website Visit/Screenshot  via Proxy</t>
+  </si>
+  <si>
+    <t>Investigative Identity Name creation</t>
+  </si>
+  <si>
+    <t>Disposable Email</t>
+  </si>
+  <si>
+    <t>Virtual Private Network VPN</t>
+  </si>
+  <si>
+    <t>Investigative Identity User Name/Alias</t>
+  </si>
+  <si>
+    <t>E-Mail Forwarding / Remailer</t>
+  </si>
+  <si>
+    <t>Investigative Identity User Name Check | Alias Prüfung</t>
+  </si>
+  <si>
+    <t>TOR I2P Freenet and alternative Browser</t>
+  </si>
+  <si>
+    <t>Payment |  Zahlungsmittel</t>
+  </si>
+  <si>
+    <t>Investigative Identity Profile Picture | Ermittler Identität Profilfoto</t>
+  </si>
+  <si>
+    <t>Phone #</t>
+  </si>
+  <si>
+    <t>Investigative Identity | ID Creator Card</t>
+  </si>
+  <si>
+    <t>Selftest: VPN &amp; Router</t>
+  </si>
+  <si>
+    <t>Privacy and Security Resources (ENG)</t>
+  </si>
+  <si>
+    <t>Spoof Location Data  and E-Mail Sender</t>
+  </si>
+  <si>
+    <t>Prepaid-Virtual-Second-Gift Creditcard / Bitcoin</t>
+  </si>
+  <si>
+    <t>Spoof SMS</t>
+  </si>
+  <si>
+    <t>Disposable Telephone  Numbers</t>
+  </si>
+  <si>
+    <t>Privacy Services</t>
+  </si>
+  <si>
+    <t>Cybervictim Rescources USA</t>
+  </si>
+  <si>
+    <t>Privacy | Datenschutz Ressourcen (GER)</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +2695,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1208,8 +2714,26 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1241,12 +2765,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1258,6 +2797,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1371,19 +2917,19 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>COMU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DEVI</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DOCS</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>GEOG</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>SOCM</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TRNS</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>NETW</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>SENG</c:v>
+                  <c:v>GEOS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1395,19 +2941,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,9 +3176,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X26" totalsRowShown="0">
+  <autoFilter ref="A1:X26"/>
+  <sortState ref="A2:M13">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
+  <tableColumns count="24">
     <tableColumn id="1" name="Category"/>
     <tableColumn id="2" name="ABBR"/>
     <tableColumn id="3" name="Value1"/>
@@ -1646,6 +3195,17 @@
     <tableColumn id="11" name="Column3"/>
     <tableColumn id="12" name="Column4"/>
     <tableColumn id="17" name="Column5"/>
+    <tableColumn id="18" name="Column6"/>
+    <tableColumn id="19" name="Column7"/>
+    <tableColumn id="20" name="Column8"/>
+    <tableColumn id="21" name="Column9"/>
+    <tableColumn id="22" name="Column10"/>
+    <tableColumn id="23" name="Column11"/>
+    <tableColumn id="24" name="Column12"/>
+    <tableColumn id="30" name="Column13"/>
+    <tableColumn id="31" name="Column14"/>
+    <tableColumn id="32" name="Column15"/>
+    <tableColumn id="33" name="Column16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1655,7 +3215,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:P21" totalsRowShown="0">
   <autoFilter ref="A1:P21"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="Category"/>
+    <tableColumn id="1" name="Category "/>
     <tableColumn id="2" name="ABBR"/>
     <tableColumn id="3" name="Value1"/>
     <tableColumn id="4" name="Value2"/>
@@ -1677,15 +3237,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:AX26" totalsRowShown="0">
-  <autoFilter ref="A1:AX26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:AY61" totalsRowShown="0">
+  <autoFilter ref="A1:AY61"/>
   <sortState ref="A2:AX26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <tableColumns count="50">
+  <tableColumns count="51">
     <tableColumn id="79" name="Author / Credits"/>
     <tableColumn id="1" name="Ressource"/>
-    <tableColumn id="2" name="Link"/>
+    <tableColumn id="2" name="URL"/>
     <tableColumn id="4" name="CAT1"/>
     <tableColumn id="18" name="CAT2"/>
     <tableColumn id="19" name="CAT3"/>
@@ -1733,6 +3293,7 @@
     <tableColumn id="76" name="CAT45"/>
     <tableColumn id="77" name="CAT46"/>
     <tableColumn id="78" name="CAT47"/>
+    <tableColumn id="80" name="CAT48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2014,28 +3575,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:AC20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2056,274 +3630,640 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" t="s">
+        <v>454</v>
+      </c>
+      <c r="T1" t="s">
+        <v>455</v>
+      </c>
+      <c r="U1" t="s">
+        <v>456</v>
+      </c>
+      <c r="V1" t="s">
+        <v>457</v>
+      </c>
+      <c r="W1" t="s">
+        <v>458</v>
+      </c>
+      <c r="X1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>699</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>672</v>
+      </c>
+      <c r="E6" t="s">
+        <v>695</v>
+      </c>
+      <c r="F6" t="s">
+        <v>691</v>
+      </c>
+      <c r="G6" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>690</v>
+      </c>
+      <c r="G7" t="s">
+        <v>772</v>
+      </c>
+      <c r="H7" t="s">
+        <v>773</v>
+      </c>
+      <c r="I7" t="s">
+        <v>774</v>
+      </c>
+      <c r="J7" t="s">
+        <v>775</v>
+      </c>
+      <c r="K7" t="s">
+        <v>776</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>179</v>
+      </c>
+      <c r="H8" t="s">
+        <v>755</v>
+      </c>
+      <c r="I8" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H9" t="s">
+        <v>433</v>
+      </c>
+      <c r="I9" t="s">
+        <v>442</v>
+      </c>
+      <c r="J9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" t="s">
+        <v>449</v>
+      </c>
+      <c r="L9" t="s">
+        <v>453</v>
+      </c>
+      <c r="M9" t="s">
+        <v>460</v>
+      </c>
+      <c r="N9" t="s">
+        <v>463</v>
+      </c>
+      <c r="O9" t="s">
+        <v>467</v>
+      </c>
+      <c r="P9" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>473</v>
+      </c>
+      <c r="R9" t="s">
+        <v>586</v>
+      </c>
+      <c r="S9" t="s">
+        <v>230</v>
+      </c>
+      <c r="T9" t="s">
+        <v>233</v>
+      </c>
+      <c r="U9" t="s">
+        <v>588</v>
+      </c>
+      <c r="V9" t="s">
+        <v>236</v>
+      </c>
+      <c r="W9" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>435</v>
+      </c>
+      <c r="G11" t="s">
+        <v>630</v>
+      </c>
+      <c r="H11" t="s">
+        <v>628</v>
+      </c>
+      <c r="I11" t="s">
+        <v>629</v>
+      </c>
+      <c r="J11" t="s">
+        <v>700</v>
+      </c>
+      <c r="K11" t="s">
+        <v>796</v>
+      </c>
+      <c r="L11" t="s">
+        <v>797</v>
+      </c>
+      <c r="M11" t="s">
+        <v>783</v>
+      </c>
+      <c r="N11" t="s">
+        <v>798</v>
+      </c>
+      <c r="O11" t="s">
+        <v>799</v>
+      </c>
+      <c r="P11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>850</v>
+      </c>
+      <c r="R11" t="s">
+        <v>849</v>
+      </c>
+      <c r="S11" t="s">
+        <v>851</v>
+      </c>
+      <c r="T11" t="s">
+        <v>852</v>
+      </c>
+      <c r="U11" t="s">
+        <v>829</v>
+      </c>
+      <c r="V11" t="s">
+        <v>853</v>
+      </c>
+      <c r="W11" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D13" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>575</v>
+      </c>
+      <c r="C14" t="s">
+        <v>549</v>
+      </c>
+      <c r="D14" t="s">
+        <v>550</v>
+      </c>
+      <c r="E14" t="s">
+        <v>552</v>
+      </c>
+      <c r="F14" t="s">
+        <v>576</v>
+      </c>
+      <c r="G14" t="s">
+        <v>558</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="I14" t="s">
+        <v>415</v>
+      </c>
+      <c r="J14" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>536</v>
+      </c>
+      <c r="B16" t="s">
+        <v>579</v>
+      </c>
+      <c r="C16" t="s">
+        <v>692</v>
+      </c>
+      <c r="D16" t="s">
+        <v>694</v>
+      </c>
+      <c r="E16" t="s">
+        <v>687</v>
+      </c>
+      <c r="F16" t="s">
+        <v>688</v>
+      </c>
+      <c r="G16" t="s">
+        <v>725</v>
+      </c>
+      <c r="H16" t="s">
+        <v>726</v>
+      </c>
+      <c r="I16" t="s">
+        <v>727</v>
+      </c>
+      <c r="J16" t="s">
+        <v>728</v>
+      </c>
+      <c r="K16" t="s">
+        <v>729</v>
+      </c>
+      <c r="L16" t="s">
+        <v>730</v>
+      </c>
+      <c r="M16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B17" t="s">
+        <v>580</v>
+      </c>
+      <c r="C17" t="s">
+        <v>576</v>
+      </c>
+      <c r="D17" t="s">
+        <v>583</v>
+      </c>
+      <c r="E17" t="s">
+        <v>665</v>
+      </c>
+      <c r="F17" t="s">
+        <v>666</v>
+      </c>
+      <c r="G17" t="s">
+        <v>667</v>
+      </c>
+      <c r="H17" t="s">
+        <v>668</v>
+      </c>
+      <c r="I17" t="s">
+        <v>669</v>
+      </c>
+      <c r="J17" t="s">
+        <v>655</v>
+      </c>
+      <c r="K17" t="s">
+        <v>670</v>
+      </c>
+      <c r="L17" t="s">
+        <v>671</v>
+      </c>
+      <c r="M17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" t="s">
+        <v>582</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>604</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F18" t="s">
+        <v>605</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" t="s">
-        <v>75</v>
-      </c>
-      <c r="S3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E11" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D13" t="s">
-        <v>169</v>
+      <c r="H18" t="s">
+        <v>606</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>607</v>
+      </c>
+      <c r="L18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>696</v>
+      </c>
+      <c r="B19" t="s">
+        <v>697</v>
+      </c>
+      <c r="C19" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>855</v>
+      </c>
+      <c r="B20" t="s">
+        <v>856</v>
+      </c>
+      <c r="C20" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
@@ -2337,10 +4277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2350,53 +4290,216 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>699</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="2">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,10 +4509,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2418,10 +4521,10 @@
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.77734375" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
@@ -2430,7 +4533,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2451,31 +4554,31 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -2483,80 +4586,80 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>117</v>
-      </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
         <v>72</v>
@@ -2565,22 +4668,22 @@
         <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
         <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M4" t="s">
         <v>74</v>
@@ -2589,7 +4692,7 @@
         <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q4" t="s">
         <v>74</v>
@@ -2598,96 +4701,134 @@
         <v>75</v>
       </c>
       <c r="S4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="G5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I5" t="s">
+        <v>419</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="F9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>624</v>
+      </c>
+      <c r="B12" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" t="s">
+        <v>626</v>
+      </c>
+      <c r="E12" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -2701,65 +4842,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX25"/>
+  <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="66" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.88671875" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="47.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="71.109375" customWidth="1"/>
+    <col min="4" max="4" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="55" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="45" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="49.88671875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="9" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="54" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="34" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="37" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="42.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>48</v>
@@ -2804,337 +4955,796 @@
         <v>61</v>
       </c>
       <c r="R1" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" t="s">
         <v>194</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>195</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>196</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>197</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>198</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>199</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>200</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>201</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>202</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>203</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>204</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>205</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>206</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>207</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>208</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>209</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>210</v>
       </c>
-      <c r="AI1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>212</v>
-      </c>
       <c r="AK1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM1" t="s">
         <v>286</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>287</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>288</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>289</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>290</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" t="s">
+        <v>258</v>
+      </c>
+      <c r="J2" t="s">
+        <v>259</v>
+      </c>
+      <c r="K2" t="s">
+        <v>260</v>
+      </c>
+      <c r="L2" t="s">
+        <v>261</v>
+      </c>
+      <c r="M2" t="s">
+        <v>262</v>
+      </c>
+      <c r="N2" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P2" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>266</v>
+      </c>
+      <c r="R2" t="s">
+        <v>267</v>
+      </c>
+      <c r="S2" t="s">
+        <v>268</v>
+      </c>
+      <c r="T2" t="s">
+        <v>269</v>
+      </c>
+      <c r="U2" t="s">
+        <v>270</v>
+      </c>
+      <c r="V2" t="s">
+        <v>271</v>
+      </c>
+      <c r="W2" t="s">
+        <v>272</v>
+      </c>
+      <c r="X2" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AI2" t="s">
         <v>291</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AJ2" t="s">
         <v>292</v>
       </c>
-      <c r="AR1" t="s">
-        <v>302</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>303</v>
-      </c>
-      <c r="AT1" t="s">
+      <c r="AK2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AR2" t="s">
         <v>304</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AS2" t="s">
         <v>305</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AT2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV2" t="s">
         <v>310</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW2" t="s">
         <v>311</v>
       </c>
-      <c r="AX1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J4" t="s">
+        <v>446</v>
+      </c>
+      <c r="K4" t="s">
+        <v>447</v>
+      </c>
+      <c r="L4" t="s">
+        <v>448</v>
+      </c>
+      <c r="M4" t="s">
+        <v>450</v>
+      </c>
+      <c r="N4" t="s">
+        <v>451</v>
+      </c>
+      <c r="O4" t="s">
+        <v>452</v>
+      </c>
+      <c r="P4" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>462</v>
+      </c>
+      <c r="R4" t="s">
+        <v>464</v>
+      </c>
+      <c r="S4" t="s">
+        <v>465</v>
+      </c>
+      <c r="T4" t="s">
+        <v>466</v>
+      </c>
+      <c r="U4" t="s">
+        <v>468</v>
+      </c>
+      <c r="V4" t="s">
+        <v>469</v>
+      </c>
+      <c r="W4" t="s">
+        <v>470</v>
+      </c>
+      <c r="X4" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>476</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K5" t="s">
+        <v>479</v>
+      </c>
+      <c r="L5" t="s">
+        <v>480</v>
+      </c>
+      <c r="M5" t="s">
+        <v>481</v>
+      </c>
+      <c r="N5" t="s">
+        <v>482</v>
+      </c>
+      <c r="O5" t="s">
+        <v>483</v>
+      </c>
+      <c r="P5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>484</v>
+      </c>
+      <c r="R5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D6" t="s">
+        <v>486</v>
+      </c>
+      <c r="E6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6" t="s">
+        <v>488</v>
+      </c>
+      <c r="G6" t="s">
+        <v>489</v>
+      </c>
+      <c r="H6" t="s">
+        <v>490</v>
+      </c>
+      <c r="I6" t="s">
+        <v>491</v>
+      </c>
+      <c r="J6" t="s">
+        <v>492</v>
+      </c>
+      <c r="K6" t="s">
+        <v>493</v>
+      </c>
+      <c r="L6" t="s">
+        <v>494</v>
+      </c>
+      <c r="M6" t="s">
+        <v>495</v>
+      </c>
+      <c r="N6" t="s">
+        <v>496</v>
+      </c>
+      <c r="O6" t="s">
+        <v>497</v>
+      </c>
+      <c r="P6" t="s">
+        <v>498</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>499</v>
+      </c>
+      <c r="R6" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
         <v>314</v>
       </c>
-      <c r="C2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I2" t="s">
-        <v>260</v>
-      </c>
-      <c r="J2" t="s">
-        <v>261</v>
-      </c>
-      <c r="K2" t="s">
-        <v>262</v>
-      </c>
-      <c r="L2" t="s">
-        <v>263</v>
-      </c>
-      <c r="M2" t="s">
-        <v>264</v>
-      </c>
-      <c r="N2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O2" t="s">
-        <v>266</v>
-      </c>
-      <c r="P2" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>268</v>
-      </c>
-      <c r="R2" t="s">
-        <v>269</v>
-      </c>
-      <c r="S2" t="s">
-        <v>270</v>
-      </c>
-      <c r="T2" t="s">
-        <v>271</v>
-      </c>
-      <c r="U2" t="s">
-        <v>272</v>
-      </c>
-      <c r="V2" t="s">
-        <v>273</v>
-      </c>
-      <c r="W2" t="s">
-        <v>274</v>
-      </c>
-      <c r="X2" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>293</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>295</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>297</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>298</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>299</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>300</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>306</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>308</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>312</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>501</v>
+      </c>
+      <c r="G7" t="s">
+        <v>502</v>
+      </c>
+      <c r="H7" t="s">
+        <v>503</v>
+      </c>
+      <c r="I7" t="s">
+        <v>504</v>
+      </c>
+      <c r="J7" t="s">
+        <v>505</v>
+      </c>
+      <c r="K7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L7" t="s">
+        <v>507</v>
+      </c>
+      <c r="M7" t="s">
+        <v>508</v>
+      </c>
+      <c r="N7" t="s">
+        <v>509</v>
+      </c>
+      <c r="O7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>511</v>
+      </c>
+      <c r="R7" t="s">
+        <v>494</v>
+      </c>
+      <c r="S7" t="s">
+        <v>489</v>
+      </c>
+      <c r="T7" t="s">
+        <v>512</v>
+      </c>
+      <c r="U7" t="s">
+        <v>513</v>
+      </c>
+      <c r="V7" t="s">
+        <v>514</v>
+      </c>
+      <c r="W7" t="s">
+        <v>515</v>
+      </c>
+      <c r="X7" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>517</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>490</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>518</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>519</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>520</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>521</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>522</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>523</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>524</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>526</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>527</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>528</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>529</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>530</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>531</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>532</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>533</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F8" t="s">
+        <v>538</v>
+      </c>
+      <c r="G8" t="s">
+        <v>539</v>
+      </c>
+      <c r="H8" t="s">
+        <v>540</v>
+      </c>
+      <c r="I8" t="s">
+        <v>541</v>
+      </c>
+      <c r="J8" t="s">
+        <v>542</v>
+      </c>
+      <c r="K8" t="s">
+        <v>543</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>544</v>
+      </c>
+      <c r="N8" t="s">
+        <v>545</v>
+      </c>
+      <c r="O8" t="s">
+        <v>546</v>
+      </c>
+      <c r="P8" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R8" t="s">
+        <v>150</v>
+      </c>
+      <c r="S8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B5" t="s">
-        <v>327</v>
-      </c>
-      <c r="C5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>549</v>
+      </c>
+      <c r="E9" t="s">
+        <v>550</v>
+      </c>
+      <c r="F9" t="s">
+        <v>551</v>
+      </c>
+      <c r="G9" t="s">
+        <v>552</v>
+      </c>
+      <c r="H9" t="s">
+        <v>553</v>
+      </c>
+      <c r="I9" t="s">
+        <v>554</v>
+      </c>
+      <c r="J9" t="s">
+        <v>555</v>
+      </c>
+      <c r="K9" t="s">
+        <v>556</v>
+      </c>
+      <c r="L9" t="s">
+        <v>415</v>
+      </c>
+      <c r="M9" t="s">
+        <v>557</v>
+      </c>
+      <c r="N9" t="s">
+        <v>558</v>
+      </c>
+      <c r="O9" t="s">
+        <v>559</v>
+      </c>
+      <c r="P9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>229</v>
+      </c>
+      <c r="R9" t="s">
+        <v>443</v>
+      </c>
+      <c r="S9" t="s">
+        <v>560</v>
+      </c>
+      <c r="T9" t="s">
+        <v>171</v>
+      </c>
+      <c r="U9" t="s">
+        <v>561</v>
+      </c>
+      <c r="V9" t="s">
+        <v>541</v>
+      </c>
+      <c r="W9" t="s">
+        <v>562</v>
+      </c>
+      <c r="X9" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>565</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>567</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>568</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>569</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>570</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
         <v>46</v>
@@ -3167,402 +5777,1306 @@
         <v>70</v>
       </c>
       <c r="M10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" t="s">
         <v>173</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>174</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>175</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>176</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>177</v>
-      </c>
-      <c r="I11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J11" t="s">
-        <v>179</v>
       </c>
       <c r="K11" t="s">
         <v>11</v>
       </c>
       <c r="L11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
-      </c>
-      <c r="C12" t="s">
-        <v>170</v>
+        <v>585</v>
       </c>
       <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F12" t="s">
         <v>182</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>183</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>184</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>185</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>186</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>187</v>
       </c>
-      <c r="J12" t="s">
-        <v>188</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>189</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>190</v>
+      </c>
+      <c r="N12" t="s">
         <v>191</v>
       </c>
-      <c r="M12" t="s">
-        <v>192</v>
-      </c>
-      <c r="N12" t="s">
-        <v>193</v>
-      </c>
       <c r="O12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P12" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q12" t="s">
         <v>213</v>
       </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>214</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>215</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>216</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>217</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>218</v>
       </c>
-      <c r="U12" t="s">
-        <v>219</v>
-      </c>
-      <c r="V12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
         <v>221</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>222</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>223</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>224</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" t="s">
         <v>225</v>
       </c>
-      <c r="H13" t="s">
+      <c r="K13" t="s">
         <v>226</v>
       </c>
-      <c r="I13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>227</v>
       </c>
-      <c r="K13" t="s">
+      <c r="M13" t="s">
         <v>228</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>229</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>230</v>
       </c>
-      <c r="N13" t="s">
+      <c r="P13" t="s">
         <v>231</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>232</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>233</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>234</v>
-      </c>
-      <c r="R13" t="s">
-        <v>235</v>
-      </c>
-      <c r="S13" t="s">
-        <v>236</v>
       </c>
       <c r="T13" t="s">
         <v>11</v>
       </c>
       <c r="U13" t="s">
+        <v>235</v>
+      </c>
+      <c r="V13" t="s">
+        <v>236</v>
+      </c>
+      <c r="W13" t="s">
         <v>237</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>238</v>
       </c>
-      <c r="W13" t="s">
-        <v>239</v>
-      </c>
-      <c r="X13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C14" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" t="s">
+        <v>240</v>
+      </c>
+      <c r="E14" t="s">
         <v>241</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" t="s">
         <v>242</v>
       </c>
-      <c r="E14" t="s">
+      <c r="H14" t="s">
         <v>243</v>
       </c>
-      <c r="F14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="I14" t="s">
         <v>244</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" t="s">
         <v>245</v>
       </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
+        <v>175</v>
+      </c>
+      <c r="M14" t="s">
+        <v>176</v>
+      </c>
+      <c r="N14" t="s">
         <v>246</v>
-      </c>
-      <c r="J14" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" t="s">
-        <v>247</v>
-      </c>
-      <c r="L14" t="s">
-        <v>177</v>
-      </c>
-      <c r="M14" t="s">
-        <v>178</v>
-      </c>
-      <c r="N14" t="s">
-        <v>248</v>
       </c>
       <c r="O14" t="s">
         <v>11</v>
       </c>
       <c r="P14" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>248</v>
+      </c>
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>250</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>251</v>
       </c>
-      <c r="S14" t="s">
-        <v>252</v>
-      </c>
-      <c r="T14" t="s">
-        <v>253</v>
-      </c>
       <c r="U14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="D15" t="s">
+        <v>584</v>
+      </c>
+      <c r="E15" t="s">
+        <v>590</v>
+      </c>
+      <c r="F15" t="s">
+        <v>591</v>
+      </c>
+      <c r="G15" t="s">
+        <v>592</v>
+      </c>
+      <c r="H15" t="s">
+        <v>593</v>
+      </c>
+      <c r="I15" t="s">
+        <v>594</v>
+      </c>
+      <c r="J15" t="s">
+        <v>595</v>
+      </c>
+      <c r="K15" t="s">
+        <v>596</v>
+      </c>
+      <c r="L15" t="s">
+        <v>597</v>
+      </c>
+      <c r="M15" t="s">
+        <v>598</v>
+      </c>
+      <c r="N15" t="s">
+        <v>599</v>
+      </c>
+      <c r="O15" t="s">
+        <v>600</v>
+      </c>
+      <c r="P15" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>602</v>
+      </c>
+      <c r="R15" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" t="s">
+        <v>609</v>
+      </c>
+      <c r="E16" t="s">
+        <v>610</v>
+      </c>
+      <c r="F16" t="s">
+        <v>611</v>
+      </c>
+      <c r="G16" t="s">
+        <v>612</v>
+      </c>
+      <c r="H16" t="s">
+        <v>613</v>
+      </c>
+      <c r="I16" t="s">
+        <v>614</v>
+      </c>
+      <c r="J16" t="s">
+        <v>615</v>
+      </c>
+      <c r="K16" t="s">
+        <v>616</v>
+      </c>
+      <c r="L16" t="s">
+        <v>617</v>
+      </c>
+      <c r="M16" t="s">
+        <v>618</v>
+      </c>
+      <c r="N16" t="s">
+        <v>619</v>
+      </c>
+      <c r="O16" t="s">
+        <v>620</v>
+      </c>
+      <c r="P16" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>622</v>
+      </c>
+      <c r="R16" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" t="s">
+        <v>338</v>
+      </c>
+      <c r="C17" t="s">
         <v>339</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" t="s">
+        <v>636</v>
+      </c>
+      <c r="E17" t="s">
+        <v>637</v>
+      </c>
+      <c r="F17" t="s">
+        <v>638</v>
+      </c>
+      <c r="G17" t="s">
+        <v>639</v>
+      </c>
+      <c r="H17" t="s">
+        <v>640</v>
+      </c>
+      <c r="I17" t="s">
+        <v>641</v>
+      </c>
+      <c r="J17" t="s">
+        <v>642</v>
+      </c>
+      <c r="K17" t="s">
+        <v>643</v>
+      </c>
+      <c r="L17" t="s">
+        <v>644</v>
+      </c>
+      <c r="M17" t="s">
+        <v>645</v>
+      </c>
+      <c r="N17" t="s">
+        <v>646</v>
+      </c>
+      <c r="O17" t="s">
+        <v>647</v>
+      </c>
+      <c r="P17" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>649</v>
+      </c>
+      <c r="R17" t="s">
+        <v>484</v>
+      </c>
+      <c r="S17" t="s">
+        <v>650</v>
+      </c>
+      <c r="T17" t="s">
+        <v>651</v>
+      </c>
+      <c r="U17" t="s">
+        <v>652</v>
+      </c>
+      <c r="V17" t="s">
+        <v>653</v>
+      </c>
+      <c r="W17" t="s">
+        <v>654</v>
+      </c>
+      <c r="X17" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>657</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>660</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>661</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>662</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>663</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>329</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>341</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
+        <v>672</v>
+      </c>
+      <c r="E18" t="s">
+        <v>673</v>
+      </c>
+      <c r="F18" t="s">
+        <v>674</v>
+      </c>
+      <c r="G18" t="s">
+        <v>675</v>
+      </c>
+      <c r="H18" t="s">
+        <v>676</v>
+      </c>
+      <c r="I18" t="s">
+        <v>677</v>
+      </c>
+      <c r="J18" t="s">
+        <v>678</v>
+      </c>
+      <c r="K18" t="s">
+        <v>229</v>
+      </c>
+      <c r="L18" t="s">
+        <v>679</v>
+      </c>
+      <c r="M18" t="s">
+        <v>680</v>
+      </c>
+      <c r="N18" t="s">
+        <v>681</v>
+      </c>
+      <c r="O18" t="s">
+        <v>682</v>
+      </c>
+      <c r="P18" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>684</v>
+      </c>
+      <c r="R18" t="s">
+        <v>685</v>
+      </c>
+      <c r="S18" t="s">
+        <v>686</v>
+      </c>
+      <c r="T18" t="s">
+        <v>687</v>
+      </c>
+      <c r="U18" t="s">
+        <v>688</v>
+      </c>
+      <c r="V18" t="s">
+        <v>689</v>
+      </c>
+      <c r="W18" t="s">
+        <v>690</v>
+      </c>
+      <c r="X18" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>329</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>343</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E19" t="s">
+        <v>702</v>
+      </c>
+      <c r="F19" t="s">
+        <v>703</v>
+      </c>
+      <c r="G19" t="s">
+        <v>704</v>
+      </c>
+      <c r="H19" t="s">
+        <v>705</v>
+      </c>
+      <c r="I19" t="s">
+        <v>706</v>
+      </c>
+      <c r="J19" t="s">
+        <v>707</v>
+      </c>
+      <c r="K19" t="s">
+        <v>708</v>
+      </c>
+      <c r="L19" t="s">
+        <v>709</v>
+      </c>
+      <c r="M19" t="s">
+        <v>536</v>
+      </c>
+      <c r="O19" t="s">
+        <v>711</v>
+      </c>
+      <c r="P19" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>713</v>
+      </c>
+      <c r="R19" t="s">
+        <v>714</v>
+      </c>
+      <c r="S19" t="s">
+        <v>710</v>
+      </c>
+      <c r="T19" t="s">
+        <v>715</v>
+      </c>
+      <c r="U19" t="s">
+        <v>716</v>
+      </c>
+      <c r="V19" t="s">
+        <v>717</v>
+      </c>
+      <c r="W19" t="s">
+        <v>718</v>
+      </c>
+      <c r="X19" t="s">
+        <v>719</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>720</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>721</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>723</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" t="s">
         <v>345</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>346</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D20" t="s">
+        <v>432</v>
+      </c>
+      <c r="E20" t="s">
+        <v>732</v>
+      </c>
+      <c r="F20" t="s">
+        <v>733</v>
+      </c>
+      <c r="G20" t="s">
+        <v>734</v>
+      </c>
+      <c r="H20" t="s">
+        <v>735</v>
+      </c>
+      <c r="I20" t="s">
+        <v>736</v>
+      </c>
+      <c r="J20" t="s">
+        <v>737</v>
+      </c>
+      <c r="K20" t="s">
+        <v>738</v>
+      </c>
+      <c r="L20" t="s">
+        <v>739</v>
+      </c>
+      <c r="M20" t="s">
+        <v>740</v>
+      </c>
+      <c r="N20" t="s">
+        <v>741</v>
+      </c>
+      <c r="O20" t="s">
+        <v>742</v>
+      </c>
+      <c r="P20" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>744</v>
+      </c>
+      <c r="R20" t="s">
+        <v>745</v>
+      </c>
+      <c r="S20" t="s">
+        <v>746</v>
+      </c>
+      <c r="T20" t="s">
+        <v>747</v>
+      </c>
+      <c r="U20" t="s">
+        <v>748</v>
+      </c>
+      <c r="V20" t="s">
+        <v>749</v>
+      </c>
+      <c r="W20" t="s">
+        <v>750</v>
+      </c>
+      <c r="X20" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>752</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>753</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
         <v>348</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
+        <v>757</v>
+      </c>
+      <c r="E21" t="s">
+        <v>758</v>
+      </c>
+      <c r="F21" t="s">
+        <v>759</v>
+      </c>
+      <c r="G21" t="s">
+        <v>760</v>
+      </c>
+      <c r="H21" t="s">
+        <v>761</v>
+      </c>
+      <c r="I21" t="s">
+        <v>762</v>
+      </c>
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
+        <v>763</v>
+      </c>
+      <c r="L21" t="s">
+        <v>764</v>
+      </c>
+      <c r="M21" t="s">
+        <v>765</v>
+      </c>
+      <c r="N21" t="s">
+        <v>766</v>
+      </c>
+      <c r="O21" t="s">
+        <v>767</v>
+      </c>
+      <c r="P21" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>769</v>
+      </c>
+      <c r="R21" t="s">
+        <v>770</v>
+      </c>
+      <c r="S21" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" t="s">
+        <v>350</v>
+      </c>
+      <c r="C22" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>329</v>
-      </c>
-      <c r="B21" t="s">
-        <v>350</v>
-      </c>
-      <c r="C21" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B22" t="s">
-        <v>353</v>
-      </c>
-      <c r="C22" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>777</v>
+      </c>
+      <c r="E22" t="s">
+        <v>778</v>
+      </c>
+      <c r="F22" t="s">
+        <v>779</v>
+      </c>
+      <c r="G22" t="s">
+        <v>780</v>
+      </c>
+      <c r="H22" t="s">
+        <v>781</v>
+      </c>
+      <c r="I22" t="s">
+        <v>782</v>
+      </c>
+      <c r="J22" t="s">
+        <v>783</v>
+      </c>
+      <c r="K22" t="s">
+        <v>784</v>
+      </c>
+      <c r="L22" t="s">
+        <v>785</v>
+      </c>
+      <c r="M22" t="s">
+        <v>786</v>
+      </c>
+      <c r="N22" t="s">
+        <v>787</v>
+      </c>
+      <c r="O22" t="s">
+        <v>788</v>
+      </c>
+      <c r="P22" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>790</v>
+      </c>
+      <c r="R22" t="s">
+        <v>791</v>
+      </c>
+      <c r="S22" t="s">
+        <v>792</v>
+      </c>
+      <c r="T22" t="s">
+        <v>793</v>
+      </c>
+      <c r="U22" t="s">
+        <v>794</v>
+      </c>
+      <c r="V22" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D23" t="s">
+        <v>800</v>
+      </c>
+      <c r="E23" t="s">
+        <v>801</v>
+      </c>
+      <c r="F23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" t="s">
+        <v>802</v>
+      </c>
+      <c r="H23" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" t="s">
+        <v>803</v>
+      </c>
+      <c r="J23" t="s">
+        <v>804</v>
+      </c>
+      <c r="K23" t="s">
+        <v>805</v>
+      </c>
+      <c r="L23" t="s">
+        <v>806</v>
+      </c>
+      <c r="M23" t="s">
+        <v>807</v>
+      </c>
+      <c r="N23" t="s">
+        <v>264</v>
+      </c>
+      <c r="O23" t="s">
+        <v>175</v>
+      </c>
+      <c r="P23" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>809</v>
+      </c>
+      <c r="R23" t="s">
+        <v>810</v>
+      </c>
+      <c r="S23" t="s">
+        <v>741</v>
+      </c>
+      <c r="T23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B24" t="s">
+        <v>358</v>
+      </c>
+      <c r="C24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D24" t="s">
+        <v>811</v>
+      </c>
+      <c r="E24" t="s">
+        <v>812</v>
+      </c>
+      <c r="F24" t="s">
+        <v>813</v>
+      </c>
+      <c r="G24" t="s">
+        <v>814</v>
+      </c>
+      <c r="H24" t="s">
+        <v>815</v>
+      </c>
+      <c r="I24" t="s">
+        <v>816</v>
+      </c>
+      <c r="J24" t="s">
+        <v>817</v>
+      </c>
+      <c r="K24" t="s">
+        <v>818</v>
+      </c>
+      <c r="L24" t="s">
+        <v>819</v>
+      </c>
+      <c r="M24" t="s">
+        <v>820</v>
+      </c>
+      <c r="N24" t="s">
+        <v>821</v>
+      </c>
+      <c r="O24" t="s">
+        <v>822</v>
+      </c>
+      <c r="P24" t="s">
+        <v>823</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>824</v>
+      </c>
+      <c r="R24" t="s">
+        <v>825</v>
+      </c>
+      <c r="S24" t="s">
+        <v>826</v>
+      </c>
+      <c r="T24" t="s">
+        <v>827</v>
+      </c>
+      <c r="U24" t="s">
+        <v>828</v>
+      </c>
+      <c r="V24" t="s">
+        <v>829</v>
+      </c>
+      <c r="W24" t="s">
+        <v>830</v>
+      </c>
+      <c r="X24" t="s">
+        <v>831</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>832</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>833</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>834</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>835</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>836</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>837</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>839</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>840</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>841</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>842</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>843</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>844</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>845</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>846</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>847</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" t="s">
         <v>360</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C25" s="8" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>345</v>
-      </c>
-      <c r="B24" t="s">
-        <v>362</v>
-      </c>
-      <c r="C24" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>329</v>
-      </c>
-      <c r="B25" t="s">
-        <v>364</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>365</v>
+      <c r="D25" t="s">
+        <v>857</v>
+      </c>
+      <c r="E25" t="s">
+        <v>858</v>
+      </c>
+      <c r="F25" t="s">
+        <v>859</v>
+      </c>
+      <c r="G25" t="s">
+        <v>860</v>
+      </c>
+      <c r="H25" t="s">
+        <v>861</v>
+      </c>
+      <c r="I25" t="s">
+        <v>862</v>
+      </c>
+      <c r="J25" t="s">
+        <v>863</v>
+      </c>
+      <c r="K25" t="s">
+        <v>864</v>
+      </c>
+      <c r="L25" t="s">
+        <v>865</v>
+      </c>
+      <c r="M25" t="s">
+        <v>866</v>
+      </c>
+      <c r="N25" t="s">
+        <v>867</v>
+      </c>
+      <c r="O25" t="s">
+        <v>868</v>
+      </c>
+      <c r="P25" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>870</v>
+      </c>
+      <c r="R25" t="s">
+        <v>871</v>
+      </c>
+      <c r="S25" t="s">
+        <v>872</v>
+      </c>
+      <c r="T25" t="s">
+        <v>873</v>
+      </c>
+      <c r="U25" t="s">
+        <v>874</v>
+      </c>
+      <c r="V25" t="s">
+        <v>875</v>
+      </c>
+      <c r="W25" t="s">
+        <v>876</v>
+      </c>
+      <c r="X25" t="s">
+        <v>877</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>878</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B26" t="s">
+        <v>373</v>
+      </c>
+      <c r="C26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>375</v>
+      </c>
+      <c r="B27" t="s">
+        <v>376</v>
+      </c>
+      <c r="C27" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" t="s">
+        <v>384</v>
+      </c>
+      <c r="C30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>385</v>
+      </c>
+      <c r="B31" t="s">
+        <v>386</v>
+      </c>
+      <c r="C31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>390</v>
+      </c>
+      <c r="B32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>391</v>
+      </c>
+      <c r="B33" t="s">
+        <v>392</v>
+      </c>
+      <c r="C33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>396</v>
+      </c>
+      <c r="B34" t="s">
+        <v>395</v>
+      </c>
+      <c r="C34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B35" t="s">
+        <v>399</v>
+      </c>
+      <c r="C35" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>400</v>
+      </c>
+      <c r="B36" t="s">
+        <v>401</v>
+      </c>
+      <c r="C36" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37" t="s">
+        <v>404</v>
+      </c>
+      <c r="C37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>408</v>
+      </c>
+      <c r="B39" t="s">
+        <v>409</v>
+      </c>
+      <c r="C39" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>411</v>
+      </c>
+      <c r="B40" t="s">
+        <v>413</v>
+      </c>
+      <c r="C40" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" t="s">
+        <v>573</v>
+      </c>
+      <c r="C41" t="s">
+        <v>574</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3575,16 +7089,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
         <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3592,10 +7106,10 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3603,120 +7117,109 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" t="s">
-        <v>367</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3729,167 +7232,211 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="50.88671875" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" customWidth="1"/>
     <col min="4" max="4" width="41.109375" customWidth="1"/>
     <col min="5" max="5" width="34.88671875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>43336</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>43337</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="G3" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="13" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>43338</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>423</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="G4" s="14" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>43338</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>633</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ideas/ORCS Project Tags.xlsx
+++ b/ideas/ORCS Project Tags.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="TAG List x CAT" sheetId="7" r:id="rId3"/>
     <sheet name="Project ressources" sheetId="4" r:id="rId4"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="986">
   <si>
     <t>ABBR</t>
   </si>
@@ -2114,9 +2114,6 @@
     <t>Airwave Tracking</t>
   </si>
   <si>
-    <t>Governments</t>
-  </si>
-  <si>
     <t>GOVN</t>
   </si>
   <si>
@@ -2664,13 +2661,334 @@
   </si>
   <si>
     <t>Privacy | Datenschutz Ressourcen (GER)</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Agencies</t>
+  </si>
+  <si>
+    <t>Extremism</t>
+  </si>
+  <si>
+    <t>Child Pornography</t>
+  </si>
+  <si>
+    <t>https://start.me/p/7kmvEK/oster</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Extremism ressources</t>
+  </si>
+  <si>
+    <t>https://start.me/p/OmExgb/terrorism-radicalisation-research-dashboard</t>
+  </si>
+  <si>
+    <t>Lorand Bodo</t>
+  </si>
+  <si>
+    <t>Mapping Terrorist Organisations</t>
+  </si>
+  <si>
+    <t>OSINT/SOCMINT Resources</t>
+  </si>
+  <si>
+    <t>Terrorism, Extremism, Fanatism &amp; Sects</t>
+  </si>
+  <si>
+    <t>TEFS</t>
+  </si>
+  <si>
+    <t>Android emulators</t>
+  </si>
+  <si>
+    <t>Column17</t>
+  </si>
+  <si>
+    <t>Column18</t>
+  </si>
+  <si>
+    <t>Column19</t>
+  </si>
+  <si>
+    <t>Digital Methods for Research</t>
+  </si>
+  <si>
+    <t>Scraping Data</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>Search Engines (General)</t>
+  </si>
+  <si>
+    <t>Blogging, forum &amp; other communities</t>
+  </si>
+  <si>
+    <t>Economics &amp; Cryptoeconomics</t>
+  </si>
+  <si>
+    <t>CRYP</t>
+  </si>
+  <si>
+    <t>Dating Apps &amp; Sites</t>
+  </si>
+  <si>
+    <t>VKontakte</t>
+  </si>
+  <si>
+    <t>Reddit</t>
+  </si>
+  <si>
+    <t>Telegram</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Terrorism Financing</t>
+  </si>
+  <si>
+    <t>Crime-Terror Nexus</t>
+  </si>
+  <si>
+    <t>Case Studies</t>
+  </si>
+  <si>
+    <t>Sanctions Lists</t>
+  </si>
+  <si>
+    <t>Company/Charity Information</t>
+  </si>
+  <si>
+    <t>List of proscribed terrorist organisations</t>
+  </si>
+  <si>
+    <t>Black Market</t>
+  </si>
+  <si>
+    <t>Automating FOSINT</t>
+  </si>
+  <si>
+    <t>Researching Groups &amp; Activities</t>
+  </si>
+  <si>
+    <t>Terrorism tactics &amp; CBRN</t>
+  </si>
+  <si>
+    <t>Combatant Affiliation/Weapons</t>
+  </si>
+  <si>
+    <t>Logos/Symbols</t>
+  </si>
+  <si>
+    <t>ISIS - Nom de guerre</t>
+  </si>
+  <si>
+    <t>Extremism - Data sets &amp; Databases</t>
+  </si>
+  <si>
+    <t>Violent Online Political Extremism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Countering Violent Extremism </t>
+  </si>
+  <si>
+    <t>Research Ethics</t>
+  </si>
+  <si>
+    <t>Safeguarding Anonymity &amp; Privacy</t>
+  </si>
+  <si>
+    <t>CYBINT</t>
+  </si>
+  <si>
+    <t>Regional and Global CT Actors / Initatives.</t>
+  </si>
+  <si>
+    <t>Regional and Global CT Actors / Initatives</t>
+  </si>
+  <si>
+    <t>EU CT Actors / Initatives</t>
+  </si>
+  <si>
+    <t>E-learning</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Podcasts</t>
+  </si>
+  <si>
+    <t>Blogs, Feeds &amp; Medias</t>
+  </si>
+  <si>
+    <t>Transnational Weekly</t>
+  </si>
+  <si>
+    <t>CAT49</t>
+  </si>
+  <si>
+    <t>CAT50</t>
+  </si>
+  <si>
+    <t>CAT51</t>
+  </si>
+  <si>
+    <t>CAT52</t>
+  </si>
+  <si>
+    <t>CAT53</t>
+  </si>
+  <si>
+    <t>CAT54</t>
+  </si>
+  <si>
+    <t>CAT55</t>
+  </si>
+  <si>
+    <t>CAT56</t>
+  </si>
+  <si>
+    <t>CAT57</t>
+  </si>
+  <si>
+    <t>CAT58</t>
+  </si>
+  <si>
+    <t>CAT59</t>
+  </si>
+  <si>
+    <t>CTED Research Digest</t>
+  </si>
+  <si>
+    <t>'Terrorism' News Feed</t>
+  </si>
+  <si>
+    <t>News Feed</t>
+  </si>
+  <si>
+    <t>'Radicalisation' News Feed</t>
+  </si>
+  <si>
+    <t>Effective Google Searching</t>
+  </si>
+  <si>
+    <t>Open Archiving</t>
+  </si>
+  <si>
+    <t>Check Public Records</t>
+  </si>
+  <si>
+    <t>Data and Statistics</t>
+  </si>
+  <si>
+    <t>International planes &amp; ships finders</t>
+  </si>
+  <si>
+    <t>Interesting Databases</t>
+  </si>
+  <si>
+    <t>Web &amp; Social Media</t>
+  </si>
+  <si>
+    <t>Find a person</t>
+  </si>
+  <si>
+    <t>Watchlists, Wanted &amp; Missing Persons Lists</t>
+  </si>
+  <si>
+    <t>Lobbying &amp; Ethics &amp; Disclosure</t>
+  </si>
+  <si>
+    <t>Corporation Research</t>
+  </si>
+  <si>
+    <t>Non-Profits/Charities</t>
+  </si>
+  <si>
+    <t>FOIAs, leaks and deletes</t>
+  </si>
+  <si>
+    <t>Documents Collections</t>
+  </si>
+  <si>
+    <t>More Document Collections</t>
+  </si>
+  <si>
+    <t>Research gurus</t>
+  </si>
+  <si>
+    <t>Digital Propaganda</t>
+  </si>
+  <si>
+    <t>Terrorism Incidents Database</t>
+  </si>
+  <si>
+    <t>Cyber Terrorism</t>
+  </si>
+  <si>
+    <t>Subject Matter Experts</t>
+  </si>
+  <si>
+    <t>GEOINT for Terro</t>
+  </si>
+  <si>
+    <t>Terrorism classification</t>
+  </si>
+  <si>
+    <t>Dedicated Counter Terrorism Research Centers/ Think Tanks</t>
+  </si>
+  <si>
+    <t>Radicalisation</t>
+  </si>
+  <si>
+    <t>Terrorism weapons</t>
+  </si>
+  <si>
+    <t>Terrorist groups</t>
+  </si>
+  <si>
+    <t>Advanced Persistant Threats</t>
+  </si>
+  <si>
+    <t>Surveillance/Counter-Surveillance devices</t>
+  </si>
+  <si>
+    <t>Governments, Politics</t>
+  </si>
+  <si>
+    <t>Stock Markets</t>
+  </si>
+  <si>
+    <t>Military Hardware</t>
+  </si>
+  <si>
+    <t>Adding ressources for extremism + Categories + Subcategories</t>
+  </si>
+  <si>
+    <t>Cleaning categories - Merging some deleting others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2690,6 +3008,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2785,7 +3111,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2804,6 +3130,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2972,11 +3303,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="170274176"/>
-        <c:axId val="172876928"/>
+        <c:axId val="144752000"/>
+        <c:axId val="172424192"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="170274176"/>
+        <c:axId val="144752000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3350,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="172876928"/>
+        <c:crossAx val="172424192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3027,7 +3358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172876928"/>
+        <c:axId val="172424192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +3409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="170274176"/>
+        <c:crossAx val="144752000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3176,12 +3507,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X26" totalsRowShown="0">
-  <autoFilter ref="A1:X26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA24" totalsRowShown="0">
+  <autoFilter ref="A1:AA24"/>
   <sortState ref="A2:M13">
     <sortCondition ref="A1:A21"/>
   </sortState>
-  <tableColumns count="24">
+  <tableColumns count="27">
     <tableColumn id="1" name="Category"/>
     <tableColumn id="2" name="ABBR"/>
     <tableColumn id="3" name="Value1"/>
@@ -3206,6 +3537,9 @@
     <tableColumn id="31" name="Column14"/>
     <tableColumn id="32" name="Column15"/>
     <tableColumn id="33" name="Column16"/>
+    <tableColumn id="13" name="Column17"/>
+    <tableColumn id="14" name="Column18"/>
+    <tableColumn id="15" name="Column19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3237,12 +3571,12 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:AY61" totalsRowShown="0">
-  <autoFilter ref="A1:AY61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:BJ61" totalsRowShown="0">
+  <autoFilter ref="A1:BJ61"/>
   <sortState ref="A2:AX26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <tableColumns count="51">
+  <tableColumns count="62">
     <tableColumn id="79" name="Author / Credits"/>
     <tableColumn id="1" name="Ressource"/>
     <tableColumn id="2" name="URL"/>
@@ -3294,6 +3628,17 @@
     <tableColumn id="77" name="CAT46"/>
     <tableColumn id="78" name="CAT47"/>
     <tableColumn id="80" name="CAT48"/>
+    <tableColumn id="3" name="CAT49"/>
+    <tableColumn id="5" name="CAT50"/>
+    <tableColumn id="6" name="CAT51"/>
+    <tableColumn id="7" name="CAT52"/>
+    <tableColumn id="8" name="CAT53"/>
+    <tableColumn id="9" name="CAT54"/>
+    <tableColumn id="10" name="CAT55"/>
+    <tableColumn id="11" name="CAT56"/>
+    <tableColumn id="12" name="CAT57"/>
+    <tableColumn id="13" name="CAT58"/>
+    <tableColumn id="14" name="CAT59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3575,35 +3920,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3680,6 +4027,15 @@
       <c r="X1" t="s">
         <v>459</v>
       </c>
+      <c r="Y1" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>895</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3715,7 +4071,7 @@
         <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
@@ -3758,8 +4114,11 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3782,7 +4141,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -3803,6 +4162,12 @@
       </c>
       <c r="G6" t="s">
         <v>691</v>
+      </c>
+      <c r="H6" t="s">
+        <v>973</v>
+      </c>
+      <c r="I6" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
@@ -3822,7 +4187,7 @@
         <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="G7" t="s">
         <v>772</v>
@@ -3836,10 +4201,7 @@
       <c r="J7" t="s">
         <v>775</v>
       </c>
-      <c r="K7" t="s">
-        <v>776</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>144</v>
       </c>
       <c r="AB7" s="12"/>
@@ -3870,10 +4232,10 @@
         <v>179</v>
       </c>
       <c r="H8" t="s">
+        <v>754</v>
+      </c>
+      <c r="I8" t="s">
         <v>755</v>
-      </c>
-      <c r="I8" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
@@ -3980,7 +4342,7 @@
       <c r="B11" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="18" t="s">
         <v>144</v>
       </c>
       <c r="D11" t="s">
@@ -4002,46 +4364,49 @@
         <v>629</v>
       </c>
       <c r="J11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K11" t="s">
+        <v>795</v>
+      </c>
+      <c r="L11" t="s">
         <v>796</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
+        <v>782</v>
+      </c>
+      <c r="N11" t="s">
         <v>797</v>
       </c>
-      <c r="M11" t="s">
-        <v>783</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>798</v>
-      </c>
-      <c r="O11" t="s">
-        <v>799</v>
       </c>
       <c r="P11" t="s">
         <v>150</v>
       </c>
       <c r="Q11" t="s">
+        <v>849</v>
+      </c>
+      <c r="R11" t="s">
+        <v>848</v>
+      </c>
+      <c r="S11" t="s">
         <v>850</v>
       </c>
-      <c r="R11" t="s">
-        <v>849</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>851</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>828</v>
+      </c>
+      <c r="V11" t="s">
         <v>852</v>
       </c>
-      <c r="U11" t="s">
-        <v>829</v>
-      </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>853</v>
       </c>
-      <c r="W11" t="s">
-        <v>854</v>
+      <c r="X11" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
@@ -4083,6 +4448,30 @@
       <c r="D13" t="s">
         <v>606</v>
       </c>
+      <c r="E13" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="F13" t="s">
+        <v>883</v>
+      </c>
+      <c r="G13" t="s">
+        <v>564</v>
+      </c>
+      <c r="H13" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" t="s">
+        <v>897</v>
+      </c>
+      <c r="J13" t="s">
+        <v>913</v>
+      </c>
+      <c r="K13" t="s">
+        <v>914</v>
+      </c>
+      <c r="L13" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -4115,155 +4504,314 @@
       <c r="J14" t="s">
         <v>667</v>
       </c>
+      <c r="K14" t="s">
+        <v>960</v>
+      </c>
+      <c r="L14" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>536</v>
       </c>
       <c r="B15" t="s">
-        <v>578</v>
+        <v>579</v>
+      </c>
+      <c r="C15" t="s">
+        <v>692</v>
+      </c>
+      <c r="D15" t="s">
+        <v>694</v>
+      </c>
+      <c r="E15" t="s">
+        <v>687</v>
+      </c>
+      <c r="F15" t="s">
+        <v>688</v>
+      </c>
+      <c r="G15" t="s">
+        <v>724</v>
+      </c>
+      <c r="H15" t="s">
+        <v>725</v>
+      </c>
+      <c r="I15" t="s">
+        <v>726</v>
+      </c>
+      <c r="J15" t="s">
+        <v>727</v>
+      </c>
+      <c r="K15" t="s">
+        <v>728</v>
+      </c>
+      <c r="L15" t="s">
+        <v>729</v>
+      </c>
+      <c r="M15" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>536</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C16" t="s">
-        <v>692</v>
+        <v>576</v>
       </c>
       <c r="D16" t="s">
-        <v>694</v>
+        <v>583</v>
       </c>
       <c r="E16" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="F16" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="G16" t="s">
-        <v>725</v>
+        <v>667</v>
       </c>
       <c r="H16" t="s">
-        <v>726</v>
+        <v>668</v>
       </c>
       <c r="I16" t="s">
-        <v>727</v>
+        <v>669</v>
       </c>
       <c r="J16" t="s">
-        <v>728</v>
+        <v>655</v>
       </c>
       <c r="K16" t="s">
-        <v>729</v>
+        <v>670</v>
       </c>
       <c r="L16" t="s">
-        <v>730</v>
+        <v>671</v>
       </c>
       <c r="M16" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="N16" t="s">
+        <v>915</v>
+      </c>
+      <c r="O16" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>581</v>
       </c>
       <c r="B17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C17" t="s">
-        <v>576</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>583</v>
-      </c>
-      <c r="E17" t="s">
-        <v>665</v>
+        <v>604</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="F17" t="s">
-        <v>666</v>
-      </c>
-      <c r="G17" t="s">
-        <v>667</v>
+        <v>605</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>668</v>
+        <v>606</v>
       </c>
       <c r="I17" t="s">
-        <v>669</v>
-      </c>
-      <c r="J17" t="s">
-        <v>655</v>
+        <v>177</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>670</v>
+        <v>607</v>
       </c>
       <c r="L17" t="s">
-        <v>671</v>
+        <v>608</v>
       </c>
       <c r="M17" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>933</v>
+      </c>
+      <c r="N17" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>581</v>
+        <v>981</v>
       </c>
       <c r="B18" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>697</v>
       </c>
       <c r="D18" t="s">
-        <v>604</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>443</v>
+        <v>881</v>
+      </c>
+      <c r="E18" t="s">
+        <v>962</v>
       </c>
       <c r="F18" t="s">
-        <v>605</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>606</v>
-      </c>
-      <c r="I18" t="s">
-        <v>177</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="K18" t="s">
-        <v>607</v>
-      </c>
-      <c r="L18" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+      <c r="G18" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>696</v>
+        <v>854</v>
       </c>
       <c r="B19" t="s">
-        <v>697</v>
+        <v>855</v>
       </c>
       <c r="C19" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+      <c r="D19" t="s">
+        <v>879</v>
+      </c>
+      <c r="E19" t="s">
+        <v>880</v>
+      </c>
+      <c r="F19" t="s">
+        <v>980</v>
+      </c>
+      <c r="G19" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>855</v>
+        <v>891</v>
       </c>
       <c r="B20" t="s">
-        <v>856</v>
+        <v>892</v>
       </c>
       <c r="C20" t="s">
-        <v>745</v>
+        <v>889</v>
+      </c>
+      <c r="D20" t="s">
+        <v>911</v>
+      </c>
+      <c r="E20" t="s">
+        <v>912</v>
+      </c>
+      <c r="F20" t="s">
+        <v>916</v>
+      </c>
+      <c r="G20" t="s">
+        <v>917</v>
+      </c>
+      <c r="H20" t="s">
+        <v>918</v>
+      </c>
+      <c r="I20" t="s">
+        <v>919</v>
+      </c>
+      <c r="J20" t="s">
+        <v>920</v>
+      </c>
+      <c r="K20" t="s">
+        <v>921</v>
+      </c>
+      <c r="L20" t="s">
+        <v>922</v>
+      </c>
+      <c r="M20" t="s">
+        <v>923</v>
+      </c>
+      <c r="N20" t="s">
+        <v>924</v>
+      </c>
+      <c r="O20" t="s">
+        <v>925</v>
+      </c>
+      <c r="P20" t="s">
+        <v>926</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>927</v>
+      </c>
+      <c r="R20" t="s">
+        <v>931</v>
+      </c>
+      <c r="S20" t="s">
+        <v>932</v>
+      </c>
+      <c r="T20" t="s">
+        <v>968</v>
+      </c>
+      <c r="U20" t="s">
+        <v>969</v>
+      </c>
+      <c r="V20" t="s">
+        <v>970</v>
+      </c>
+      <c r="W20" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>899</v>
+      </c>
+      <c r="B21" t="s">
+        <v>900</v>
+      </c>
+      <c r="C21" t="s">
+        <v>898</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>934</v>
+      </c>
+      <c r="F21" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>903</v>
+      </c>
+      <c r="B22" t="s">
+        <v>904</v>
+      </c>
+      <c r="C22" t="s">
+        <v>620</v>
+      </c>
+      <c r="D22" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>936</v>
+      </c>
+      <c r="B23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C23" t="s">
+        <v>935</v>
+      </c>
+      <c r="D23" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>951</v>
+      </c>
+      <c r="F23" t="s">
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -4304,7 +4852,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B3" s="2">
         <v>6</v>
@@ -4446,7 +4994,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B19" s="17">
         <v>1</v>
@@ -4454,7 +5002,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -4842,10 +5390,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY41"/>
+  <dimension ref="A1:BJ43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4854,7 +5402,7 @@
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="71.109375" customWidth="1"/>
     <col min="4" max="4" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.33203125" bestFit="1" customWidth="1"/>
@@ -4880,29 +5428,32 @@
     <col min="28" max="28" width="51.88671875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="54" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="34" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.77734375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="37" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="32" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="26" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>331</v>
       </c>
@@ -5056,8 +5607,41 @@
       <c r="AY1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
+      <c r="AZ1" t="s">
+        <v>938</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>939</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>940</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>941</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>942</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>943</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>944</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>945</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>946</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>947</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>334</v>
       </c>
@@ -5206,7 +5790,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>326</v>
       </c>
@@ -5229,7 +5813,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>326</v>
       </c>
@@ -5306,7 +5890,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>326</v>
       </c>
@@ -5362,7 +5946,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -5418,7 +6002,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>333</v>
       </c>
@@ -5573,7 +6157,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>327</v>
       </c>
@@ -5632,7 +6216,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>335</v>
       </c>
@@ -5739,7 +6323,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -5783,7 +6367,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -5824,7 +6408,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -5889,7 +6473,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -5963,7 +6547,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -6031,7 +6615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -6087,7 +6671,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>326</v>
       </c>
@@ -6329,79 +6913,79 @@
         <v>344</v>
       </c>
       <c r="D19" t="s">
+        <v>700</v>
+      </c>
+      <c r="E19" t="s">
         <v>701</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>702</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>703</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>704</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>705</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>706</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>707</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>708</v>
-      </c>
-      <c r="L19" t="s">
-        <v>709</v>
       </c>
       <c r="M19" t="s">
         <v>536</v>
       </c>
       <c r="O19" t="s">
+        <v>710</v>
+      </c>
+      <c r="P19" t="s">
         <v>711</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>712</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>713</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
+        <v>709</v>
+      </c>
+      <c r="T19" t="s">
         <v>714</v>
       </c>
-      <c r="S19" t="s">
-        <v>710</v>
-      </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>715</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>716</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>717</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>718</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>719</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>720</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>721</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>722</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>723</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.3">
@@ -6418,73 +7002,73 @@
         <v>432</v>
       </c>
       <c r="E20" t="s">
+        <v>731</v>
+      </c>
+      <c r="F20" t="s">
         <v>732</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>733</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>734</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>735</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>736</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>737</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>738</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>739</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>740</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>741</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>742</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>743</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>744</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>745</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>746</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>747</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>748</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>749</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>750</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>751</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>752</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>753</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.3">
@@ -6498,52 +7082,52 @@
         <v>348</v>
       </c>
       <c r="D21" t="s">
+        <v>756</v>
+      </c>
+      <c r="E21" t="s">
         <v>757</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>758</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>759</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>760</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>761</v>
-      </c>
-      <c r="I21" t="s">
-        <v>762</v>
       </c>
       <c r="J21" t="s">
         <v>83</v>
       </c>
       <c r="K21" t="s">
+        <v>762</v>
+      </c>
+      <c r="L21" t="s">
         <v>763</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>764</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>765</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>766</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>767</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>768</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>769</v>
       </c>
-      <c r="R21" t="s">
+      <c r="S21" t="s">
         <v>770</v>
-      </c>
-      <c r="S21" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.3">
@@ -6557,61 +7141,61 @@
         <v>349</v>
       </c>
       <c r="D22" t="s">
+        <v>776</v>
+      </c>
+      <c r="E22" t="s">
         <v>777</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>778</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>779</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>780</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>781</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>782</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>783</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>784</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>785</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>786</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>787</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>788</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>789</v>
       </c>
-      <c r="Q22" t="s">
+      <c r="R22" t="s">
         <v>790</v>
       </c>
-      <c r="R22" t="s">
+      <c r="S22" t="s">
         <v>791</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>792</v>
       </c>
-      <c r="T22" t="s">
+      <c r="U22" t="s">
         <v>793</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>794</v>
-      </c>
-      <c r="V22" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.3">
@@ -6625,34 +7209,34 @@
         <v>357</v>
       </c>
       <c r="D23" t="s">
+        <v>799</v>
+      </c>
+      <c r="E23" t="s">
         <v>800</v>
-      </c>
-      <c r="E23" t="s">
-        <v>801</v>
       </c>
       <c r="F23" t="s">
         <v>246</v>
       </c>
       <c r="G23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H23" t="s">
         <v>250</v>
       </c>
       <c r="I23" t="s">
+        <v>802</v>
+      </c>
+      <c r="J23" t="s">
         <v>803</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>804</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>805</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>806</v>
-      </c>
-      <c r="M23" t="s">
-        <v>807</v>
       </c>
       <c r="N23" t="s">
         <v>264</v>
@@ -6661,16 +7245,16 @@
         <v>175</v>
       </c>
       <c r="P23" t="s">
+        <v>807</v>
+      </c>
+      <c r="Q23" t="s">
         <v>808</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="R23" t="s">
         <v>809</v>
       </c>
-      <c r="R23" t="s">
-        <v>810</v>
-      </c>
       <c r="S23" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T23" t="s">
         <v>272</v>
@@ -6687,118 +7271,118 @@
         <v>359</v>
       </c>
       <c r="D24" t="s">
+        <v>810</v>
+      </c>
+      <c r="E24" t="s">
         <v>811</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>812</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>813</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>814</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>815</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>816</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>817</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>818</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>819</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>820</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>821</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>822</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>823</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="R24" t="s">
         <v>824</v>
       </c>
-      <c r="R24" t="s">
+      <c r="S24" t="s">
         <v>825</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>826</v>
       </c>
-      <c r="T24" t="s">
+      <c r="U24" t="s">
         <v>827</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>828</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>829</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>830</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>831</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>832</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>833</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AB24" t="s">
         <v>834</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>835</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>836</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>837</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>838</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>839</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>840</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AI24" t="s">
         <v>841</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AJ24" t="s">
         <v>842</v>
       </c>
-      <c r="AJ24" t="s">
+      <c r="AK24" t="s">
         <v>843</v>
       </c>
-      <c r="AK24" t="s">
+      <c r="AL24" t="s">
         <v>844</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AM24" t="s">
         <v>845</v>
       </c>
-      <c r="AM24" t="s">
+      <c r="AN24" t="s">
         <v>846</v>
       </c>
-      <c r="AN24" t="s">
+      <c r="AO24" t="s">
         <v>847</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.3">
@@ -6812,73 +7396,73 @@
         <v>361</v>
       </c>
       <c r="D25" t="s">
+        <v>856</v>
+      </c>
+      <c r="E25" t="s">
         <v>857</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>858</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>859</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>860</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>861</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>862</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>863</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>864</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>865</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>866</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>867</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>868</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>869</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="R25" t="s">
         <v>870</v>
       </c>
-      <c r="R25" t="s">
+      <c r="S25" t="s">
         <v>871</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>872</v>
       </c>
-      <c r="T25" t="s">
+      <c r="U25" t="s">
         <v>873</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>874</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>875</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>876</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>877</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>878</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.3">
@@ -6891,6 +7475,7 @@
       <c r="C26" t="s">
         <v>374</v>
       </c>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -6958,7 +7543,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>391</v>
       </c>
@@ -6969,7 +7554,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>396</v>
       </c>
@@ -6980,7 +7565,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>397</v>
       </c>
@@ -6991,7 +7576,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>400</v>
       </c>
@@ -7002,7 +7587,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>403</v>
       </c>
@@ -7013,7 +7598,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>334</v>
       </c>
@@ -7024,7 +7609,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>408</v>
       </c>
@@ -7035,7 +7620,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>411</v>
       </c>
@@ -7045,8 +7630,59 @@
       <c r="C40" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>953</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>954</v>
+      </c>
+      <c r="G40" t="s">
+        <v>955</v>
+      </c>
+      <c r="H40" t="s">
+        <v>956</v>
+      </c>
+      <c r="I40" t="s">
+        <v>957</v>
+      </c>
+      <c r="J40" t="s">
+        <v>958</v>
+      </c>
+      <c r="K40" t="s">
+        <v>959</v>
+      </c>
+      <c r="L40" t="s">
+        <v>960</v>
+      </c>
+      <c r="M40" t="s">
+        <v>961</v>
+      </c>
+      <c r="N40" t="s">
+        <v>962</v>
+      </c>
+      <c r="O40" t="s">
+        <v>963</v>
+      </c>
+      <c r="P40" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>956</v>
+      </c>
+      <c r="R40" t="s">
+        <v>965</v>
+      </c>
+      <c r="S40" t="s">
+        <v>967</v>
+      </c>
+      <c r="T40" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>368</v>
       </c>
@@ -7055,6 +7691,214 @@
       </c>
       <c r="C41" t="s">
         <v>574</v>
+      </c>
+    </row>
+    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>885</v>
+      </c>
+      <c r="B42" t="s">
+        <v>886</v>
+      </c>
+      <c r="C42" t="s">
+        <v>884</v>
+      </c>
+      <c r="D42" t="s">
+        <v>974</v>
+      </c>
+      <c r="E42" t="s">
+        <v>975</v>
+      </c>
+      <c r="F42" t="s">
+        <v>911</v>
+      </c>
+      <c r="G42" t="s">
+        <v>969</v>
+      </c>
+      <c r="H42" t="s">
+        <v>976</v>
+      </c>
+      <c r="I42" t="s">
+        <v>970</v>
+      </c>
+      <c r="J42" t="s">
+        <v>971</v>
+      </c>
+      <c r="K42" t="s">
+        <v>972</v>
+      </c>
+      <c r="L42" t="s">
+        <v>973</v>
+      </c>
+      <c r="M42" t="s">
+        <v>977</v>
+      </c>
+      <c r="N42" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>888</v>
+      </c>
+      <c r="B43" t="s">
+        <v>886</v>
+      </c>
+      <c r="C43" t="s">
+        <v>887</v>
+      </c>
+      <c r="D43" t="s">
+        <v>889</v>
+      </c>
+      <c r="E43" t="s">
+        <v>890</v>
+      </c>
+      <c r="F43" t="s">
+        <v>893</v>
+      </c>
+      <c r="G43" t="s">
+        <v>897</v>
+      </c>
+      <c r="H43" t="s">
+        <v>898</v>
+      </c>
+      <c r="I43" t="s">
+        <v>901</v>
+      </c>
+      <c r="J43" t="s">
+        <v>902</v>
+      </c>
+      <c r="K43" t="s">
+        <v>620</v>
+      </c>
+      <c r="L43" t="s">
+        <v>905</v>
+      </c>
+      <c r="M43" t="s">
+        <v>519</v>
+      </c>
+      <c r="N43" t="s">
+        <v>158</v>
+      </c>
+      <c r="O43" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>906</v>
+      </c>
+      <c r="R43" t="s">
+        <v>907</v>
+      </c>
+      <c r="S43" t="s">
+        <v>908</v>
+      </c>
+      <c r="T43" t="s">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s">
+        <v>909</v>
+      </c>
+      <c r="V43" t="s">
+        <v>102</v>
+      </c>
+      <c r="W43" t="s">
+        <v>81</v>
+      </c>
+      <c r="X43" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>910</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>911</v>
+      </c>
+      <c r="AB43" t="s">
+        <v>912</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>913</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>914</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>915</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>916</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>917</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>918</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>919</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>920</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>921</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>922</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>923</v>
+      </c>
+      <c r="AN43" t="s">
+        <v>924</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>924</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>926</v>
+      </c>
+      <c r="AQ43" s="19" t="s">
+        <v>927</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>928</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>929</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>930</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>932</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>933</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>934</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>935</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>937</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>949</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>950</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>
@@ -7075,7 +7919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -7235,7 +8079,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7349,18 +8193,30 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="9">
+        <v>43355</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="10">
+        <v>43356</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>368</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -7376,7 +8232,7 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>

--- a/ideas/ORCS Project Tags.xlsx
+++ b/ideas/ORCS Project Tags.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48F23DBF-8346-472F-B4C8-1B6AD52EEC49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Categories" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3552" uniqueCount="1752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="1843">
   <si>
     <t>ABBR</t>
   </si>
@@ -5282,12 +5283,285 @@
   </si>
   <si>
     <t>Indonesia Detective Services-Prices. Zele Investigators Indonesia Jakarta Bali Bandung Bataam Surabaya.</t>
+  </si>
+  <si>
+    <t>https://start.me/p/wMAGAQ/osint-toolbox</t>
+  </si>
+  <si>
+    <t>Paranoid-Start.me</t>
+  </si>
+  <si>
+    <t>Sapient Intelligence</t>
+  </si>
+  <si>
+    <t>Sapient Intelligence Start.me</t>
+  </si>
+  <si>
+    <t>People Aggregagtors &amp; Search</t>
+  </si>
+  <si>
+    <t>Profiling &amp; Social Engineering</t>
+  </si>
+  <si>
+    <t>Avatar Search</t>
+  </si>
+  <si>
+    <t>Professional License</t>
+  </si>
+  <si>
+    <t>Expert Search</t>
+  </si>
+  <si>
+    <t>Education Networks</t>
+  </si>
+  <si>
+    <t>Genealogy</t>
+  </si>
+  <si>
+    <t>Plenty of Fish</t>
+  </si>
+  <si>
+    <t>Hinge</t>
+  </si>
+  <si>
+    <t>Happn</t>
+  </si>
+  <si>
+    <t>Miscellaneou Dating</t>
+  </si>
+  <si>
+    <t>PR Reputation &amp; Exposure</t>
+  </si>
+  <si>
+    <t>Crime &amp; Criminal Records</t>
+  </si>
+  <si>
+    <t>Business Databases</t>
+  </si>
+  <si>
+    <t>Business Entity Filings</t>
+  </si>
+  <si>
+    <t>Civil Court Records</t>
+  </si>
+  <si>
+    <t>Patent &amp; Trademark</t>
+  </si>
+  <si>
+    <t>Government Contracts</t>
+  </si>
+  <si>
+    <t>Political (Lobbyists &amp; Contributions)</t>
+  </si>
+  <si>
+    <t>OSHA and Environmental</t>
+  </si>
+  <si>
+    <t>Labor &amp; Employment</t>
+  </si>
+  <si>
+    <t>Conventions &amp; Events</t>
+  </si>
+  <si>
+    <t>Social Security Numbers</t>
+  </si>
+  <si>
+    <t>Bank Accounts &amp; Credit Cards</t>
+  </si>
+  <si>
+    <t>Liens &amp; Delinquencies</t>
+  </si>
+  <si>
+    <t>Business Brokerages</t>
+  </si>
+  <si>
+    <t>Securities</t>
+  </si>
+  <si>
+    <t>Annual Reports</t>
+  </si>
+  <si>
+    <t>Drivers License &amp; Passport</t>
+  </si>
+  <si>
+    <t>Road Assets and Cargo</t>
+  </si>
+  <si>
+    <t>Aviation Assets &amp; Cargo</t>
+  </si>
+  <si>
+    <t>Rail Assets &amp; Cargo</t>
+  </si>
+  <si>
+    <t>Maritime Assets &amp; Cargo</t>
+  </si>
+  <si>
+    <t>Property Location &amp; Records</t>
+  </si>
+  <si>
+    <t>Custom &amp; Intermediate Tools</t>
+  </si>
+  <si>
+    <t>Historical Search</t>
+  </si>
+  <si>
+    <t>Email &amp; Secure File Sharing</t>
+  </si>
+  <si>
+    <t>File Conversion &amp; Translation</t>
+  </si>
+  <si>
+    <t>Skype</t>
+  </si>
+  <si>
+    <t>Emulators &amp; Virtual Machines</t>
+  </si>
+  <si>
+    <t>CAT60</t>
+  </si>
+  <si>
+    <t>CAT61</t>
+  </si>
+  <si>
+    <t>CAT62</t>
+  </si>
+  <si>
+    <t>CAT63</t>
+  </si>
+  <si>
+    <t>CAT64</t>
+  </si>
+  <si>
+    <t>CAT65</t>
+  </si>
+  <si>
+    <t>CAT66</t>
+  </si>
+  <si>
+    <t>CAT67</t>
+  </si>
+  <si>
+    <t>CAT68</t>
+  </si>
+  <si>
+    <t>CAT69</t>
+  </si>
+  <si>
+    <t>CAT70</t>
+  </si>
+  <si>
+    <t>CAT71</t>
+  </si>
+  <si>
+    <t>CAT72</t>
+  </si>
+  <si>
+    <t>CAT73</t>
+  </si>
+  <si>
+    <t>CAT74</t>
+  </si>
+  <si>
+    <t>CAT75</t>
+  </si>
+  <si>
+    <t>CAT76</t>
+  </si>
+  <si>
+    <t>CAT77</t>
+  </si>
+  <si>
+    <t>CAT78</t>
+  </si>
+  <si>
+    <t>CAT79</t>
+  </si>
+  <si>
+    <t>CAT80</t>
+  </si>
+  <si>
+    <t>CAT81</t>
+  </si>
+  <si>
+    <t>CAT82</t>
+  </si>
+  <si>
+    <t>CAT83</t>
+  </si>
+  <si>
+    <t>CAT84</t>
+  </si>
+  <si>
+    <t>CAT85</t>
+  </si>
+  <si>
+    <t>CAT86</t>
+  </si>
+  <si>
+    <t>CAT87</t>
+  </si>
+  <si>
+    <t>CAT88</t>
+  </si>
+  <si>
+    <t>CAT89</t>
+  </si>
+  <si>
+    <t>CAT90</t>
+  </si>
+  <si>
+    <t>Secure Web Browsers</t>
+  </si>
+  <si>
+    <t>WiFi</t>
+  </si>
+  <si>
+    <t>Domains &amp; URLs</t>
+  </si>
+  <si>
+    <t>IP, DNS, Leak, Proxy, VPN</t>
+  </si>
+  <si>
+    <t>Data Breaches</t>
+  </si>
+  <si>
+    <t>Secure Calls &amp; Messages</t>
+  </si>
+  <si>
+    <t>Phone Tools</t>
+  </si>
+  <si>
+    <t>Usernames, Login, Passwords</t>
+  </si>
+  <si>
+    <t>Surveillance Apps &amp; Equipment</t>
+  </si>
+  <si>
+    <t>Radio &amp; Scanner</t>
+  </si>
+  <si>
+    <t>Antivirus, Malware, Cleanup</t>
+  </si>
+  <si>
+    <t>Surveillance Cover</t>
+  </si>
+  <si>
+    <t>TOR &amp; Dark Web</t>
+  </si>
+  <si>
+    <t>OPSec Resources</t>
+  </si>
+  <si>
+    <t>Encryption &amp; Secure Deletion</t>
+  </si>
+  <si>
+    <t>OSINT Community Resources</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5503,7 +5777,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -5609,9 +5883,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5623,7 +5897,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5649,7 +5922,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5744,7 +6017,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-36B9-42BA-91D9-1AEF2B9FA319}"/>
             </c:ext>
@@ -5802,7 +6075,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="169905152"/>
@@ -5861,7 +6134,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="169903232"/>
@@ -5878,14 +6151,14 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5909,7 +6182,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5940,7 +6213,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8308EAF0-A26D-4491-945E-95C3787DB9A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8308EAF0-A26D-4491-945E-95C3787DB9A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5962,210 +6235,241 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AC24" totalsRowShown="0">
-  <autoFilter ref="A1:AC24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:AC24" totalsRowShown="0">
+  <autoFilter ref="A1:AC24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:AA23">
     <sortCondition ref="A1:A24"/>
   </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" name="Category"/>
-    <tableColumn id="2" name="ABBR"/>
-    <tableColumn id="3" name="Sub-Category"/>
-    <tableColumn id="4" name="Sub-Category2"/>
-    <tableColumn id="5" name="Sub-Category3"/>
-    <tableColumn id="6" name="Sub-Category4"/>
-    <tableColumn id="7" name="Sub-Category5"/>
-    <tableColumn id="8" name="Sub-Category6"/>
-    <tableColumn id="9" name="Sub-Category7"/>
-    <tableColumn id="10" name="Sub-Category8"/>
-    <tableColumn id="11" name="Sub-Category9"/>
-    <tableColumn id="12" name="Sub-Category10"/>
-    <tableColumn id="17" name="Sub-Category11"/>
-    <tableColumn id="18" name="Sub-Category12"/>
-    <tableColumn id="19" name="Sub-Category13"/>
-    <tableColumn id="20" name="Sub-Category14"/>
-    <tableColumn id="21" name="Sub-Category15"/>
-    <tableColumn id="22" name="Sub-Category16"/>
-    <tableColumn id="23" name="Sub-Category17"/>
-    <tableColumn id="24" name="Sub-Category18"/>
-    <tableColumn id="30" name="Sub-Category19"/>
-    <tableColumn id="31" name="Sub-Category20"/>
-    <tableColumn id="32" name="Sub-Category21"/>
-    <tableColumn id="33" name="Sub-Category22"/>
-    <tableColumn id="13" name="Sub-Category23"/>
-    <tableColumn id="14" name="Sub-Category24"/>
-    <tableColumn id="15" name="Sub-Category25"/>
-    <tableColumn id="16" name="Sub-Category26"/>
-    <tableColumn id="25" name="Sub-Category27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Category"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ABBR"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sub-Category"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sub-Category2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Sub-Category3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub-Category4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Sub-Category5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Sub-Category6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sub-Category7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Sub-Category8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Sub-Category9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Sub-Category10"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Sub-Category11"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Sub-Category12"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Sub-Category13"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Sub-Category14"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Sub-Category15"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Sub-Category16"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Sub-Category17"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Sub-Category18"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Sub-Category19"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Sub-Category20"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Sub-Category21"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Sub-Category22"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Sub-Category23"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Sub-Category24"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Sub-Category25"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Sub-Category26"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Sub-Category27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table16" displayName="Table16" ref="A1:AT40" totalsRowShown="0">
-  <autoFilter ref="A1:AT40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table16" displayName="Table16" ref="A1:AT40" totalsRowShown="0">
+  <autoFilter ref="A1:AT40" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="46">
-    <tableColumn id="1" name="TAG Category "/>
-    <tableColumn id="2" name="ABBR"/>
-    <tableColumn id="3" name="TAG"/>
-    <tableColumn id="4" name="TAG2"/>
-    <tableColumn id="5" name="TAG3"/>
-    <tableColumn id="6" name="TAG4"/>
-    <tableColumn id="7" name="TAG5"/>
-    <tableColumn id="8" name="TAG6"/>
-    <tableColumn id="9" name="TAG7"/>
-    <tableColumn id="10" name="TAG8"/>
-    <tableColumn id="11" name="TAG9"/>
-    <tableColumn id="12" name="TAG10"/>
-    <tableColumn id="17" name="TAG11"/>
-    <tableColumn id="18" name="TAG12"/>
-    <tableColumn id="19" name="TAG13"/>
-    <tableColumn id="20" name="TAG14"/>
-    <tableColumn id="13" name="TAG15"/>
-    <tableColumn id="14" name="TAG16"/>
-    <tableColumn id="15" name="TAG17"/>
-    <tableColumn id="16" name="TAG18"/>
-    <tableColumn id="21" name="TAG19"/>
-    <tableColumn id="22" name="TAG20"/>
-    <tableColumn id="23" name="TAG21"/>
-    <tableColumn id="24" name="TAG22"/>
-    <tableColumn id="25" name="TAG23"/>
-    <tableColumn id="26" name="TAG24"/>
-    <tableColumn id="27" name="TAG25"/>
-    <tableColumn id="28" name="TAG26"/>
-    <tableColumn id="29" name="TAG27"/>
-    <tableColumn id="30" name="TAG28"/>
-    <tableColumn id="31" name="TAG29"/>
-    <tableColumn id="32" name="TAG30"/>
-    <tableColumn id="33" name="TAG31"/>
-    <tableColumn id="34" name="TAG32"/>
-    <tableColumn id="35" name="TAG33"/>
-    <tableColumn id="36" name="TAG34"/>
-    <tableColumn id="37" name="TAG35"/>
-    <tableColumn id="38" name="TAG36"/>
-    <tableColumn id="39" name="TAG37"/>
-    <tableColumn id="40" name="TAG38"/>
-    <tableColumn id="41" name="Column33"/>
-    <tableColumn id="42" name="Column34"/>
-    <tableColumn id="43" name="Column35"/>
-    <tableColumn id="44" name="Column36"/>
-    <tableColumn id="45" name="Column37"/>
-    <tableColumn id="46" name="Column38"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TAG Category "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ABBR"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="TAG"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="TAG2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="TAG3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="TAG4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="TAG5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="TAG6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="TAG7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="TAG8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="TAG9"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="TAG10"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="TAG11"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="TAG12"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" name="TAG13"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="TAG14"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="TAG15"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="TAG16"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="TAG17"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="TAG18"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="TAG19"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="TAG20"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" name="TAG21"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" name="TAG22"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" name="TAG23"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" name="TAG24"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" name="TAG25"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" name="TAG26"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" name="TAG27"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" name="TAG28"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" name="TAG29"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" name="TAG30"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" name="TAG31"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" name="TAG32"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" name="TAG33"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" name="TAG34"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" name="TAG35"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" name="TAG36"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" name="TAG37"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" name="TAG38"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" name="Column33"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" name="Column34"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" name="Column35"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" name="Column36"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0100-00002D000000}" name="Column37"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0100-00002E000000}" name="Column38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:P164" totalsRowShown="0">
-  <autoFilter ref="A1:P164"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table13" displayName="Table13" ref="A1:P164" totalsRowShown="0">
+  <autoFilter ref="A1:P164" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="C2:AC23">
     <sortCondition ref="C1:C24"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="50" name="Reference Name" dataDxfId="10"/>
-    <tableColumn id="25" name="URL" dataDxfId="0"/>
-    <tableColumn id="1" name="Quick Description"/>
-    <tableColumn id="27" name="Stability"/>
-    <tableColumn id="26" name="Category 1"/>
-    <tableColumn id="2" name="Category 2"/>
-    <tableColumn id="3" name="Sub-Category"/>
-    <tableColumn id="4" name="TAG1" dataDxfId="9"/>
-    <tableColumn id="5" name="TAG12" dataDxfId="8"/>
-    <tableColumn id="6" name="TAG13" dataDxfId="7"/>
-    <tableColumn id="7" name="TAG14" dataDxfId="6"/>
-    <tableColumn id="8" name="TAG15" dataDxfId="5"/>
-    <tableColumn id="9" name="TAG16" dataDxfId="4"/>
-    <tableColumn id="10" name="TAG17" dataDxfId="3"/>
-    <tableColumn id="11" name="TAG18" dataDxfId="2"/>
-    <tableColumn id="12" name="TAG19" dataDxfId="1"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0200-000032000000}" name="Reference Name" dataDxfId="10"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0200-000019000000}" name="URL" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Quick Description"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0200-00001B000000}" name="Stability"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0200-00001A000000}" name="Category 1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Category 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Sub-Category"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="TAG1" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="TAG12" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="TAG13" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="TAG14" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="TAG15" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="TAG16" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="TAG17" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="TAG18" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="TAG19" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A1:BJ61" totalsRowShown="0">
-  <autoFilter ref="A1:BJ61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table134" displayName="Table134" ref="A1:CO61" totalsRowShown="0">
+  <autoFilter ref="A1:CO61" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A2:AX26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <tableColumns count="62">
-    <tableColumn id="79" name="Author / Credits"/>
-    <tableColumn id="1" name="Ressource"/>
-    <tableColumn id="2" name="URL"/>
-    <tableColumn id="4" name="CAT1"/>
-    <tableColumn id="18" name="CAT2"/>
-    <tableColumn id="19" name="CAT3"/>
-    <tableColumn id="20" name="CAT4"/>
-    <tableColumn id="21" name="CAT5"/>
-    <tableColumn id="22" name="CAT6"/>
-    <tableColumn id="23" name="CAT7"/>
-    <tableColumn id="24" name="CAT8"/>
-    <tableColumn id="25" name="CAT9"/>
-    <tableColumn id="26" name="CAT10"/>
-    <tableColumn id="27" name="CAT11"/>
-    <tableColumn id="28" name="CAT12"/>
-    <tableColumn id="29" name="CAT13"/>
-    <tableColumn id="30" name="CAT14"/>
-    <tableColumn id="31" name="CAT15"/>
-    <tableColumn id="32" name="CAT16"/>
-    <tableColumn id="33" name="CAT17"/>
-    <tableColumn id="34" name="CAT18"/>
-    <tableColumn id="35" name="CAT19"/>
-    <tableColumn id="50" name="CAT20"/>
-    <tableColumn id="51" name="CAT21"/>
-    <tableColumn id="53" name="CAT22"/>
-    <tableColumn id="54" name="CAT23"/>
-    <tableColumn id="55" name="CAT24"/>
-    <tableColumn id="56" name="CAT25"/>
-    <tableColumn id="57" name="CAT26"/>
-    <tableColumn id="58" name="CAT27"/>
-    <tableColumn id="59" name="CAT28"/>
-    <tableColumn id="60" name="CAT29"/>
-    <tableColumn id="61" name="CAT30"/>
-    <tableColumn id="62" name="CAT31"/>
-    <tableColumn id="63" name="CAT32"/>
-    <tableColumn id="64" name="CAT33"/>
-    <tableColumn id="65" name="CAT34"/>
-    <tableColumn id="66" name="CAT35"/>
-    <tableColumn id="67" name="CAT36"/>
-    <tableColumn id="68" name="CAT37"/>
-    <tableColumn id="69" name="CAT38"/>
-    <tableColumn id="70" name="CAT39"/>
-    <tableColumn id="71" name="CAT40"/>
-    <tableColumn id="72" name="CAT41"/>
-    <tableColumn id="73" name="CAT42"/>
-    <tableColumn id="74" name="CAT43"/>
-    <tableColumn id="75" name="CAT44"/>
-    <tableColumn id="76" name="CAT45"/>
-    <tableColumn id="77" name="CAT46"/>
-    <tableColumn id="78" name="CAT47"/>
-    <tableColumn id="80" name="CAT48"/>
-    <tableColumn id="3" name="CAT49"/>
-    <tableColumn id="5" name="CAT50"/>
-    <tableColumn id="6" name="CAT51"/>
-    <tableColumn id="7" name="CAT52"/>
-    <tableColumn id="8" name="CAT53"/>
-    <tableColumn id="9" name="CAT54"/>
-    <tableColumn id="10" name="CAT55"/>
-    <tableColumn id="11" name="CAT56"/>
-    <tableColumn id="12" name="CAT57"/>
-    <tableColumn id="13" name="CAT58"/>
-    <tableColumn id="14" name="CAT59"/>
+  <tableColumns count="93">
+    <tableColumn id="79" xr3:uid="{00000000-0010-0000-0300-00004F000000}" name="Author / Credits"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Ressource"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="URL"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="CAT1"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="CAT2"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="CAT3"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0300-000014000000}" name="CAT4"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0300-000015000000}" name="CAT5"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0300-000016000000}" name="CAT6"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0300-000017000000}" name="CAT7"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0300-000018000000}" name="CAT8"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0300-000019000000}" name="CAT9"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0300-00001A000000}" name="CAT10"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0300-00001B000000}" name="CAT11"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0300-00001C000000}" name="CAT12"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0300-00001D000000}" name="CAT13"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0300-00001E000000}" name="CAT14"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0300-00001F000000}" name="CAT15"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0300-000020000000}" name="CAT16"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0300-000021000000}" name="CAT17"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0300-000022000000}" name="CAT18"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0300-000023000000}" name="CAT19"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0300-000032000000}" name="CAT20"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0300-000033000000}" name="CAT21"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0300-000035000000}" name="CAT22"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0300-000036000000}" name="CAT23"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0300-000037000000}" name="CAT24"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0300-000038000000}" name="CAT25"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0300-000039000000}" name="CAT26"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0300-00003A000000}" name="CAT27"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0300-00003B000000}" name="CAT28"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0300-00003C000000}" name="CAT29"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0300-00003D000000}" name="CAT30"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0300-00003E000000}" name="CAT31"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0300-00003F000000}" name="CAT32"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0300-000040000000}" name="CAT33"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0300-000041000000}" name="CAT34"/>
+    <tableColumn id="66" xr3:uid="{00000000-0010-0000-0300-000042000000}" name="CAT35"/>
+    <tableColumn id="67" xr3:uid="{00000000-0010-0000-0300-000043000000}" name="CAT36"/>
+    <tableColumn id="68" xr3:uid="{00000000-0010-0000-0300-000044000000}" name="CAT37"/>
+    <tableColumn id="69" xr3:uid="{00000000-0010-0000-0300-000045000000}" name="CAT38"/>
+    <tableColumn id="70" xr3:uid="{00000000-0010-0000-0300-000046000000}" name="CAT39"/>
+    <tableColumn id="71" xr3:uid="{00000000-0010-0000-0300-000047000000}" name="CAT40"/>
+    <tableColumn id="72" xr3:uid="{00000000-0010-0000-0300-000048000000}" name="CAT41"/>
+    <tableColumn id="73" xr3:uid="{00000000-0010-0000-0300-000049000000}" name="CAT42"/>
+    <tableColumn id="74" xr3:uid="{00000000-0010-0000-0300-00004A000000}" name="CAT43"/>
+    <tableColumn id="75" xr3:uid="{00000000-0010-0000-0300-00004B000000}" name="CAT44"/>
+    <tableColumn id="76" xr3:uid="{00000000-0010-0000-0300-00004C000000}" name="CAT45"/>
+    <tableColumn id="77" xr3:uid="{00000000-0010-0000-0300-00004D000000}" name="CAT46"/>
+    <tableColumn id="78" xr3:uid="{00000000-0010-0000-0300-00004E000000}" name="CAT47"/>
+    <tableColumn id="80" xr3:uid="{00000000-0010-0000-0300-000050000000}" name="CAT48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="CAT49"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="CAT50"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="CAT51"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="CAT52"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="CAT53"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="CAT54"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="CAT55"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="CAT56"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="CAT57"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="CAT58"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="CAT59"/>
+    <tableColumn id="15" xr3:uid="{398C9D9C-91C5-463E-8C49-B60BA608621D}" name="CAT60"/>
+    <tableColumn id="16" xr3:uid="{81E46393-43C6-4E16-8A90-853C30F52B74}" name="CAT61"/>
+    <tableColumn id="17" xr3:uid="{C4F20283-0474-4405-A969-A2471629B64F}" name="CAT62"/>
+    <tableColumn id="36" xr3:uid="{6EBECD7B-3EBA-4E04-952E-0F9336EFD8F2}" name="CAT63"/>
+    <tableColumn id="37" xr3:uid="{7551FEA2-B5CF-4069-87CF-810C5101806B}" name="CAT64"/>
+    <tableColumn id="38" xr3:uid="{A0CC8F88-5C48-44AF-845D-3FD5A8C6214E}" name="CAT65"/>
+    <tableColumn id="39" xr3:uid="{E8FD97B5-6372-464E-83FF-3A97F4B59085}" name="CAT66"/>
+    <tableColumn id="40" xr3:uid="{539F222A-E70F-40DD-9455-B7D30660C726}" name="CAT67"/>
+    <tableColumn id="41" xr3:uid="{C4FDDBD0-3829-4BCC-B4C8-63982172635D}" name="CAT68"/>
+    <tableColumn id="42" xr3:uid="{748A89CB-5316-4DE5-BB27-0C819A0B0F8C}" name="CAT69"/>
+    <tableColumn id="43" xr3:uid="{4FF3A5BE-7A6D-4AF7-B753-411FB167B3EF}" name="CAT70"/>
+    <tableColumn id="44" xr3:uid="{86972973-7B68-44F4-855D-696C86FD92BF}" name="CAT71"/>
+    <tableColumn id="45" xr3:uid="{DE0AC2EA-9A00-4DEB-B765-1C697B961CDF}" name="CAT72"/>
+    <tableColumn id="46" xr3:uid="{C79B1931-D415-45E2-A719-495D06111829}" name="CAT73"/>
+    <tableColumn id="47" xr3:uid="{EE43846A-110F-435F-B2DF-0E6E98093B53}" name="CAT74"/>
+    <tableColumn id="48" xr3:uid="{6D4B50AE-3A8D-4FC8-9F81-A6A45E7FFF78}" name="CAT75"/>
+    <tableColumn id="49" xr3:uid="{217F9802-3C0D-4F0A-A8DD-FAE469E16E0A}" name="CAT76"/>
+    <tableColumn id="52" xr3:uid="{5AF2004E-E4FD-4EC5-8787-558601A5D03F}" name="CAT77"/>
+    <tableColumn id="81" xr3:uid="{4FB322E6-C8E3-4DD0-9B19-2BE85C054AE6}" name="CAT78"/>
+    <tableColumn id="82" xr3:uid="{A9254D8C-143B-4A27-BAF9-2582B7B31813}" name="CAT79"/>
+    <tableColumn id="83" xr3:uid="{FE6E60BE-6D13-4512-9821-855188104C2A}" name="CAT80"/>
+    <tableColumn id="84" xr3:uid="{D4F945B2-351C-4513-9B29-46A74D029318}" name="CAT81"/>
+    <tableColumn id="85" xr3:uid="{899C3093-C2D7-4EFC-8D43-191F7BBB3332}" name="CAT82"/>
+    <tableColumn id="86" xr3:uid="{2A7D59EC-2094-43DC-8C69-A947588B6512}" name="CAT83"/>
+    <tableColumn id="87" xr3:uid="{9B1B0591-516E-4282-86CF-886F514FBF65}" name="CAT84"/>
+    <tableColumn id="88" xr3:uid="{81E31C30-8273-4ACA-AEA5-E5A1ADC9BB1F}" name="CAT85"/>
+    <tableColumn id="89" xr3:uid="{5ECD5097-7A56-4A13-9FFE-DC8E1E8133F7}" name="CAT86"/>
+    <tableColumn id="90" xr3:uid="{75643C2E-42A2-41FB-A832-1D310D30A5F4}" name="CAT87"/>
+    <tableColumn id="91" xr3:uid="{9398BAA1-99B8-4CD6-A476-C3A4F9E35CAD}" name="CAT88"/>
+    <tableColumn id="92" xr3:uid="{5B343299-D3DD-47AD-AC05-DF1A5B77F2C4}" name="CAT89"/>
+    <tableColumn id="93" xr3:uid="{9BD1BEB4-03DE-4F76-A357-769DDA99806C}" name="CAT90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A1:C54" totalsRowShown="0">
-  <autoFilter ref="A1:C54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table135" displayName="Table135" ref="A1:C54" totalsRowShown="0">
+  <autoFilter ref="A1:C54" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="18" name="Type"/>
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Short Description"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Short Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6426,47 +6730,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -6639,7 +6943,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -6665,7 +6969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -6694,7 +6998,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>870</v>
       </c>
@@ -6708,7 +7012,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -6758,7 +7062,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -6781,7 +7085,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -6810,7 +7114,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1204</v>
       </c>
@@ -6845,7 +7149,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -6880,7 +7184,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -6921,7 +7225,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>554</v>
       </c>
@@ -6965,7 +7269,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>509</v>
       </c>
@@ -7006,7 +7310,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>849</v>
       </c>
@@ -7035,7 +7339,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -7073,7 +7377,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -7156,7 +7460,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -7182,7 +7486,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>982</v>
       </c>
@@ -7205,7 +7509,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>861</v>
       </c>
@@ -7276,7 +7580,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -7356,7 +7660,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -7382,7 +7686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1308</v>
       </c>
@@ -7399,7 +7703,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="C27" s="41" t="s">
         <v>550</v>
@@ -7407,7 +7711,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y18" r:id="rId1" location="-visual-search-and-clustering-search-engines" display="https://github.com/jivoi/awesome-osint - -visual-search-and-clustering-search-engines"/>
+    <hyperlink ref="Y18" r:id="rId1" location="-visual-search-and-clustering-search-engines" display="https://github.com/jivoi/awesome-osint - -visual-search-and-clustering-search-engines" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
@@ -7418,33 +7722,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>989</v>
       </c>
@@ -7584,7 +7888,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7631,7 +7935,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -7666,7 +7970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>108</v>
       </c>
@@ -7728,7 +8032,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -7775,7 +8079,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>849</v>
       </c>
@@ -7795,7 +8099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7824,7 +8128,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -7832,7 +8136,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -7873,7 +8177,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -7893,7 +8197,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>136</v>
       </c>
@@ -7913,7 +8217,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>597</v>
       </c>
@@ -7954,7 +8258,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1020</v>
       </c>
@@ -7995,7 +8299,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1137</v>
       </c>
@@ -8024,7 +8328,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1192</v>
       </c>
@@ -8047,7 +8351,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1480</v>
       </c>
@@ -8094,7 +8398,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1648</v>
       </c>
@@ -8117,7 +8421,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1237</v>
       </c>
@@ -8161,7 +8465,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1275</v>
       </c>
@@ -8184,7 +8488,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -8223,32 +8527,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:PB164"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="126" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1437</v>
       </c>
@@ -8334,7 +8638,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="2" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>1436</v>
       </c>
@@ -8775,7 +9079,7 @@
       <c r="PA2" s="17"/>
       <c r="PB2" s="17"/>
     </row>
-    <row r="3" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>1435</v>
       </c>
@@ -9216,7 +9520,7 @@
       <c r="PA3" s="17"/>
       <c r="PB3" s="17"/>
     </row>
-    <row r="4" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>1434</v>
       </c>
@@ -9657,7 +9961,7 @@
       <c r="PA4" s="17"/>
       <c r="PB4" s="17"/>
     </row>
-    <row r="5" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>1433</v>
       </c>
@@ -10101,7 +10405,7 @@
       <c r="PA5" s="17"/>
       <c r="PB5" s="17"/>
     </row>
-    <row r="6" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>1432</v>
       </c>
@@ -10542,7 +10846,7 @@
       <c r="PA6" s="17"/>
       <c r="PB6" s="17"/>
     </row>
-    <row r="7" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>1431</v>
       </c>
@@ -10983,7 +11287,7 @@
       <c r="PA7" s="17"/>
       <c r="PB7" s="17"/>
     </row>
-    <row r="8" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>1430</v>
       </c>
@@ -11418,7 +11722,7 @@
       <c r="PA8" s="17"/>
       <c r="PB8" s="17"/>
     </row>
-    <row r="9" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>1429</v>
       </c>
@@ -11853,7 +12157,7 @@
       <c r="PA9" s="17"/>
       <c r="PB9" s="17"/>
     </row>
-    <row r="10" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>1428</v>
       </c>
@@ -12288,7 +12592,7 @@
       <c r="PA10" s="17"/>
       <c r="PB10" s="17"/>
     </row>
-    <row r="11" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>1427</v>
       </c>
@@ -12727,7 +13031,7 @@
       <c r="PA11" s="17"/>
       <c r="PB11" s="17"/>
     </row>
-    <row r="12" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>1426</v>
       </c>
@@ -13168,7 +13472,7 @@
       <c r="PA12" s="17"/>
       <c r="PB12" s="17"/>
     </row>
-    <row r="13" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>1425</v>
       </c>
@@ -13611,7 +13915,7 @@
       <c r="PA13" s="17"/>
       <c r="PB13" s="17"/>
     </row>
-    <row r="14" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>1424</v>
       </c>
@@ -14053,7 +14357,7 @@
       <c r="PA14" s="17"/>
       <c r="PB14" s="17"/>
     </row>
-    <row r="15" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>1423</v>
       </c>
@@ -14499,7 +14803,7 @@
       <c r="PA15" s="17"/>
       <c r="PB15" s="17"/>
     </row>
-    <row r="16" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>1422</v>
       </c>
@@ -14936,7 +15240,7 @@
       <c r="PA16" s="17"/>
       <c r="PB16" s="17"/>
     </row>
-    <row r="17" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="D17" s="8"/>
@@ -15352,7 +15656,7 @@
       <c r="PA17" s="17"/>
       <c r="PB17" s="17"/>
     </row>
-    <row r="18" spans="1:418" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:418" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>1410</v>
       </c>
@@ -15793,7 +16097,7 @@
       <c r="PA18" s="17"/>
       <c r="PB18" s="17"/>
     </row>
-    <row r="19" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>1411</v>
       </c>
@@ -16234,7 +16538,7 @@
       <c r="PA19" s="17"/>
       <c r="PB19" s="17"/>
     </row>
-    <row r="20" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>1412</v>
       </c>
@@ -16673,7 +16977,7 @@
       <c r="PA20" s="17"/>
       <c r="PB20" s="17"/>
     </row>
-    <row r="21" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>1413</v>
       </c>
@@ -17112,7 +17416,7 @@
       <c r="PA21" s="17"/>
       <c r="PB21" s="17"/>
     </row>
-    <row r="22" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>1414</v>
       </c>
@@ -17551,7 +17855,7 @@
       <c r="PA22" s="17"/>
       <c r="PB22" s="17"/>
     </row>
-    <row r="23" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>1415</v>
       </c>
@@ -17994,7 +18298,7 @@
       <c r="PA23" s="17"/>
       <c r="PB23" s="17"/>
     </row>
-    <row r="24" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>1416</v>
       </c>
@@ -18433,7 +18737,7 @@
       <c r="PA24" s="17"/>
       <c r="PB24" s="17"/>
     </row>
-    <row r="25" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>1417</v>
       </c>
@@ -18878,7 +19182,7 @@
       <c r="PA25" s="17"/>
       <c r="PB25" s="17"/>
     </row>
-    <row r="26" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>1418</v>
       </c>
@@ -19323,7 +19627,7 @@
       <c r="PA26" s="17"/>
       <c r="PB26" s="17"/>
     </row>
-    <row r="27" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>1419</v>
       </c>
@@ -19764,7 +20068,7 @@
       <c r="PA27" s="17"/>
       <c r="PB27" s="17"/>
     </row>
-    <row r="28" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>1420</v>
       </c>
@@ -20205,7 +20509,7 @@
       <c r="PA28" s="17"/>
       <c r="PB28" s="17"/>
     </row>
-    <row r="29" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>1421</v>
       </c>
@@ -20646,7 +20950,7 @@
       <c r="PA29" s="17"/>
       <c r="PB29" s="17"/>
     </row>
-    <row r="30" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>1257</v>
       </c>
@@ -21085,7 +21389,7 @@
       <c r="PA30" s="17"/>
       <c r="PB30" s="17"/>
     </row>
-    <row r="31" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="D31" s="8"/>
@@ -21501,7 +21805,7 @@
       <c r="PA31" s="17"/>
       <c r="PB31" s="17"/>
     </row>
-    <row r="32" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>1409</v>
       </c>
@@ -21944,7 +22248,7 @@
       <c r="PA32" s="17"/>
       <c r="PB32" s="17"/>
     </row>
-    <row r="33" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>1408</v>
       </c>
@@ -22387,7 +22691,7 @@
       <c r="PA33" s="17"/>
       <c r="PB33" s="17"/>
     </row>
-    <row r="34" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>1407</v>
       </c>
@@ -22830,7 +23134,7 @@
       <c r="PA34" s="17"/>
       <c r="PB34" s="17"/>
     </row>
-    <row r="35" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>1406</v>
       </c>
@@ -22906,7 +23210,7 @@
       <c r="AZ35" s="17"/>
       <c r="BA35" s="17"/>
     </row>
-    <row r="36" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1405</v>
       </c>
@@ -22980,7 +23284,7 @@
       <c r="AZ36" s="17"/>
       <c r="BA36" s="17"/>
     </row>
-    <row r="37" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>1404</v>
       </c>
@@ -23056,7 +23360,7 @@
       <c r="AZ37" s="17"/>
       <c r="BA37" s="17"/>
     </row>
-    <row r="38" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>1403</v>
       </c>
@@ -23138,7 +23442,7 @@
       <c r="AZ38" s="17"/>
       <c r="BA38" s="17"/>
     </row>
-    <row r="39" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>1402</v>
       </c>
@@ -23215,7 +23519,7 @@
       <c r="AZ39" s="17"/>
       <c r="BA39" s="17"/>
     </row>
-    <row r="40" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>1401</v>
       </c>
@@ -23292,7 +23596,7 @@
       <c r="AZ40" s="17"/>
       <c r="BA40" s="17"/>
     </row>
-    <row r="41" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>1400</v>
       </c>
@@ -23371,7 +23675,7 @@
       <c r="AZ41" s="17"/>
       <c r="BA41" s="17"/>
     </row>
-    <row r="42" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>1399</v>
       </c>
@@ -23445,7 +23749,7 @@
       <c r="AZ42" s="17"/>
       <c r="BA42" s="17"/>
     </row>
-    <row r="43" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>1398</v>
       </c>
@@ -23517,7 +23821,7 @@
       <c r="AZ43" s="17"/>
       <c r="BA43" s="17"/>
     </row>
-    <row r="44" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
         <v>1397</v>
       </c>
@@ -23594,7 +23898,7 @@
       <c r="AZ44" s="17"/>
       <c r="BA44" s="17"/>
     </row>
-    <row r="45" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
         <v>1396</v>
       </c>
@@ -23671,7 +23975,7 @@
       <c r="AZ45" s="17"/>
       <c r="BA45" s="17"/>
     </row>
-    <row r="46" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>1395</v>
       </c>
@@ -23743,7 +24047,7 @@
       <c r="AZ46" s="17"/>
       <c r="BA46" s="17"/>
     </row>
-    <row r="47" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>1394</v>
       </c>
@@ -23820,7 +24124,7 @@
       <c r="AZ47" s="17"/>
       <c r="BA47" s="17"/>
     </row>
-    <row r="48" spans="1:418" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:418" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>1393</v>
       </c>
@@ -23897,7 +24201,7 @@
       <c r="AZ48" s="17"/>
       <c r="BA48" s="17"/>
     </row>
-    <row r="49" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>1392</v>
       </c>
@@ -23972,7 +24276,7 @@
       <c r="AZ49" s="17"/>
       <c r="BA49" s="17"/>
     </row>
-    <row r="50" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>1391</v>
       </c>
@@ -24049,7 +24353,7 @@
       <c r="AZ50" s="17"/>
       <c r="BA50" s="17"/>
     </row>
-    <row r="51" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>1390</v>
       </c>
@@ -24126,7 +24430,7 @@
       <c r="AZ51" s="17"/>
       <c r="BA51" s="17"/>
     </row>
-    <row r="52" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>1389</v>
       </c>
@@ -24202,7 +24506,7 @@
       <c r="AZ52" s="17"/>
       <c r="BA52" s="17"/>
     </row>
-    <row r="53" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>1388</v>
       </c>
@@ -24276,7 +24580,7 @@
       <c r="AZ53" s="17"/>
       <c r="BA53" s="17"/>
     </row>
-    <row r="54" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>1387</v>
       </c>
@@ -24352,7 +24656,7 @@
       <c r="AZ54" s="17"/>
       <c r="BA54" s="17"/>
     </row>
-    <row r="55" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>1386</v>
       </c>
@@ -24428,7 +24732,7 @@
       <c r="AZ55" s="17"/>
       <c r="BA55" s="17"/>
     </row>
-    <row r="56" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>1385</v>
       </c>
@@ -24501,7 +24805,7 @@
       <c r="AY56" s="17"/>
       <c r="AZ56" s="17"/>
     </row>
-    <row r="57" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>1384</v>
       </c>
@@ -24552,7 +24856,7 @@
       <c r="AA57" s="17"/>
       <c r="AB57" s="17"/>
     </row>
-    <row r="58" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="H58" s="17"/>
@@ -24577,7 +24881,7 @@
       <c r="AA58" s="17"/>
       <c r="AB58" s="17"/>
     </row>
-    <row r="59" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>1375</v>
       </c>
@@ -24631,7 +24935,7 @@
       <c r="AA59" s="17"/>
       <c r="AB59" s="17"/>
     </row>
-    <row r="60" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>1383</v>
       </c>
@@ -24684,7 +24988,7 @@
       <c r="AA60" s="17"/>
       <c r="AB60" s="17"/>
     </row>
-    <row r="61" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>1382</v>
       </c>
@@ -24735,7 +25039,7 @@
       <c r="AA61" s="17"/>
       <c r="AB61" s="17"/>
     </row>
-    <row r="62" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>1381</v>
       </c>
@@ -24790,7 +25094,7 @@
       <c r="AA62" s="17"/>
       <c r="AB62" s="17"/>
     </row>
-    <row r="63" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>1380</v>
       </c>
@@ -24845,7 +25149,7 @@
       <c r="AA63" s="17"/>
       <c r="AB63" s="17"/>
     </row>
-    <row r="64" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1379</v>
       </c>
@@ -24900,7 +25204,7 @@
       <c r="AA64" s="17"/>
       <c r="AB64" s="17"/>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
         <v>1378</v>
       </c>
@@ -24957,7 +25261,7 @@
       <c r="AA65" s="17"/>
       <c r="AB65" s="17"/>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
         <v>1377</v>
       </c>
@@ -25012,7 +25316,7 @@
       <c r="AA66" s="17"/>
       <c r="AB66" s="17"/>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
         <v>1374</v>
       </c>
@@ -25061,7 +25365,7 @@
       <c r="AA67" s="17"/>
       <c r="AB67" s="17"/>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
         <v>1373</v>
       </c>
@@ -25112,7 +25416,7 @@
       <c r="AA68" s="17"/>
       <c r="AB68" s="17"/>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
         <v>1376</v>
       </c>
@@ -25163,7 +25467,7 @@
       <c r="AA69" s="17"/>
       <c r="AB69" s="17"/>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
         <v>1438</v>
       </c>
@@ -25214,7 +25518,7 @@
       <c r="AA70" s="17"/>
       <c r="AB70" s="17"/>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
         <v>1441</v>
       </c>
@@ -25268,7 +25572,7 @@
       <c r="AA71" s="17"/>
       <c r="AB71" s="17"/>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
         <v>1444</v>
       </c>
@@ -25319,7 +25623,7 @@
       <c r="AA72" s="17"/>
       <c r="AB72" s="17"/>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
         <v>1447</v>
       </c>
@@ -25368,7 +25672,7 @@
       <c r="AA73" s="17"/>
       <c r="AB73" s="17"/>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
         <v>1457</v>
       </c>
@@ -25417,7 +25721,7 @@
       <c r="AA74" s="17"/>
       <c r="AB74" s="17"/>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
         <v>1458</v>
       </c>
@@ -25468,7 +25772,7 @@
       <c r="AA75" s="17"/>
       <c r="AB75" s="17"/>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="39" t="s">
         <v>1459</v>
       </c>
@@ -25521,7 +25825,7 @@
       <c r="AA76" s="17"/>
       <c r="AB76" s="17"/>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
         <v>1463</v>
       </c>
@@ -25570,7 +25874,7 @@
       <c r="AA77" s="17"/>
       <c r="AB77" s="17"/>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
         <v>1486</v>
       </c>
@@ -25623,7 +25927,7 @@
       <c r="AA78" s="17"/>
       <c r="AB78" s="17"/>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="s">
         <v>1485</v>
       </c>
@@ -25676,7 +25980,7 @@
       <c r="AA79" s="17"/>
       <c r="AB79" s="17"/>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="17" t="s">
         <v>1491</v>
       </c>
@@ -25729,7 +26033,7 @@
       <c r="AA80" s="17"/>
       <c r="AB80" s="17"/>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
         <v>1497</v>
       </c>
@@ -25780,7 +26084,7 @@
       <c r="AA81" s="17"/>
       <c r="AB81" s="17"/>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>1499</v>
       </c>
@@ -25834,7 +26138,7 @@
       <c r="AA82" s="17"/>
       <c r="AB82" s="17"/>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="s">
         <v>1504</v>
       </c>
@@ -25888,7 +26192,7 @@
       <c r="AA83" s="17"/>
       <c r="AB83" s="17"/>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
         <v>1505</v>
       </c>
@@ -25944,7 +26248,7 @@
       <c r="AA84" s="17"/>
       <c r="AB84" s="17"/>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17"/>
       <c r="H85" s="17"/>
@@ -25969,7 +26273,7 @@
       <c r="AA85" s="17"/>
       <c r="AB85" s="17"/>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
         <v>1508</v>
       </c>
@@ -26018,7 +26322,7 @@
       <c r="AA86" s="17"/>
       <c r="AB86" s="17"/>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
         <v>1514</v>
       </c>
@@ -26067,7 +26371,7 @@
       <c r="AA87" s="17"/>
       <c r="AB87" s="17"/>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="17" t="s">
         <v>1517</v>
       </c>
@@ -26118,7 +26422,7 @@
       <c r="AA88" s="17"/>
       <c r="AB88" s="17"/>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="s">
         <v>1520</v>
       </c>
@@ -26169,7 +26473,7 @@
       <c r="AA89" s="17"/>
       <c r="AB89" s="17"/>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
         <v>1524</v>
       </c>
@@ -26220,7 +26524,7 @@
       <c r="AA90" s="17"/>
       <c r="AB90" s="17"/>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>1527</v>
       </c>
@@ -26271,7 +26575,7 @@
       <c r="AA91" s="17"/>
       <c r="AB91" s="17"/>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="17" t="s">
         <v>1531</v>
       </c>
@@ -26326,7 +26630,7 @@
       <c r="AA92" s="17"/>
       <c r="AB92" s="17"/>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
         <v>1534</v>
       </c>
@@ -26379,7 +26683,7 @@
       <c r="AA93" s="17"/>
       <c r="AB93" s="17"/>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>1540</v>
       </c>
@@ -26422,7 +26726,7 @@
       <c r="O94" s="17"/>
       <c r="P94" s="17"/>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
         <v>1543</v>
       </c>
@@ -26465,7 +26769,7 @@
       <c r="O95" s="17"/>
       <c r="P95" s="17"/>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
         <v>1548</v>
       </c>
@@ -26504,7 +26808,7 @@
       <c r="O96" s="17"/>
       <c r="P96" s="17"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="17"/>
       <c r="B97" s="17"/>
       <c r="H97" s="17"/>
@@ -26517,7 +26821,7 @@
       <c r="O97" s="17"/>
       <c r="P97" s="17"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
         <v>1550</v>
       </c>
@@ -26552,7 +26856,7 @@
       <c r="O98" s="17"/>
       <c r="P98" s="17"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
         <v>1559</v>
       </c>
@@ -26597,7 +26901,7 @@
       </c>
       <c r="P99" s="17"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>1564</v>
       </c>
@@ -26634,7 +26938,7 @@
       <c r="O100" s="17"/>
       <c r="P100" s="17"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>1623</v>
       </c>
@@ -26671,7 +26975,7 @@
       <c r="O101" s="17"/>
       <c r="P101" s="17"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="s">
         <v>1572</v>
       </c>
@@ -26708,7 +27012,7 @@
       <c r="O102" s="17"/>
       <c r="P102" s="17"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="s">
         <v>1574</v>
       </c>
@@ -26747,7 +27051,7 @@
       <c r="O103" s="17"/>
       <c r="P103" s="17"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="17" t="s">
         <v>1578</v>
       </c>
@@ -26784,7 +27088,7 @@
       <c r="O104" s="17"/>
       <c r="P104" s="17"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
         <v>1582</v>
       </c>
@@ -26823,7 +27127,7 @@
       <c r="O105" s="17"/>
       <c r="P105" s="17"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="17" t="s">
         <v>1587</v>
       </c>
@@ -26862,7 +27166,7 @@
       <c r="O106" s="17"/>
       <c r="P106" s="17"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="s">
         <v>1591</v>
       </c>
@@ -26897,7 +27201,7 @@
       <c r="O107" s="17"/>
       <c r="P107" s="17"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="17" t="s">
         <v>1597</v>
       </c>
@@ -26934,7 +27238,7 @@
       <c r="O108" s="17"/>
       <c r="P108" s="17"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="s">
         <v>1601</v>
       </c>
@@ -26971,7 +27275,7 @@
       <c r="O109" s="17"/>
       <c r="P109" s="17"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="17" t="s">
         <v>1606</v>
       </c>
@@ -27010,7 +27314,7 @@
       <c r="O110" s="17"/>
       <c r="P110" s="17"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>1608</v>
       </c>
@@ -27047,7 +27351,7 @@
       <c r="O111" s="17"/>
       <c r="P111" s="17"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
         <v>1610</v>
       </c>
@@ -27084,7 +27388,7 @@
       <c r="O112" s="17"/>
       <c r="P112" s="17"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
         <v>1614</v>
       </c>
@@ -27121,7 +27425,7 @@
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="17" t="s">
         <v>1615</v>
       </c>
@@ -27158,7 +27462,7 @@
       <c r="O114" s="17"/>
       <c r="P114" s="17"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="s">
         <v>1619</v>
       </c>
@@ -27195,7 +27499,7 @@
       <c r="O115" s="17"/>
       <c r="P115" s="17"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="17" t="s">
         <v>1620</v>
       </c>
@@ -27224,7 +27528,7 @@
       <c r="O116" s="17"/>
       <c r="P116" s="17"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17"/>
       <c r="H117" s="17"/>
@@ -27237,7 +27541,7 @@
       <c r="O117" s="17"/>
       <c r="P117" s="17"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
         <v>1626</v>
       </c>
@@ -27276,7 +27580,7 @@
       <c r="O118" s="17"/>
       <c r="P118" s="17"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>1627</v>
       </c>
@@ -27317,7 +27621,7 @@
       <c r="O119" s="17"/>
       <c r="P119" s="17"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>1631</v>
       </c>
@@ -27362,7 +27666,7 @@
       </c>
       <c r="P120" s="17"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="s">
         <v>1637</v>
       </c>
@@ -27403,7 +27707,7 @@
       <c r="O121" s="17"/>
       <c r="P121" s="17"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="17" t="s">
         <v>1639</v>
       </c>
@@ -27442,7 +27746,7 @@
       <c r="O122" s="17"/>
       <c r="P122" s="17"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
         <v>1642</v>
       </c>
@@ -27483,7 +27787,7 @@
       <c r="O123" s="17"/>
       <c r="P123" s="17"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>1645</v>
       </c>
@@ -27530,7 +27834,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="s">
         <v>1650</v>
       </c>
@@ -27573,7 +27877,7 @@
       <c r="O125" s="17"/>
       <c r="P125" s="17"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="s">
         <v>1654</v>
       </c>
@@ -27616,7 +27920,7 @@
       <c r="O126" s="17"/>
       <c r="P126" s="17"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="s">
         <v>1658</v>
       </c>
@@ -27655,7 +27959,7 @@
       <c r="O127" s="17"/>
       <c r="P127" s="17"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>1663</v>
       </c>
@@ -27696,7 +28000,7 @@
       <c r="O128" s="17"/>
       <c r="P128" s="17"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="s">
         <v>1665</v>
       </c>
@@ -27737,7 +28041,7 @@
       <c r="O129" s="17"/>
       <c r="P129" s="17"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="17"/>
       <c r="H130" s="17"/>
@@ -27750,7 +28054,7 @@
       <c r="O130" s="17"/>
       <c r="P130" s="17"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="s">
         <v>1673</v>
       </c>
@@ -27787,7 +28091,7 @@
       <c r="O131" s="17"/>
       <c r="P131" s="17"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>1677</v>
       </c>
@@ -27824,7 +28128,7 @@
       <c r="O132" s="17"/>
       <c r="P132" s="17"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="s">
         <v>1680</v>
       </c>
@@ -27861,7 +28165,7 @@
       <c r="O133" s="17"/>
       <c r="P133" s="17"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="17" t="s">
         <v>1684</v>
       </c>
@@ -27904,7 +28208,7 @@
       <c r="O134" s="17"/>
       <c r="P134" s="17"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="s">
         <v>1689</v>
       </c>
@@ -27951,7 +28255,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
         <v>1691</v>
       </c>
@@ -27994,7 +28298,7 @@
       <c r="O136" s="17"/>
       <c r="P136" s="17"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="17"/>
       <c r="H137" s="17"/>
@@ -28007,7 +28311,7 @@
       <c r="O137" s="17"/>
       <c r="P137" s="17"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="17" t="s">
         <v>1700</v>
       </c>
@@ -28048,7 +28352,7 @@
       <c r="O138" s="17"/>
       <c r="P138" s="17"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="s">
         <v>1701</v>
       </c>
@@ -28087,7 +28391,7 @@
       <c r="O139" s="17"/>
       <c r="P139" s="17"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
         <v>1702</v>
       </c>
@@ -28123,7 +28427,7 @@
       <c r="O140" s="17"/>
       <c r="P140" s="17"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="17"/>
       <c r="H141" s="17"/>
@@ -28136,7 +28440,7 @@
       <c r="O141" s="17"/>
       <c r="P141" s="17"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="17" t="s">
         <v>1709</v>
       </c>
@@ -28169,7 +28473,7 @@
       <c r="O142" s="17"/>
       <c r="P142" s="17"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="s">
         <v>1713</v>
       </c>
@@ -28202,7 +28506,7 @@
       <c r="O143" s="17"/>
       <c r="P143" s="17"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
         <v>1717</v>
       </c>
@@ -28234,7 +28538,7 @@
       <c r="O144" s="17"/>
       <c r="P144" s="17"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="s">
         <v>1720</v>
       </c>
@@ -28275,7 +28579,7 @@
       <c r="O145" s="17"/>
       <c r="P145" s="17"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="17" t="s">
         <v>1727</v>
       </c>
@@ -28314,7 +28618,7 @@
       <c r="O146" s="17"/>
       <c r="P146" s="17"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="s">
         <v>1726</v>
       </c>
@@ -28353,7 +28657,7 @@
       <c r="O147" s="17"/>
       <c r="P147" s="17"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
         <v>1732</v>
       </c>
@@ -28394,7 +28698,7 @@
       <c r="O148" s="17"/>
       <c r="P148" s="17"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
         <v>1736</v>
       </c>
@@ -28435,7 +28739,7 @@
       <c r="O149" s="17"/>
       <c r="P149" s="17"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
         <v>1741</v>
       </c>
@@ -28472,7 +28776,7 @@
       <c r="O150" s="17"/>
       <c r="P150" s="17"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
         <v>1743</v>
       </c>
@@ -28505,7 +28809,7 @@
       <c r="O151" s="17"/>
       <c r="P151" s="17"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17"/>
       <c r="H152" s="17"/>
@@ -28518,7 +28822,7 @@
       <c r="O152" s="17"/>
       <c r="P152" s="17"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" s="17"/>
       <c r="H153" s="17"/>
@@ -28531,7 +28835,7 @@
       <c r="O153" s="17"/>
       <c r="P153" s="17"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="17"/>
       <c r="H154" s="17"/>
@@ -28544,7 +28848,7 @@
       <c r="O154" s="17"/>
       <c r="P154" s="17"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="17"/>
       <c r="H155" s="17"/>
@@ -28557,7 +28861,7 @@
       <c r="O155" s="17"/>
       <c r="P155" s="17"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="17"/>
       <c r="B156" s="17"/>
       <c r="H156" s="17"/>
@@ -28570,7 +28874,7 @@
       <c r="O156" s="17"/>
       <c r="P156" s="17"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="B157" s="17"/>
       <c r="H157" s="17"/>
@@ -28583,7 +28887,7 @@
       <c r="O157" s="17"/>
       <c r="P157" s="17"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="17"/>
       <c r="H158" s="17"/>
@@ -28596,7 +28900,7 @@
       <c r="O158" s="17"/>
       <c r="P158" s="17"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="17"/>
       <c r="H159" s="17"/>
@@ -28609,7 +28913,7 @@
       <c r="O159" s="17"/>
       <c r="P159" s="17"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
       <c r="B160" s="17"/>
       <c r="H160" s="17"/>
@@ -28622,7 +28926,7 @@
       <c r="O160" s="17"/>
       <c r="P160" s="17"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="17"/>
       <c r="H161" s="17"/>
@@ -28635,7 +28939,7 @@
       <c r="O161" s="17"/>
       <c r="P161" s="17"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="17"/>
       <c r="H162" s="17"/>
@@ -28648,7 +28952,7 @@
       <c r="O162" s="17"/>
       <c r="P162" s="17"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="17"/>
       <c r="H163" s="17"/>
@@ -28661,7 +28965,7 @@
       <c r="O163" s="17"/>
       <c r="P163" s="17"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="17"/>
       <c r="H164" s="17"/>
@@ -28676,12 +28980,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
-    <hyperlink ref="B22" r:id="rId2"/>
-    <hyperlink ref="B77" r:id="rId3"/>
-    <hyperlink ref="B91" r:id="rId4"/>
-    <hyperlink ref="B107" r:id="rId5"/>
-    <hyperlink ref="B108" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B77" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B91" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B108" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -28692,71 +28996,91 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:CO68"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="BH34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BZ45" sqref="BZ45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="48.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="55.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="57.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="55" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="56.21875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="56.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="45" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="40.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="51.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="54" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="34" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="28.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="37" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="42.21875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="32" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="26" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="30" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="31" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -28943,8 +29267,101 @@
       <c r="BJ1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK1" t="s">
+        <v>1796</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>1797</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>1798</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>1799</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>1800</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>1801</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>1802</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>1803</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>1804</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>1805</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>1806</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>1807</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>1808</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>1809</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>1810</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>1811</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>1812</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>1813</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>1814</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>1816</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>1817</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>1818</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>1819</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>1820</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>1821</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>1822</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>1824</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="CO1" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>315</v>
       </c>
@@ -29096,7 +29513,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>307</v>
       </c>
@@ -29131,7 +29548,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -29208,7 +29625,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>307</v>
       </c>
@@ -29264,7 +29681,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>297</v>
       </c>
@@ -29320,7 +29737,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>314</v>
       </c>
@@ -29475,7 +29892,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>308</v>
       </c>
@@ -29534,7 +29951,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>316</v>
       </c>
@@ -29641,7 +30058,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -29685,7 +30102,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -29726,7 +30143,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -29791,7 +30208,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -29865,7 +30282,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -29933,7 +30350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -29989,7 +30406,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>307</v>
       </c>
@@ -30045,7 +30462,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -30146,7 +30563,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>307</v>
       </c>
@@ -30220,7 +30637,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>323</v>
       </c>
@@ -30306,7 +30723,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>323</v>
       </c>
@@ -30389,7 +30806,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>307</v>
       </c>
@@ -30448,7 +30865,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>307</v>
       </c>
@@ -30516,7 +30933,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>307</v>
       </c>
@@ -30578,7 +30995,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -30703,7 +31120,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>307</v>
       </c>
@@ -30783,7 +31200,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>353</v>
       </c>
@@ -30803,7 +31220,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>356</v>
       </c>
@@ -30814,7 +31231,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>361</v>
       </c>
@@ -30825,7 +31242,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>315</v>
       </c>
@@ -30836,7 +31253,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>409</v>
       </c>
@@ -30847,7 +31264,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>366</v>
       </c>
@@ -30858,7 +31275,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>371</v>
       </c>
@@ -30869,7 +31286,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="33" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>372</v>
       </c>
@@ -30880,7 +31297,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>377</v>
       </c>
@@ -30891,7 +31308,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="35" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>378</v>
       </c>
@@ -30902,7 +31319,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="36" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>381</v>
       </c>
@@ -30913,7 +31330,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>384</v>
       </c>
@@ -30924,7 +31341,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>315</v>
       </c>
@@ -30935,7 +31352,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="39" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>389</v>
       </c>
@@ -30946,7 +31363,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="40" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>392</v>
       </c>
@@ -31008,7 +31425,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="41" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>349</v>
       </c>
@@ -31019,7 +31436,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="42" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>855</v>
       </c>
@@ -31063,7 +31480,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="43" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>858</v>
       </c>
@@ -31227,12 +31644,12 @@
         <v>919</v>
       </c>
     </row>
-    <row r="44" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>953</v>
       </c>
       <c r="B44" t="s">
-        <v>954</v>
+        <v>1753</v>
       </c>
       <c r="C44" t="s">
         <v>955</v>
@@ -31343,7 +31760,240 @@
         <v>981</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1759</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J45" t="s">
+        <v>876</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1140</v>
+      </c>
+      <c r="L45" t="s">
+        <v>1762</v>
+      </c>
+      <c r="M45" t="s">
+        <v>139</v>
+      </c>
+      <c r="N45" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" t="s">
+        <v>56</v>
+      </c>
+      <c r="P45" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>83</v>
+      </c>
+      <c r="R45" t="s">
+        <v>503</v>
+      </c>
+      <c r="S45" t="s">
+        <v>66</v>
+      </c>
+      <c r="T45" t="s">
+        <v>877</v>
+      </c>
+      <c r="U45" t="s">
+        <v>492</v>
+      </c>
+      <c r="V45" t="s">
+        <v>874</v>
+      </c>
+      <c r="W45" t="s">
+        <v>460</v>
+      </c>
+      <c r="X45" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>1763</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>1764</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>1765</v>
+      </c>
+      <c r="AB45" t="s">
+        <v>1766</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>1767</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>1768</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>1769</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>1770</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>1771</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>1772</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>1773</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>1774</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>1775</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>1776</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>1777</v>
+      </c>
+      <c r="AN45" t="s">
+        <v>1778</v>
+      </c>
+      <c r="AO45" t="s">
+        <v>1779</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>1780</v>
+      </c>
+      <c r="AQ45" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>1782</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>1783</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>1785</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>1786</v>
+      </c>
+      <c r="AW45" t="s">
+        <v>1787</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>1788</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>1789</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>1790</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>1791</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>1792</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>1793</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>517</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>219</v>
+      </c>
+      <c r="BF45" t="s">
+        <v>1794</v>
+      </c>
+      <c r="BG45" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH45" t="s">
+        <v>153</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>1795</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>1827</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>1828</v>
+      </c>
+      <c r="BL45" t="s">
+        <v>1829</v>
+      </c>
+      <c r="BM45" t="s">
+        <v>1830</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>1831</v>
+      </c>
+      <c r="BO45" t="s">
+        <v>1832</v>
+      </c>
+      <c r="BP45" t="s">
+        <v>1833</v>
+      </c>
+      <c r="BQ45" t="s">
+        <v>1834</v>
+      </c>
+      <c r="BR45" t="s">
+        <v>1835</v>
+      </c>
+      <c r="BS45" t="s">
+        <v>1836</v>
+      </c>
+      <c r="BT45" t="s">
+        <v>1837</v>
+      </c>
+      <c r="BU45" t="s">
+        <v>1838</v>
+      </c>
+      <c r="BV45" t="s">
+        <v>1839</v>
+      </c>
+      <c r="BW45" t="s">
+        <v>1840</v>
+      </c>
+      <c r="BX45" t="s">
+        <v>1841</v>
+      </c>
+      <c r="BY45" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1147</v>
       </c>
@@ -31354,7 +32004,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="28"/>
       <c r="B65" t="s">
         <v>1150</v>
@@ -31363,7 +32013,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="27"/>
       <c r="B66" t="s">
         <v>1152</v>
@@ -31372,7 +32022,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
       <c r="B67" t="s">
         <v>1154</v>
@@ -31381,7 +32031,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" t="s">
         <v>1156</v>
@@ -31392,12 +32042,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="D26" r:id="rId4" location="-general-search" display="https://github.com/jivoi/awesome-osint - -general-search"/>
-    <hyperlink ref="E26" r:id="rId5" location="-main-national-search-engines" display="https://github.com/jivoi/awesome-osint - -main-national-search-engines"/>
-    <hyperlink ref="F26" r:id="rId6" location="-meta-search" display="https://github.com/jivoi/awesome-osint - -meta-search"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D26" r:id="rId4" location="-general-search" display="https://github.com/jivoi/awesome-osint - -general-search" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="E26" r:id="rId5" location="-main-national-search-engines" display="https://github.com/jivoi/awesome-osint - -main-national-search-engines" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="F26" r:id="rId6" location="-meta-search" display="https://github.com/jivoi/awesome-osint - -meta-search" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
@@ -31408,21 +32058,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="230.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="230.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -31433,7 +32083,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -31444,7 +32094,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -31455,7 +32105,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -31466,7 +32116,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -31477,7 +32127,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -31488,7 +32138,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -31499,7 +32149,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -31510,7 +32160,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -31521,7 +32171,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -31532,7 +32182,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -31543,7 +32193,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -31554,7 +32204,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -31565,7 +32215,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -31576,7 +32226,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -31587,7 +32237,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -31598,7 +32248,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -31609,7 +32259,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -31620,7 +32270,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -31631,7 +32281,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -31642,7 +32292,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -31653,7 +32303,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -31664,7 +32314,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -31675,7 +32325,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1080</v>
       </c>
@@ -31686,7 +32336,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1080</v>
       </c>
@@ -31697,7 +32347,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1080</v>
       </c>
@@ -31708,7 +32358,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1080</v>
       </c>
@@ -31719,7 +32369,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1080</v>
       </c>
@@ -31730,7 +32380,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1080</v>
       </c>
@@ -31741,7 +32391,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1080</v>
       </c>
@@ -31752,7 +32402,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1080</v>
       </c>
@@ -31763,7 +32413,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1171</v>
       </c>
@@ -31774,7 +32424,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1171</v>
       </c>
@@ -31785,7 +32435,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1280</v>
       </c>
@@ -31793,7 +32443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1280</v>
       </c>
@@ -31801,7 +32451,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1280</v>
       </c>
@@ -31809,7 +32459,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1280</v>
       </c>
@@ -31817,7 +32467,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1280</v>
       </c>
@@ -31825,7 +32475,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1280</v>
       </c>
@@ -31833,7 +32483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1280</v>
       </c>
@@ -31841,7 +32491,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1280</v>
       </c>
@@ -31849,7 +32499,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1280</v>
       </c>
@@ -31857,7 +32507,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1280</v>
       </c>
@@ -31865,7 +32515,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1280</v>
       </c>
@@ -31873,7 +32523,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1280</v>
       </c>
@@ -31881,7 +32531,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1280</v>
       </c>
@@ -31889,7 +32539,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1280</v>
       </c>
@@ -31897,7 +32547,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1280</v>
       </c>
@@ -31905,7 +32555,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1280</v>
       </c>
@@ -31913,7 +32563,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1280</v>
       </c>
@@ -31921,7 +32571,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1280</v>
       </c>
@@ -31938,25 +32588,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="75.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="114.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="114.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>344</v>
       </c>
@@ -31979,7 +32629,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>43336</v>
       </c>
@@ -31994,7 +32644,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43337</v>
       </c>
@@ -32017,7 +32667,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>43338</v>
       </c>
@@ -32036,7 +32686,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>43338</v>
       </c>
@@ -32055,7 +32705,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>43355</v>
       </c>
@@ -32070,7 +32720,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>43356</v>
       </c>
@@ -32085,7 +32735,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>43371</v>
       </c>
@@ -32100,7 +32750,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>43372</v>
       </c>
@@ -32117,7 +32767,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>43372</v>
       </c>
@@ -32132,7 +32782,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>43373</v>
       </c>
@@ -32147,7 +32797,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -32156,7 +32806,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -32165,7 +32815,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -32174,7 +32824,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -32189,75 +32839,75 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BL61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" customWidth="1"/>
-    <col min="6" max="6" width="50.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.88671875" customWidth="1"/>
-    <col min="8" max="8" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" customWidth="1"/>
+    <col min="6" max="6" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.85546875" customWidth="1"/>
+    <col min="8" max="8" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
     <col min="10" max="10" width="46" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.88671875" customWidth="1"/>
-    <col min="12" max="12" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39.88671875" customWidth="1"/>
-    <col min="14" max="14" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.88671875" customWidth="1"/>
-    <col min="16" max="16" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.88671875" customWidth="1"/>
-    <col min="18" max="18" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="39.88671875" customWidth="1"/>
-    <col min="20" max="20" width="77.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="39.88671875" customWidth="1"/>
-    <col min="22" max="22" width="62.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39.88671875" customWidth="1"/>
-    <col min="24" max="24" width="73.88671875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="39.88671875" customWidth="1"/>
-    <col min="26" max="26" width="47.77734375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="39.88671875" customWidth="1"/>
-    <col min="28" max="28" width="71.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="39.88671875" customWidth="1"/>
-    <col min="30" max="30" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="39.88671875" customWidth="1"/>
-    <col min="32" max="32" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="39.88671875" customWidth="1"/>
-    <col min="34" max="34" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="39.88671875" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" customWidth="1"/>
+    <col min="12" max="12" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.85546875" customWidth="1"/>
+    <col min="14" max="14" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.85546875" customWidth="1"/>
+    <col min="16" max="16" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.85546875" customWidth="1"/>
+    <col min="18" max="18" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="39.85546875" customWidth="1"/>
+    <col min="20" max="20" width="77.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.85546875" customWidth="1"/>
+    <col min="22" max="22" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.85546875" customWidth="1"/>
+    <col min="24" max="24" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="39.85546875" customWidth="1"/>
+    <col min="26" max="26" width="47.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="39.85546875" customWidth="1"/>
+    <col min="28" max="28" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="39.85546875" customWidth="1"/>
+    <col min="30" max="30" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39.85546875" customWidth="1"/>
+    <col min="32" max="32" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="39.85546875" customWidth="1"/>
+    <col min="34" max="34" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="39.85546875" customWidth="1"/>
     <col min="36" max="36" width="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="39.88671875" customWidth="1"/>
-    <col min="38" max="38" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="39.88671875" customWidth="1"/>
-    <col min="40" max="40" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="39.88671875" customWidth="1"/>
-    <col min="42" max="42" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="39.88671875" customWidth="1"/>
+    <col min="37" max="37" width="39.85546875" customWidth="1"/>
+    <col min="38" max="38" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="39.85546875" customWidth="1"/>
+    <col min="40" max="40" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="39.85546875" customWidth="1"/>
+    <col min="42" max="42" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="39.85546875" customWidth="1"/>
     <col min="44" max="44" width="14" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="39.88671875" customWidth="1"/>
+    <col min="45" max="45" width="39.85546875" customWidth="1"/>
     <col min="46" max="46" width="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="29.77734375" customWidth="1"/>
-    <col min="48" max="48" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="39.88671875" customWidth="1"/>
-    <col min="50" max="50" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="39.88671875" customWidth="1"/>
+    <col min="47" max="47" width="29.7109375" customWidth="1"/>
+    <col min="48" max="48" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="39.85546875" customWidth="1"/>
+    <col min="50" max="50" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="39.85546875" customWidth="1"/>
     <col min="52" max="52" width="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="39.88671875" customWidth="1"/>
-    <col min="54" max="54" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="11.33203125" customWidth="1"/>
+    <col min="53" max="53" width="39.85546875" customWidth="1"/>
+    <col min="54" max="54" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>312</v>
       </c>
@@ -32446,7 +33096,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>315</v>
       </c>
@@ -32576,7 +33226,7 @@
       <c r="BK2" s="1"/>
       <c r="BL2" s="22"/>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>307</v>
       </c>
@@ -32656,7 +33306,7 @@
       <c r="BK3" s="2"/>
       <c r="BL3" s="23"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>307</v>
       </c>
@@ -32754,7 +33404,7 @@
       <c r="BK4" s="1"/>
       <c r="BL4" s="22"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>307</v>
       </c>
@@ -32842,7 +33492,7 @@
       <c r="BK5" s="2"/>
       <c r="BL5" s="23"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>297</v>
       </c>
@@ -32930,7 +33580,7 @@
       <c r="BK6" s="1"/>
       <c r="BL6" s="22"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>314</v>
       </c>
@@ -33052,7 +33702,7 @@
       <c r="BK7" s="2"/>
       <c r="BL7" s="23"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>308</v>
       </c>
@@ -33142,7 +33792,7 @@
       <c r="BK8" s="1"/>
       <c r="BL8" s="22"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>316</v>
       </c>
@@ -33248,7 +33898,7 @@
       <c r="BK9" s="2"/>
       <c r="BL9" s="23"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -33332,7 +33982,7 @@
       <c r="BK10" s="1"/>
       <c r="BL10" s="22"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
@@ -33416,7 +34066,7 @@
       <c r="BK11" s="2"/>
       <c r="BL11" s="23"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -33506,7 +34156,7 @@
       <c r="BK12" s="1"/>
       <c r="BL12" s="22"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>30</v>
       </c>
@@ -33600,7 +34250,7 @@
       <c r="BK13" s="2"/>
       <c r="BL13" s="23"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -33692,7 +34342,7 @@
       <c r="BK14" s="1"/>
       <c r="BL14" s="22"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>30</v>
       </c>
@@ -33780,7 +34430,7 @@
       <c r="BK15" s="2"/>
       <c r="BL15" s="23"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>307</v>
       </c>
@@ -33868,7 +34518,7 @@
       <c r="BK16" s="1"/>
       <c r="BL16" s="22"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>307</v>
       </c>
@@ -33972,7 +34622,7 @@
       <c r="BK17" s="2"/>
       <c r="BL17" s="23"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>307</v>
       </c>
@@ -34066,7 +34716,7 @@
       <c r="BK18" s="1"/>
       <c r="BL18" s="22"/>
     </row>
-    <row r="19" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>323</v>
       </c>
@@ -34166,7 +34816,7 @@
       <c r="BK19" s="2"/>
       <c r="BL19" s="23"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>323</v>
       </c>
@@ -34264,7 +34914,7 @@
       <c r="BK20" s="1"/>
       <c r="BL20" s="22"/>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>307</v>
       </c>
@@ -34354,7 +35004,7 @@
       <c r="BK21" s="2"/>
       <c r="BL21" s="23"/>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>307</v>
       </c>
@@ -34446,7 +35096,7 @@
       <c r="BK22" s="1"/>
       <c r="BL22" s="22"/>
     </row>
-    <row r="23" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>307</v>
       </c>
@@ -34536,7 +35186,7 @@
       <c r="BK23" s="2"/>
       <c r="BL23" s="23"/>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>323</v>
       </c>
@@ -34648,7 +35298,7 @@
       <c r="BK24" s="1"/>
       <c r="BL24" s="22"/>
     </row>
-    <row r="25" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>307</v>
       </c>
@@ -34744,7 +35394,7 @@
       <c r="BK25" s="2"/>
       <c r="BL25" s="23"/>
     </row>
-    <row r="26" spans="1:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>353</v>
       </c>
@@ -34820,7 +35470,7 @@
       <c r="BK26" s="1"/>
       <c r="BL26" s="22"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>356</v>
       </c>
@@ -34892,7 +35542,7 @@
       <c r="BK27" s="2"/>
       <c r="BL27" s="23"/>
     </row>
-    <row r="28" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>361</v>
       </c>
@@ -34964,7 +35614,7 @@
       <c r="BK28" s="1"/>
       <c r="BL28" s="22"/>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>315</v>
       </c>
@@ -35036,7 +35686,7 @@
       <c r="BK29" s="2"/>
       <c r="BL29" s="23"/>
     </row>
-    <row r="30" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>409</v>
       </c>
@@ -35108,7 +35758,7 @@
       <c r="BK30" s="1"/>
       <c r="BL30" s="22"/>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>366</v>
       </c>
@@ -35180,7 +35830,7 @@
       <c r="BK31" s="2"/>
       <c r="BL31" s="23"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>371</v>
       </c>
@@ -35252,7 +35902,7 @@
       <c r="BK32" s="1"/>
       <c r="BL32" s="22"/>
     </row>
-    <row r="33" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>372</v>
       </c>
@@ -35324,7 +35974,7 @@
       <c r="BK33" s="2"/>
       <c r="BL33" s="23"/>
     </row>
-    <row r="34" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>377</v>
       </c>
@@ -35396,7 +36046,7 @@
       <c r="BK34" s="1"/>
       <c r="BL34" s="22"/>
     </row>
-    <row r="35" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>378</v>
       </c>
@@ -35468,7 +36118,7 @@
       <c r="BK35" s="2"/>
       <c r="BL35" s="23"/>
     </row>
-    <row r="36" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>381</v>
       </c>
@@ -35540,7 +36190,7 @@
       <c r="BK36" s="1"/>
       <c r="BL36" s="22"/>
     </row>
-    <row r="37" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>384</v>
       </c>
@@ -35612,7 +36262,7 @@
       <c r="BK37" s="2"/>
       <c r="BL37" s="23"/>
     </row>
-    <row r="38" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>315</v>
       </c>
@@ -35684,7 +36334,7 @@
       <c r="BK38" s="1"/>
       <c r="BL38" s="22"/>
     </row>
-    <row r="39" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>389</v>
       </c>
@@ -35756,7 +36406,7 @@
       <c r="BK39" s="2"/>
       <c r="BL39" s="23"/>
     </row>
-    <row r="40" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>392</v>
       </c>
@@ -35846,7 +36496,7 @@
       <c r="BK40" s="1"/>
       <c r="BL40" s="22"/>
     </row>
-    <row r="41" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>349</v>
       </c>
@@ -35918,7 +36568,7 @@
       <c r="BK41" s="2"/>
       <c r="BL41" s="23"/>
     </row>
-    <row r="42" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>855</v>
       </c>
@@ -36002,7 +36652,7 @@
       <c r="BK42" s="1"/>
       <c r="BL42" s="22"/>
     </row>
-    <row r="43" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>858</v>
       </c>
@@ -36130,7 +36780,7 @@
       <c r="BK43" s="2"/>
       <c r="BL43" s="23"/>
     </row>
-    <row r="44" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>953</v>
       </c>
@@ -36238,7 +36888,7 @@
       <c r="BK44" s="1"/>
       <c r="BL44" s="22"/>
     </row>
-    <row r="45" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -36304,7 +36954,7 @@
       <c r="BK45" s="2"/>
       <c r="BL45" s="23"/>
     </row>
-    <row r="46" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -36370,7 +37020,7 @@
       <c r="BK46" s="1"/>
       <c r="BL46" s="22"/>
     </row>
-    <row r="47" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -36436,7 +37086,7 @@
       <c r="BK47" s="2"/>
       <c r="BL47" s="23"/>
     </row>
-    <row r="48" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -36502,7 +37152,7 @@
       <c r="BK48" s="1"/>
       <c r="BL48" s="22"/>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -36568,7 +37218,7 @@
       <c r="BK49" s="2"/>
       <c r="BL49" s="23"/>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -36634,7 +37284,7 @@
       <c r="BK50" s="1"/>
       <c r="BL50" s="22"/>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -36700,7 +37350,7 @@
       <c r="BK51" s="2"/>
       <c r="BL51" s="23"/>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -36766,7 +37416,7 @@
       <c r="BK52" s="1"/>
       <c r="BL52" s="22"/>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -36832,7 +37482,7 @@
       <c r="BK53" s="2"/>
       <c r="BL53" s="23"/>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -36898,7 +37548,7 @@
       <c r="BK54" s="1"/>
       <c r="BL54" s="22"/>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -36964,7 +37614,7 @@
       <c r="BK55" s="2"/>
       <c r="BL55" s="23"/>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -37030,7 +37680,7 @@
       <c r="BK56" s="1"/>
       <c r="BL56" s="22"/>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -37096,7 +37746,7 @@
       <c r="BK57" s="2"/>
       <c r="BL57" s="23"/>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -37162,7 +37812,7 @@
       <c r="BK58" s="1"/>
       <c r="BL58" s="22"/>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -37228,7 +37878,7 @@
       <c r="BK59" s="2"/>
       <c r="BL59" s="23"/>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -37294,7 +37944,7 @@
       <c r="BK60" s="1"/>
       <c r="BL60" s="22"/>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -37362,27 +38012,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C16" r:id="rId3"/>
-    <hyperlink ref="D26" r:id="rId4" location="-general-search" display="https://github.com/jivoi/awesome-osint - -general-search"/>
-    <hyperlink ref="F26" r:id="rId5" location="-main-national-search-engines" display="https://github.com/jivoi/awesome-osint - -main-national-search-engines"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="D26" r:id="rId4" location="-general-search" display="https://github.com/jivoi/awesome-osint - -general-search" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="F26" r:id="rId5" location="-main-national-search-engines" display="https://github.com/jivoi/awesome-osint - -main-national-search-engines" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -37390,7 +38040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
@@ -37399,7 +38049,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>670</v>
       </c>
@@ -37408,7 +38058,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -37417,7 +38067,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -37426,7 +38076,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -37435,7 +38085,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
@@ -37443,7 +38093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -37452,7 +38102,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -37461,7 +38111,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -37470,7 +38120,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>124</v>
       </c>
@@ -37479,7 +38129,7 @@
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -37488,7 +38138,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>415</v>
       </c>
@@ -37496,7 +38146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>548</v>
       </c>
@@ -37505,7 +38155,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>551</v>
       </c>
@@ -37514,7 +38164,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>552</v>
       </c>
@@ -37523,7 +38173,7 @@
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>553</v>
       </c>
@@ -37532,7 +38182,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>555</v>
       </c>
@@ -37541,7 +38191,7 @@
       </c>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>668</v>
       </c>
@@ -37549,7 +38199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>825</v>
       </c>
@@ -37558,42 +38208,42 @@
       </c>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
